--- a/data/nzd0153/nzd0153.xlsx
+++ b/data/nzd0153/nzd0153.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC341"/>
+  <dimension ref="A1:AC347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28961,6 +28961,558 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>350.42</v>
+      </c>
+      <c r="C342" t="n">
+        <v>354.8744444444445</v>
+      </c>
+      <c r="D342" t="n">
+        <v>359.8244444444445</v>
+      </c>
+      <c r="E342" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="F342" t="n">
+        <v>386.4541935483871</v>
+      </c>
+      <c r="G342" t="n">
+        <v>383.8244444444445</v>
+      </c>
+      <c r="H342" t="n">
+        <v>398.7844444444444</v>
+      </c>
+      <c r="I342" t="n">
+        <v>398.2044444444445</v>
+      </c>
+      <c r="J342" t="n">
+        <v>394.9933333333333</v>
+      </c>
+      <c r="K342" t="n">
+        <v>397.5076470588235</v>
+      </c>
+      <c r="L342" t="n">
+        <v>390.2668421052632</v>
+      </c>
+      <c r="M342" t="n">
+        <v>385.9121739130435</v>
+      </c>
+      <c r="N342" t="n">
+        <v>387.8185714285714</v>
+      </c>
+      <c r="O342" t="n">
+        <v>384.38</v>
+      </c>
+      <c r="P342" t="n">
+        <v>380.6345454545455</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>381.9280952380952</v>
+      </c>
+      <c r="R342" t="n">
+        <v>384.0645454545455</v>
+      </c>
+      <c r="S342" t="n">
+        <v>388.4421739130435</v>
+      </c>
+      <c r="T342" t="n">
+        <v>392.05</v>
+      </c>
+      <c r="U342" t="n">
+        <v>391.8333333333333</v>
+      </c>
+      <c r="V342" t="n">
+        <v>375.09</v>
+      </c>
+      <c r="W342" t="n">
+        <v>378.1466666666667</v>
+      </c>
+      <c r="X342" t="n">
+        <v>373.9171428571429</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>374.5580952380952</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>381.6244444444445</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>387.2044444444445</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>387.0421739130435</v>
+      </c>
+      <c r="AC342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>337.51</v>
+      </c>
+      <c r="C343" t="n">
+        <v>356.8877777777778</v>
+      </c>
+      <c r="D343" t="n">
+        <v>373.3177777777778</v>
+      </c>
+      <c r="E343" t="n">
+        <v>381.72</v>
+      </c>
+      <c r="F343" t="n">
+        <v>375.8974193548388</v>
+      </c>
+      <c r="G343" t="n">
+        <v>383.1777777777777</v>
+      </c>
+      <c r="H343" t="n">
+        <v>399.0577777777777</v>
+      </c>
+      <c r="I343" t="n">
+        <v>404.6677777777778</v>
+      </c>
+      <c r="J343" t="n">
+        <v>400.3233333333333</v>
+      </c>
+      <c r="K343" t="n">
+        <v>394.6529411764706</v>
+      </c>
+      <c r="L343" t="n">
+        <v>400.9731578947368</v>
+      </c>
+      <c r="M343" t="n">
+        <v>392.2921739130435</v>
+      </c>
+      <c r="N343" t="n">
+        <v>390.1057142857143</v>
+      </c>
+      <c r="O343" t="n">
+        <v>400.35</v>
+      </c>
+      <c r="P343" t="n">
+        <v>389.68</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>387.7509523809524</v>
+      </c>
+      <c r="R343" t="n">
+        <v>385.64</v>
+      </c>
+      <c r="S343" t="n">
+        <v>401.8121739130435</v>
+      </c>
+      <c r="T343" t="n">
+        <v>390.96</v>
+      </c>
+      <c r="U343" t="n">
+        <v>390.3033333333333</v>
+      </c>
+      <c r="V343" t="n">
+        <v>377.29</v>
+      </c>
+      <c r="W343" t="n">
+        <v>383.6766666666667</v>
+      </c>
+      <c r="X343" t="n">
+        <v>373.9814285714286</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>366.3209523809524</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>366.6777777777777</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>368.0977777777778</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>374.3421739130435</v>
+      </c>
+      <c r="AC343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>348.785</v>
+      </c>
+      <c r="C344" t="n">
+        <v>351.9822222222222</v>
+      </c>
+      <c r="D344" t="n">
+        <v>360.6322222222223</v>
+      </c>
+      <c r="E344" t="n">
+        <v>383.95</v>
+      </c>
+      <c r="F344" t="n">
+        <v>386.6445161290322</v>
+      </c>
+      <c r="G344" t="n">
+        <v>389.5222222222222</v>
+      </c>
+      <c r="H344" t="n">
+        <v>397.6822222222222</v>
+      </c>
+      <c r="I344" t="n">
+        <v>398.1622222222222</v>
+      </c>
+      <c r="J344" t="n">
+        <v>391.8966666666667</v>
+      </c>
+      <c r="K344" t="n">
+        <v>393.2235294117647</v>
+      </c>
+      <c r="L344" t="n">
+        <v>389.608947368421</v>
+      </c>
+      <c r="M344" t="n">
+        <v>385.6256521739131</v>
+      </c>
+      <c r="N344" t="n">
+        <v>392.5628571428572</v>
+      </c>
+      <c r="O344" t="n">
+        <v>383.715</v>
+      </c>
+      <c r="P344" t="n">
+        <v>380.7345454545454</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>384.1904761904762</v>
+      </c>
+      <c r="R344" t="n">
+        <v>391.6345454545455</v>
+      </c>
+      <c r="S344" t="n">
+        <v>391.975652173913</v>
+      </c>
+      <c r="T344" t="n">
+        <v>397.31</v>
+      </c>
+      <c r="U344" t="n">
+        <v>395.3866666666667</v>
+      </c>
+      <c r="V344" t="n">
+        <v>374.485</v>
+      </c>
+      <c r="W344" t="n">
+        <v>378.1733333333333</v>
+      </c>
+      <c r="X344" t="n">
+        <v>378.3057142857143</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>383.7204761904762</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>382.2822222222222</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>385.9122222222222</v>
+      </c>
+      <c r="AB344" t="n">
+        <v>391.2956521739131</v>
+      </c>
+      <c r="AC344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>355.81</v>
+      </c>
+      <c r="C345" t="n">
+        <v>345.0922222222222</v>
+      </c>
+      <c r="D345" t="n">
+        <v>370.6422222222222</v>
+      </c>
+      <c r="E345" t="n">
+        <v>374.2000000000001</v>
+      </c>
+      <c r="F345" t="n">
+        <v>377.2229032258065</v>
+      </c>
+      <c r="G345" t="n">
+        <v>382.0722222222223</v>
+      </c>
+      <c r="H345" t="n">
+        <v>391.6622222222222</v>
+      </c>
+      <c r="I345" t="n">
+        <v>399.7822222222222</v>
+      </c>
+      <c r="J345" t="n">
+        <v>391.7366666666667</v>
+      </c>
+      <c r="K345" t="n">
+        <v>388.8282352941176</v>
+      </c>
+      <c r="L345" t="n">
+        <v>388.1247368421053</v>
+      </c>
+      <c r="M345" t="n">
+        <v>385.2695652173913</v>
+      </c>
+      <c r="N345" t="n">
+        <v>379.55</v>
+      </c>
+      <c r="O345" t="n">
+        <v>386.93</v>
+      </c>
+      <c r="P345" t="n">
+        <v>383.990909090909</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>379.4633333333333</v>
+      </c>
+      <c r="R345" t="n">
+        <v>378.8809090909091</v>
+      </c>
+      <c r="S345" t="n">
+        <v>394.1095652173913</v>
+      </c>
+      <c r="T345" t="n">
+        <v>398.37</v>
+      </c>
+      <c r="U345" t="n">
+        <v>392.5966666666667</v>
+      </c>
+      <c r="V345" t="n">
+        <v>391.95</v>
+      </c>
+      <c r="W345" t="n">
+        <v>386.5033333333333</v>
+      </c>
+      <c r="X345" t="n">
+        <v>380.37</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>381.2133333333333</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>390.8522222222222</v>
+      </c>
+      <c r="AA345" t="n">
+        <v>384.8722222222222</v>
+      </c>
+      <c r="AB345" t="n">
+        <v>386.3195652173913</v>
+      </c>
+      <c r="AC345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>350.595</v>
+      </c>
+      <c r="C346" t="n">
+        <v>359.0111111111111</v>
+      </c>
+      <c r="D346" t="n">
+        <v>364.8811111111111</v>
+      </c>
+      <c r="E346" t="n">
+        <v>385.97</v>
+      </c>
+      <c r="F346" t="n">
+        <v>373.6545161290322</v>
+      </c>
+      <c r="G346" t="n">
+        <v>381.8911111111111</v>
+      </c>
+      <c r="H346" t="n">
+        <v>393.1311111111111</v>
+      </c>
+      <c r="I346" t="n">
+        <v>401.2711111111111</v>
+      </c>
+      <c r="J346" t="n">
+        <v>394.6333333333333</v>
+      </c>
+      <c r="K346" t="n">
+        <v>388.9376470588235</v>
+      </c>
+      <c r="L346" t="n">
+        <v>394.8652631578947</v>
+      </c>
+      <c r="M346" t="n">
+        <v>387.0169565217391</v>
+      </c>
+      <c r="N346" t="n">
+        <v>381.3514285714285</v>
+      </c>
+      <c r="O346" t="n">
+        <v>390.915</v>
+      </c>
+      <c r="P346" t="n">
+        <v>383.1009090909091</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>380.8452380952381</v>
+      </c>
+      <c r="R346" t="n">
+        <v>394.3109090909091</v>
+      </c>
+      <c r="S346" t="n">
+        <v>393.8469565217391</v>
+      </c>
+      <c r="T346" t="n">
+        <v>397.96</v>
+      </c>
+      <c r="U346" t="n">
+        <v>393.2333333333333</v>
+      </c>
+      <c r="V346" t="n">
+        <v>388.075</v>
+      </c>
+      <c r="W346" t="n">
+        <v>390.3566666666667</v>
+      </c>
+      <c r="X346" t="n">
+        <v>381.3528571428572</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>382.8752380952381</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>383.3811111111111</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>391.0411111111111</v>
+      </c>
+      <c r="AB346" t="n">
+        <v>396.3169565217392</v>
+      </c>
+      <c r="AC346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="n">
+        <v>383.12</v>
+      </c>
+      <c r="F347" t="n">
+        <v>390.7722580645162</v>
+      </c>
+      <c r="G347" t="n">
+        <v>388.0488888888889</v>
+      </c>
+      <c r="H347" t="n">
+        <v>400.7388888888889</v>
+      </c>
+      <c r="I347" t="n">
+        <v>401.5088888888889</v>
+      </c>
+      <c r="J347" t="n">
+        <v>399.1766666666667</v>
+      </c>
+      <c r="K347" t="n">
+        <v>400.7682352941176</v>
+      </c>
+      <c r="L347" t="n">
+        <v>393.7778947368421</v>
+      </c>
+      <c r="M347" t="n">
+        <v>393.27</v>
+      </c>
+      <c r="N347" t="n">
+        <v>397.8542857142857</v>
+      </c>
+      <c r="O347" t="n">
+        <v>386.08</v>
+      </c>
+      <c r="P347" t="n">
+        <v>388.9081818181818</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>390.0990476190476</v>
+      </c>
+      <c r="R347" t="n">
+        <v>391.5881818181818</v>
+      </c>
+      <c r="S347" t="n">
+        <v>397.56</v>
+      </c>
+      <c r="T347" t="n">
+        <v>403.08</v>
+      </c>
+      <c r="U347" t="n">
+        <v>405.5366666666667</v>
+      </c>
+      <c r="V347" t="n">
+        <v>397.55</v>
+      </c>
+      <c r="W347" t="n">
+        <v>384.7933333333333</v>
+      </c>
+      <c r="X347" t="n">
+        <v>384.4385714285714</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>388.0690476190476</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>390.7888888888889</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>392.8588888888889</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>397.87</v>
+      </c>
+      <c r="AC347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28972,7 +29524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B356"/>
+  <dimension ref="A1:B362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32540,6 +33092,66 @@
       </c>
       <c r="B356" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -32708,28 +33320,28 @@
         <v>0.1032</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5608099323961626</v>
+        <v>0.5525236683003336</v>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K2" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05958547226831412</v>
+        <v>0.05973848082884414</v>
       </c>
       <c r="M2" t="n">
-        <v>13.48205484763678</v>
+        <v>13.33370643080455</v>
       </c>
       <c r="N2" t="n">
-        <v>269.894788182187</v>
+        <v>266.0023876983094</v>
       </c>
       <c r="O2" t="n">
-        <v>16.42847491954707</v>
+        <v>16.30957962972404</v>
       </c>
       <c r="P2" t="n">
-        <v>337.0793227252625</v>
+        <v>337.1569602414</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32785,28 +33397,28 @@
         <v>0.117</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7369313476707008</v>
+        <v>0.7442733446124564</v>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K3" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1010929541388399</v>
+        <v>0.1059366708492659</v>
       </c>
       <c r="M3" t="n">
-        <v>13.45822196922941</v>
+        <v>13.30644514387321</v>
       </c>
       <c r="N3" t="n">
-        <v>267.4846218128961</v>
+        <v>263.4321262143522</v>
       </c>
       <c r="O3" t="n">
-        <v>16.35495710214173</v>
+        <v>16.23059229400924</v>
       </c>
       <c r="P3" t="n">
-        <v>332.7069116430139</v>
+        <v>332.6385489856045</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -32862,28 +33474,28 @@
         <v>0.1148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.724445643391614</v>
+        <v>0.7284447207590646</v>
       </c>
       <c r="J4" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K4" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1178898303141966</v>
+        <v>0.1224933176258589</v>
       </c>
       <c r="M4" t="n">
-        <v>11.55640142077085</v>
+        <v>11.4379242735328</v>
       </c>
       <c r="N4" t="n">
-        <v>218.9480895851326</v>
+        <v>215.6919146007125</v>
       </c>
       <c r="O4" t="n">
-        <v>14.79689459262086</v>
+        <v>14.68645343848243</v>
       </c>
       <c r="P4" t="n">
-        <v>346.3869836763835</v>
+        <v>346.3500221104292</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -32939,28 +33551,28 @@
         <v>0.1157</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5898615199423871</v>
+        <v>0.611577914120134</v>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K5" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1058721262985999</v>
+        <v>0.1165349478279629</v>
       </c>
       <c r="M5" t="n">
-        <v>10.14600749443444</v>
+        <v>10.08777827769718</v>
       </c>
       <c r="N5" t="n">
-        <v>163.1007278423439</v>
+        <v>160.7267513306793</v>
       </c>
       <c r="O5" t="n">
-        <v>12.77108953231258</v>
+        <v>12.67780546193541</v>
       </c>
       <c r="P5" t="n">
-        <v>361.3936911856152</v>
+        <v>361.192706406327</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33016,28 +33628,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5714382454916463</v>
+        <v>0.5984808815991181</v>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K6" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1237889029490582</v>
+        <v>0.1371858297415497</v>
       </c>
       <c r="M6" t="n">
-        <v>8.396874698252278</v>
+        <v>8.405458091527477</v>
       </c>
       <c r="N6" t="n">
-        <v>128.8590505881386</v>
+        <v>128.1269912846073</v>
       </c>
       <c r="O6" t="n">
-        <v>11.35161004387213</v>
+        <v>11.31931938256922</v>
       </c>
       <c r="P6" t="n">
-        <v>360.0322703399469</v>
+        <v>359.7814862808715</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33093,28 +33705,28 @@
         <v>0.1024</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4886571003721727</v>
+        <v>0.5156144989255487</v>
       </c>
       <c r="J7" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K7" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09046189422739515</v>
+        <v>0.1025364036798436</v>
       </c>
       <c r="M7" t="n">
-        <v>8.626325954848614</v>
+        <v>8.610116308088678</v>
       </c>
       <c r="N7" t="n">
-        <v>133.282020520796</v>
+        <v>131.8090663896041</v>
       </c>
       <c r="O7" t="n">
-        <v>11.54478326001818</v>
+        <v>11.48081296727736</v>
       </c>
       <c r="P7" t="n">
-        <v>365.1306785484802</v>
+        <v>364.8802131145661</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33164,28 +33776,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.4668700383994894</v>
+        <v>0.5063014422290043</v>
       </c>
       <c r="J8" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K8" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08531173653245705</v>
+        <v>0.100801546739929</v>
       </c>
       <c r="M8" t="n">
-        <v>8.416321589250309</v>
+        <v>8.48264719304289</v>
       </c>
       <c r="N8" t="n">
-        <v>129.7019052829184</v>
+        <v>129.4890039613894</v>
       </c>
       <c r="O8" t="n">
-        <v>11.38867443045583</v>
+        <v>11.37932352828539</v>
       </c>
       <c r="P8" t="n">
-        <v>374.3708467422993</v>
+        <v>374.0044320668067</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33241,28 +33853,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4444895137010088</v>
+        <v>0.487240615280707</v>
       </c>
       <c r="J9" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K9" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07582884437937398</v>
+        <v>0.09139794939355195</v>
       </c>
       <c r="M9" t="n">
-        <v>9.106807783987021</v>
+        <v>9.172241190552294</v>
       </c>
       <c r="N9" t="n">
-        <v>132.3541216985894</v>
+        <v>132.3685458042861</v>
       </c>
       <c r="O9" t="n">
-        <v>11.50452613968039</v>
+        <v>11.50515301090282</v>
       </c>
       <c r="P9" t="n">
-        <v>377.7455115540896</v>
+        <v>377.3458419848415</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33318,28 +33930,28 @@
         <v>0.1415</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2350283092326138</v>
+        <v>0.2782271794847645</v>
       </c>
       <c r="J10" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K10" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02537152627394856</v>
+        <v>0.03578382530255575</v>
       </c>
       <c r="M10" t="n">
-        <v>8.892054989880016</v>
+        <v>8.91367255540365</v>
       </c>
       <c r="N10" t="n">
-        <v>117.792488520056</v>
+        <v>118.1932543839012</v>
       </c>
       <c r="O10" t="n">
-        <v>10.85322479819044</v>
+        <v>10.87167210616201</v>
       </c>
       <c r="P10" t="n">
-        <v>377.9219045120338</v>
+        <v>377.5213341839324</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -33395,28 +34007,28 @@
         <v>0.1115</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1977267107585404</v>
+        <v>0.2476339920147186</v>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K11" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02153779865847227</v>
+        <v>0.03353161101356494</v>
       </c>
       <c r="M11" t="n">
-        <v>7.685566164000237</v>
+        <v>7.804656561169538</v>
       </c>
       <c r="N11" t="n">
-        <v>98.90610359388229</v>
+        <v>100.5548058832115</v>
       </c>
       <c r="O11" t="n">
-        <v>9.945154779785094</v>
+        <v>10.02770192433</v>
       </c>
       <c r="P11" t="n">
-        <v>375.9203285818546</v>
+        <v>375.4602350336366</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -33472,28 +34084,28 @@
         <v>0.1108</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2232026802370002</v>
+        <v>0.2798315677301352</v>
       </c>
       <c r="J12" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K12" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02627538420365905</v>
+        <v>0.0405285383413837</v>
       </c>
       <c r="M12" t="n">
-        <v>7.889517972362172</v>
+        <v>8.09310891118897</v>
       </c>
       <c r="N12" t="n">
-        <v>102.6025037171553</v>
+        <v>105.226942315102</v>
       </c>
       <c r="O12" t="n">
-        <v>10.12928939843044</v>
+        <v>10.25801843998645</v>
       </c>
       <c r="P12" t="n">
-        <v>372.178767799716</v>
+        <v>371.6567048845388</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -33549,28 +34161,28 @@
         <v>0.132</v>
       </c>
       <c r="I13" t="n">
-        <v>0.18735958387636</v>
+        <v>0.227892257433638</v>
       </c>
       <c r="J13" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K13" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02177456327615845</v>
+        <v>0.03235774855989382</v>
       </c>
       <c r="M13" t="n">
-        <v>7.815265617117478</v>
+        <v>7.855151158778159</v>
       </c>
       <c r="N13" t="n">
-        <v>88.29624175748972</v>
+        <v>88.88736018955522</v>
       </c>
       <c r="O13" t="n">
-        <v>9.396607992115545</v>
+        <v>9.428009343947174</v>
       </c>
       <c r="P13" t="n">
-        <v>372.8491051682437</v>
+        <v>372.479232548077</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -33626,28 +34238,28 @@
         <v>0.1814</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1748505494294788</v>
+        <v>0.2179698161677444</v>
       </c>
       <c r="J14" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K14" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02682477574863673</v>
+        <v>0.04066093800812254</v>
       </c>
       <c r="M14" t="n">
-        <v>5.907032041844051</v>
+        <v>6.040979356678725</v>
       </c>
       <c r="N14" t="n">
-        <v>63.37104319306336</v>
+        <v>65.39452270793066</v>
       </c>
       <c r="O14" t="n">
-        <v>7.960593143294245</v>
+        <v>8.086687993729612</v>
       </c>
       <c r="P14" t="n">
-        <v>372.4866877245234</v>
+        <v>372.0948471837493</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -33703,28 +34315,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1827842538547562</v>
+        <v>0.2235144076980916</v>
       </c>
       <c r="J15" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K15" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01746379100808093</v>
+        <v>0.02624902244705796</v>
       </c>
       <c r="M15" t="n">
-        <v>8.25905326330134</v>
+        <v>8.306819899773439</v>
       </c>
       <c r="N15" t="n">
-        <v>107.4103850211769</v>
+        <v>108.0924396937587</v>
       </c>
       <c r="O15" t="n">
-        <v>10.36389815760348</v>
+        <v>10.396751400979</v>
       </c>
       <c r="P15" t="n">
-        <v>373.4337428695144</v>
+        <v>373.0625248868279</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -33780,28 +34392,28 @@
         <v>0.1256</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1567049713863475</v>
+        <v>0.1758391917934308</v>
       </c>
       <c r="J16" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K16" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01550622733003604</v>
+        <v>0.02009197427682274</v>
       </c>
       <c r="M16" t="n">
-        <v>6.730813132545701</v>
+        <v>6.676207120267672</v>
       </c>
       <c r="N16" t="n">
-        <v>90.02461804377856</v>
+        <v>88.87790949924263</v>
       </c>
       <c r="O16" t="n">
-        <v>9.488130376622076</v>
+        <v>9.427508127773883</v>
       </c>
       <c r="P16" t="n">
-        <v>375.5662187186485</v>
+        <v>375.3930002300982</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -33857,28 +34469,28 @@
         <v>0.1221</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1125792269764459</v>
+        <v>0.1301198996961894</v>
       </c>
       <c r="J17" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K17" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008983434739515794</v>
+        <v>0.01238458883157811</v>
       </c>
       <c r="M17" t="n">
-        <v>6.471957989580251</v>
+        <v>6.418297861326272</v>
       </c>
       <c r="N17" t="n">
-        <v>79.9710900288873</v>
+        <v>78.92701676294118</v>
       </c>
       <c r="O17" t="n">
-        <v>8.942655647451001</v>
+        <v>8.884087840793853</v>
       </c>
       <c r="P17" t="n">
-        <v>376.8096168508566</v>
+        <v>376.6502597303817</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -33928,28 +34540,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.07768909388490301</v>
+        <v>0.1131874239294719</v>
       </c>
       <c r="J18" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K18" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003414552975833263</v>
+        <v>0.007397547396414517</v>
       </c>
       <c r="M18" t="n">
-        <v>7.938313763630095</v>
+        <v>7.970562878131741</v>
       </c>
       <c r="N18" t="n">
-        <v>98.14716026590264</v>
+        <v>98.03850759933997</v>
       </c>
       <c r="O18" t="n">
-        <v>9.906924864250392</v>
+        <v>9.901439673064719</v>
       </c>
       <c r="P18" t="n">
-        <v>377.3676487359577</v>
+        <v>377.0389016829229</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -34005,28 +34617,28 @@
         <v>0.1399</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09581039454731714</v>
+        <v>0.1356759943828247</v>
       </c>
       <c r="J19" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K19" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004814320727809185</v>
+        <v>0.009794514414945055</v>
       </c>
       <c r="M19" t="n">
-        <v>8.309982138169984</v>
+        <v>8.322394721140826</v>
       </c>
       <c r="N19" t="n">
-        <v>107.8871722089615</v>
+        <v>108.0571234414073</v>
       </c>
       <c r="O19" t="n">
-        <v>10.38687499727235</v>
+        <v>10.39505283495025</v>
       </c>
       <c r="P19" t="n">
-        <v>381.9837115244555</v>
+        <v>381.6190427942825</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -34082,28 +34694,28 @@
         <v>0.1622</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1160580457647861</v>
+        <v>0.1646195149898639</v>
       </c>
       <c r="J20" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K20" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L20" t="n">
-        <v>0.006025349711307859</v>
+        <v>0.01224653156859645</v>
       </c>
       <c r="M20" t="n">
-        <v>8.616507650968339</v>
+        <v>8.722156313868609</v>
       </c>
       <c r="N20" t="n">
-        <v>124.2039396361721</v>
+        <v>124.8928708927794</v>
       </c>
       <c r="O20" t="n">
-        <v>11.14468212360371</v>
+        <v>11.17554790123416</v>
       </c>
       <c r="P20" t="n">
-        <v>381.4883554397484</v>
+        <v>381.0402732567076</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -34159,28 +34771,28 @@
         <v>0.1408</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09846911041044558</v>
+        <v>0.1355313474465474</v>
       </c>
       <c r="J21" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K21" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004476247801003752</v>
+        <v>0.008666343073475136</v>
       </c>
       <c r="M21" t="n">
-        <v>8.170282377083701</v>
+        <v>8.197557302360504</v>
       </c>
       <c r="N21" t="n">
-        <v>118.7578609159375</v>
+        <v>118.4239284620498</v>
       </c>
       <c r="O21" t="n">
-        <v>10.89760803644256</v>
+        <v>10.88227588613934</v>
       </c>
       <c r="P21" t="n">
-        <v>383.2057393520587</v>
+        <v>382.8620078999905</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -34236,28 +34848,28 @@
         <v>0.0956</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.144265243505214</v>
+        <v>-0.1257099996609953</v>
       </c>
       <c r="J22" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K22" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L22" t="n">
-        <v>0.006313617301272112</v>
+        <v>0.004961387245407844</v>
       </c>
       <c r="M22" t="n">
-        <v>10.1634549587064</v>
+        <v>10.10960045084406</v>
       </c>
       <c r="N22" t="n">
-        <v>181.6880453934329</v>
+        <v>179.9061990680824</v>
       </c>
       <c r="O22" t="n">
-        <v>13.47917079769497</v>
+        <v>13.41291165512106</v>
       </c>
       <c r="P22" t="n">
-        <v>383.166958849127</v>
+        <v>382.9949830685518</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -34313,28 +34925,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1203873936918784</v>
+        <v>0.1643062132648963</v>
       </c>
       <c r="J23" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K23" t="n">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003080826489295307</v>
+        <v>0.005928087604454291</v>
       </c>
       <c r="M23" t="n">
-        <v>13.14735103346346</v>
+        <v>13.08694647117575</v>
       </c>
       <c r="N23" t="n">
-        <v>255.9812865821055</v>
+        <v>253.1116524290832</v>
       </c>
       <c r="O23" t="n">
-        <v>15.99941519500339</v>
+        <v>15.90948309748256</v>
       </c>
       <c r="P23" t="n">
-        <v>369.979081243805</v>
+        <v>369.5708167495683</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -34390,28 +35002,28 @@
         <v>0.0847</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3044451893651089</v>
+        <v>0.3395491800477921</v>
       </c>
       <c r="J24" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K24" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02172400492014137</v>
+        <v>0.02792329904497481</v>
       </c>
       <c r="M24" t="n">
-        <v>11.99770860348453</v>
+        <v>11.89845770351338</v>
       </c>
       <c r="N24" t="n">
-        <v>226.519944042939</v>
+        <v>223.1352584767005</v>
       </c>
       <c r="O24" t="n">
-        <v>15.05057952515248</v>
+        <v>14.93771262532187</v>
       </c>
       <c r="P24" t="n">
-        <v>362.8728868491672</v>
+        <v>362.542775597403</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -34467,28 +35079,28 @@
         <v>0.1319</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08114622831314582</v>
+        <v>0.1166910294286536</v>
       </c>
       <c r="J25" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K25" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001949590609437224</v>
+        <v>0.004154778135741277</v>
       </c>
       <c r="M25" t="n">
-        <v>10.55623434684898</v>
+        <v>10.53429987421311</v>
       </c>
       <c r="N25" t="n">
-        <v>181.5428761777098</v>
+        <v>180.1349740159442</v>
       </c>
       <c r="O25" t="n">
-        <v>13.47378477554506</v>
+        <v>13.42143710695484</v>
       </c>
       <c r="P25" t="n">
-        <v>368.9774197549141</v>
+        <v>368.6436535381644</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -34544,28 +35156,28 @@
         <v>0.1085</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1349276759669161</v>
+        <v>0.1844791989142261</v>
       </c>
       <c r="J26" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K26" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004642307264140055</v>
+        <v>0.008861143946134242</v>
       </c>
       <c r="M26" t="n">
-        <v>11.33343518143999</v>
+        <v>11.38659448664148</v>
       </c>
       <c r="N26" t="n">
-        <v>210.7120671852739</v>
+        <v>210.4152336894088</v>
       </c>
       <c r="O26" t="n">
-        <v>14.51592460662682</v>
+        <v>14.50569659442141</v>
       </c>
       <c r="P26" t="n">
-        <v>367.3104997790618</v>
+        <v>366.8439526044784</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -34621,28 +35233,28 @@
         <v>0.1067</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05128748168170403</v>
+        <v>0.07910301292345802</v>
       </c>
       <c r="J27" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K27" t="n">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L27" t="n">
-        <v>0.000956156169696798</v>
+        <v>0.00233854437509895</v>
       </c>
       <c r="M27" t="n">
-        <v>9.80637325288034</v>
+        <v>9.801552119066166</v>
       </c>
       <c r="N27" t="n">
-        <v>148.609803207291</v>
+        <v>147.7169524616891</v>
       </c>
       <c r="O27" t="n">
-        <v>12.19056205460975</v>
+        <v>12.15388631104015</v>
       </c>
       <c r="P27" t="n">
-        <v>376.9649747762784</v>
+        <v>376.702306553648</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -34698,28 +35310,28 @@
         <v>0.1523</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0381055306863621</v>
+        <v>0.08568447867562583</v>
       </c>
       <c r="J28" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K28" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0003383945372114061</v>
+        <v>0.001754710893032585</v>
       </c>
       <c r="M28" t="n">
-        <v>12.33712647448639</v>
+        <v>12.31040932940169</v>
       </c>
       <c r="N28" t="n">
-        <v>237.1367292541809</v>
+        <v>236.0895499953253</v>
       </c>
       <c r="O28" t="n">
-        <v>15.3992444377697</v>
+        <v>15.3652058233961</v>
       </c>
       <c r="P28" t="n">
-        <v>376.1789640611159</v>
+        <v>375.7351593389154</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -34756,7 +35368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC341"/>
+  <dimension ref="A1:AC347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78407,6 +79019,876 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-36.7068570198955,175.74493817854278</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-36.707136828015265,175.7457663570032</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-36.707412822806546,175.74659688365148</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-36.70746216399765,175.74747867357314</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-36.70749024917814,175.74833999964682</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-36.707574147969446,175.74923324288974</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-36.70749971862383,175.75011240431851</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>-36.70747929337902,175.75095479047667</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>-36.70740577896117,175.75182709510446</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>-36.70727828664251,175.7527113895991</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>-36.70723786513447,175.75361641526897</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>-36.707183564146554,175.75451715099484</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>-36.707073900636956,175.7554048465096</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>-36.70701144641232,175.7563040130073</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>-36.70696540508729,175.7572089154985</t>
+        </is>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>-36.706901549035955,175.75810787091083</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>-36.706830665641064,175.75900169528342</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>-36.70674347140766,175.75986644414974</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>-36.70654683524261,175.76069215539735</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>-36.70635088723219,175.76154851005768</t>
+        </is>
+      </c>
+      <c r="V342" t="inlineStr">
+        <is>
+          <t>-36.70629207504951,175.76246370004768</t>
+        </is>
+      </c>
+      <c r="W342" t="inlineStr">
+        <is>
+          <t>-36.706046137393265,175.76330583155456</t>
+        </is>
+      </c>
+      <c r="X342" t="inlineStr">
+        <is>
+          <t>-36.705861602822324,175.76417633081635</t>
+        </is>
+      </c>
+      <c r="Y342" t="inlineStr">
+        <is>
+          <t>-36.70563739056529,175.76502436764457</t>
+        </is>
+      </c>
+      <c r="Z342" t="inlineStr">
+        <is>
+          <t>-36.70531708007854,175.7658222219496</t>
+        </is>
+      </c>
+      <c r="AA342" t="inlineStr">
+        <is>
+          <t>-36.70499490828681,175.76662430251287</t>
+        </is>
+      </c>
+      <c r="AB342" t="inlineStr">
+        <is>
+          <t>-36.70471925343079,175.76745424595583</t>
+        </is>
+      </c>
+      <c r="AC342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-36.706962415142705,175.74487712531075</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-36.707120391433456,175.74577587824</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-36.70730050476215,175.74665459439782</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-36.70747521562351,175.74747529495198</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-36.707585144554095,175.74833230609403</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-36.70757996088822,175.7492327716571</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-36.70749725640211,175.7501124140497</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-36.70742143866082,175.75094667225352</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>-36.70735842099281,175.7518172747874</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>-36.707303653600775,175.7527166312674</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>-36.70714259423963,175.75359778840087</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>-36.707126720382306,175.75450662579948</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>-36.707053522951746,175.75540107322468</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>-36.706868956164925,175.75627941557389</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>-36.70688441020879,175.7571978582807</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>-36.706849311850384,175.75810196631505</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>-36.7068165321625,175.75900009760855</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>-36.70662489936683,175.7598402113458</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>-36.706556268207116,175.76069554052222</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>-36.70636404134701,175.76155361937768</t>
+        </is>
+      </c>
+      <c r="V343" t="inlineStr">
+        <is>
+          <t>-36.70627325180685,175.7624560006498</t>
+        </is>
+      </c>
+      <c r="W343" t="inlineStr">
+        <is>
+          <t>-36.70599901898662,175.7632857528098</t>
+        </is>
+      </c>
+      <c r="X343" t="inlineStr">
+        <is>
+          <t>-36.70586105507678,175.7641760973994</t>
+        </is>
+      </c>
+      <c r="Y343" t="inlineStr">
+        <is>
+          <t>-36.70570675717138,175.76505708685593</t>
+        </is>
+      </c>
+      <c r="Z343" t="inlineStr">
+        <is>
+          <t>-36.70544084022123,175.7658880756873</t>
+        </is>
+      </c>
+      <c r="AA343" t="inlineStr">
+        <is>
+          <t>-36.70515247165688,175.7667103215969</t>
+        </is>
+      </c>
+      <c r="AB343" t="inlineStr">
+        <is>
+          <t>-36.70482398385464,175.76751142238058</t>
+        </is>
+      </c>
+      <c r="AC343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-36.70687036778456,175.74493044640332</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-36.70716043972634,175.74575267941393</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-36.707406098892655,175.74660033850714</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-36.707455549998016,175.7474803857119</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-36.70748853835885,175.74834013834976</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-36.707522930361925,175.7492373949173</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-36.70750964758297,175.75011236507723</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-36.70747967131942,175.75095484350962</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>-36.707433293377306,175.75183280059838</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>-36.707316355374445,175.75271925588333</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>-36.707243719456294,175.75361755987717</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>-36.70718611696377,175.75451762367507</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>-36.70703163062255,175.75539701947957</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>-36.70701737978805,175.75630503726094</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>-36.70696450966653,175.75720879325775</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>-36.70688125308673,175.7581055767704</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>-36.70676275480601,175.75899401852246</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>-36.70671213470505,175.7598595112281</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>-36.70650131469625,175.76067581985325</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>-36.70632033758741,175.76153664397535</t>
+        </is>
+      </c>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>-36.70629725144112,175.7624658173828</t>
+        </is>
+      </c>
+      <c r="W344" t="inlineStr">
+        <is>
+          <t>-36.70604591017976,175.76330573473115</t>
+        </is>
+      </c>
+      <c r="X344" t="inlineStr">
+        <is>
+          <t>-36.70582421005913,175.76416039622697</t>
+        </is>
+      </c>
+      <c r="Y344" t="inlineStr">
+        <is>
+          <t>-36.70556023233224,175.76498797331698</t>
+        </is>
+      </c>
+      <c r="Z344" t="inlineStr">
+        <is>
+          <t>-36.70531163360073,175.76581932384195</t>
+        </is>
+      </c>
+      <c r="AA344" t="inlineStr">
+        <is>
+          <t>-36.705005564616386,175.7666301201446</t>
+        </is>
+      </c>
+      <c r="AB344" t="inlineStr">
+        <is>
+          <t>-36.70468417715659,175.7674350964899</t>
+        </is>
+      </c>
+      <c r="AC344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-36.7068130167598,175.74496366857457</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-36.70721668874927,175.74572009592748</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-36.707322775996765,175.74664315110704</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-36.70754153199162,175.74745812788817</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-36.707573229712764,175.74833327207912</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-36.70758989878199,175.74923196602728</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-36.7075638765148,175.75011215075475</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-36.70746517034327,175.75095280871892</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>-36.70743471500482,175.75183309539258</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>-36.70735541202102,175.75272732631356</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>-36.707256926806245,175.75362014211407</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>-36.70718928958487,175.7545182111184</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>-36.707147570867086,175.75541848786148</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>-36.70698869436986,175.75630008541992</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>-36.70693535151061,175.75720481265614</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>-36.70692366055613,175.75811037027503</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>-36.70687716829184,175.7590069520355</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>-36.70669321006624,175.75985532435055</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>-36.706492141353806,175.760672527902</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>-36.70634432450376,175.7615459609641</t>
+        </is>
+      </c>
+      <c r="V345" t="inlineStr">
+        <is>
+          <t>-36.70614782054445,175.76240469476497</t>
+        </is>
+      </c>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t>-36.70597493435018,175.76327548954347</t>
+        </is>
+      </c>
+      <c r="X345" t="inlineStr">
+        <is>
+          <t>-36.70580662133971,175.7641529009587</t>
+        </is>
+      </c>
+      <c r="Y345" t="inlineStr">
+        <is>
+          <t>-36.705581345482585,175.76499793205025</t>
+        </is>
+      </c>
+      <c r="Z345" t="inlineStr">
+        <is>
+          <t>-36.705240672978825,175.76578156525912</t>
+        </is>
+      </c>
+      <c r="AA345" t="inlineStr">
+        <is>
+          <t>-36.7050141409914,175.76663480226387</t>
+        </is>
+      </c>
+      <c r="AB345" t="inlineStr">
+        <is>
+          <t>-36.704725212417166,175.7674574991941</t>
+        </is>
+      </c>
+      <c r="AC345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-36.70685559122232,175.74493900614164</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-36.70710305682578,175.74578591967267</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-36.70737073128914,175.74661851094342</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-36.707437736292285,175.7474849970709</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-36.70760530612425,175.7483306715123</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-36.70759152679876,175.7492318340497</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-36.70755064457539,175.75011220304955</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-36.70745184297142,175.7509509386103</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-36.70740897762313,175.75182775839093</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-36.70735443978653,175.75272712541675</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-36.70719694576603,175.7536084149209</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-36.70717372088618,175.75451532841473</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>-36.707131520736034,175.7554155158919</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>-36.706953138726426,175.75629394760747</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>-36.706943320755386,175.75720590059797</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>-36.70691126340941,175.75810896896976</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>-36.70673874501835,175.75899130441778</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>-36.70669553901531,175.75985583960593</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>-36.70649568953344,175.7606738012038</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>-36.70633885078698,175.76154383486457</t>
+        </is>
+      </c>
+      <c r="V346" t="inlineStr">
+        <is>
+          <t>-36.70618097512743,175.76241825615983</t>
+        </is>
+      </c>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t>-36.70594210198998,175.76326149859244</t>
+        </is>
+      </c>
+      <c r="X346" t="inlineStr">
+        <is>
+          <t>-36.705798246918064,175.76414933227863</t>
+        </is>
+      </c>
+      <c r="Y346" t="inlineStr">
+        <is>
+          <t>-36.70556735025105,175.76499133072403</t>
+        </is>
+      </c>
+      <c r="Z346" t="inlineStr">
+        <is>
+          <t>-36.70530253467057,175.76581448224078</t>
+        </is>
+      </c>
+      <c r="AA346" t="inlineStr">
+        <is>
+          <t>-36.70496326915654,175.76660702970915</t>
+        </is>
+      </c>
+      <c r="AB346" t="inlineStr">
+        <is>
+          <t>-36.704642769005616,175.76741249023902</t>
+        </is>
+      </c>
+      <c r="AC346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-36.70746286949093,175.747478490945</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-36.70745143387801,175.7483431465572</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-36.70753617422849,175.7492363212849</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-36.70748211273757,175.75011247390074</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-36.707449714570224,175.75095063995124</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-36.707368609323844,175.75181938747485</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>-36.70724931300715,175.7527054026748</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>-36.70720662178939,175.75361030672718</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>-36.7071180082637,175.75450501266462</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>-36.70698448574517,175.75538828979577</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>-36.706996278384054,175.7563013946154</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>-36.7068913212292,175.75719880175475</t>
+        </is>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>-36.70682824695297,175.75809958526122</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>-36.70676317073643,175.75899406553992</t>
+        </is>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>-36.70666260983468,175.7598485543758</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>-36.706451380556935,175.7606579004686</t>
+        </is>
+      </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>-36.70623307334868,175.76150274888968</t>
+        </is>
+      </c>
+      <c r="V347" t="inlineStr">
+        <is>
+          <t>-36.706099906820626,175.76238509638412</t>
+        </is>
+      </c>
+      <c r="W347" t="inlineStr">
+        <is>
+          <t>-36.70598950441931,175.76328169833468</t>
+        </is>
+      </c>
+      <c r="X347" t="inlineStr">
+        <is>
+          <t>-36.705771955128185,175.7641381282884</t>
+        </is>
+      </c>
+      <c r="Y347" t="inlineStr">
+        <is>
+          <t>-36.70552361214172,175.7649707001773</t>
+        </is>
+      </c>
+      <c r="Z347" t="inlineStr">
+        <is>
+          <t>-36.705241197386435,175.7657818442993</t>
+        </is>
+      </c>
+      <c r="AA347" t="inlineStr">
+        <is>
+          <t>-36.7049482788232,175.766598846017</t>
+        </is>
+      </c>
+      <c r="AB347" t="inlineStr">
+        <is>
+          <t>-36.704629961842365,175.7674054983377</t>
+        </is>
+      </c>
+      <c r="AC347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0153/nzd0153.xlsx
+++ b/data/nzd0153/nzd0153.xlsx
@@ -33165,7 +33165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33256,35 +33256,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33343,27 +33348,28 @@
       <c r="P2" t="n">
         <v>337.1569602414</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.74328093567786 -36.70971778543472, 175.74763146306614 -36.7022073442489)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.7432809356779</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.70971778543472</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.7476314630661</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.7022073442489</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.745456199372</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.70596256484181</v>
       </c>
     </row>
@@ -33420,27 +33426,28 @@
       <c r="P3" t="n">
         <v>332.6385489856045</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.7440880627114 -36.71003396521815, 175.74843854742403 -36.70252351775758)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.7440880627114</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.71003396521815</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.748438547424</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.70252351775758</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.7462633050677</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.70627874148786</v>
       </c>
     </row>
@@ -33497,27 +33504,28 @@
       <c r="P4" t="n">
         <v>346.3500221104292</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.7450578620646 -36.71040798070753, 175.74899224010062 -36.7027506421835)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.7450578620646</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.71040798070753</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.7489922401006</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.7027506421835</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.7470250510826</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.70657931144552</v>
       </c>
     </row>
@@ -33574,27 +33582,28 @@
       <c r="P5" t="n">
         <v>361.192706406327</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.74660385094657 -36.71084147439282, 175.74870350342957 -36.7027303802395)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.7466038509466</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.71084147439282</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.7487035034296</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.7027303802395</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.7476536771881</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.70678592731616</v>
       </c>
     </row>
@@ -33651,27 +33660,28 @@
       <c r="P6" t="n">
         <v>359.7814862808715</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.74805835256026 -36.710964104741116, 175.74872860928727 -36.702696796056536)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.7480583525603</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.71096410474112</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.7487286092873</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.70269679605654</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.7483934809238</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.70683045039883</v>
       </c>
     </row>
@@ -33728,27 +33738,28 @@
       <c r="P7" t="n">
         <v>364.8802131145661</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.74895353849274 -36.71102436426548, 175.7496237323751 -36.702757057696516)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.7489535384927</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.71102436426548</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.7496237323751</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.70275705769652</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.7492886354339</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.706890710981</v>
       </c>
     </row>
@@ -33799,27 +33810,28 @@
       <c r="P8" t="n">
         <v>374.0044320668067</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.75009821151886 -36.71109201911289, 175.75013095803612 -36.70280723420834)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.7500982115189</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.71109201911289</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.7501309580361</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.70280723420834</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.7501145847775</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.70694962666062</v>
       </c>
     </row>
@@ -33876,27 +33888,28 @@
       <c r="P9" t="n">
         <v>377.3458419848415</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.75145498112133 -36.7110437059308, 175.7502997981816 -36.70281112715725)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.7514549811213</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.7110437059308</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.7502997981816</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.70281112715725</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.7508773896515</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.70692741654402</v>
       </c>
     </row>
@@ -33953,27 +33966,28 @@
       <c r="P10" t="n">
         <v>377.5213341839324</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.75255489356744 -36.71091535819691, 175.75086034587702 -36.70274335189853)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.7525548935674</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.71091535819691</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.750860345877</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.70274335189853</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.7517076197222</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.70682935504772</v>
       </c>
     </row>
@@ -34030,27 +34044,28 @@
       <c r="P11" t="n">
         <v>375.4602350336366</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.75344131152 -36.71081054087967, 175.75175256834032 -36.7026377572308)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.75344131152</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.71081054087967</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.7517525683403</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.7026377572308</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.7525969399302</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.70672414905523</v>
       </c>
     </row>
@@ -34107,27 +34122,28 @@
       <c r="P12" t="n">
         <v>371.6567048845388</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.7542954387308 -36.71071067751523, 175.75269531463152 -36.70252637419715)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.7542954387308</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.71071067751523</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.7526953146315</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.70252637419715</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.7534953766811</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.70661852585619</v>
       </c>
     </row>
@@ -34184,27 +34200,28 @@
       <c r="P13" t="n">
         <v>372.479232548077</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.7551538307076 -36.710621914645046, 175.7536365663495 -36.70242741564891)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.7551538307076</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.71062191464505</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.7536365663495</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.70242741564891</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.7543951985286</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.70652466514698</v>
       </c>
     </row>
@@ -34261,27 +34278,28 @@
       <c r="P14" t="n">
         <v>372.0948471837493</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.7560446960024 -36.71052923180704, 175.75452737213593 -36.70233473971976)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.7560446960024</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.71052923180704</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.7545273721359</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.70233473971976</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.7552860340692</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.7064319857634</v>
       </c>
     </row>
@@ -34338,27 +34356,28 @@
       <c r="P15" t="n">
         <v>373.0625248868279</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.7568960781255 -36.71044102336306, 175.75547951582672 -36.70223487799118)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.7568960781255</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.71044102336306</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.7554795158267</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.70223487799118</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.7561877969761</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.70633795067712</v>
       </c>
     </row>
@@ -34415,27 +34434,28 @@
       <c r="P16" t="n">
         <v>375.3930002300982</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.75767423142636 -36.71037368315713, 175.75654998643068 -36.70213833273065)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.7576742314264</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.71037368315713</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.7565499864307</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.70213833273065</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.7571121089285</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.70625600794389</v>
       </c>
     </row>
@@ -34492,27 +34512,28 @@
       <c r="P17" t="n">
         <v>376.6502597303817</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (175.75849518276576 -36.710327845637025, 175.75756257926847 -36.70207703771471)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>175.7584951827658</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-36.71032784563702</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>175.7575625792685</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-36.70207703771471</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175.7580288810171</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-36.70620244167587</v>
       </c>
     </row>
@@ -34563,27 +34584,28 @@
       <c r="P18" t="n">
         <v>377.0389016829229</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (175.75939119913548 -36.710276124905704, 175.7584585341334 -36.702025322687234)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>175.7593911991355</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-36.7102761249057</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>175.7584585341334</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-36.70202532268723</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>175.7589248666345</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-36.70615072379647</v>
       </c>
     </row>
@@ -34640,27 +34662,28 @@
       <c r="P19" t="n">
         <v>381.6190427942825</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (175.76062863301442 -36.710188371602165, 175.75882406751697 -36.702031609178114)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>175.7606286330144</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-36.71018837160216</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>175.758824067517</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-36.70203160917811</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>175.7597263502657</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-36.70610999039014</v>
       </c>
     </row>
@@ -34717,27 +34740,28 @@
       <c r="P20" t="n">
         <v>381.0402732567076</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (175.76190977124784 -36.70993966422326, 175.75905325204297 -36.70197956850043)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>175.7619097712478</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-36.70993966422326</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>175.759053252043</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-36.70197956850043</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>175.7604815116454</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-36.70595961636185</v>
       </c>
     </row>
@@ -34794,27 +34818,28 @@
       <c r="P21" t="n">
         <v>382.8620078999905</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (175.76285706927058 -36.709719648503224, 175.75978544038716 -36.701811498300565)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>175.7628570692706</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-36.70971964850322</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>175.7597854403872</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-36.70181149830056</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>175.7613212548289</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-36.70576557340189</v>
       </c>
     </row>
@@ -34871,27 +34896,28 @@
       <c r="P22" t="n">
         <v>382.9949830685518</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (175.7637764712462 -36.70950134199994, 175.7605573622017 -36.70163119890197)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>175.7637764712462</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-36.70950134199994</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>175.7605573622017</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-36.70163119890197</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>175.7621669167239</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-36.70556627045096</v>
       </c>
     </row>
@@ -34948,27 +34974,28 @@
       <c r="P23" t="n">
         <v>369.5708167495683</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (175.76467889738564 -36.70926812764638, 175.76133911006445 -36.701430555240066)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>175.7646788973856</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-36.70926812764638</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>175.7613391100645</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-36.70143055524007</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>175.763009003725</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-36.70534934144322</v>
       </c>
     </row>
@@ -35025,27 +35052,28 @@
       <c r="P24" t="n">
         <v>362.542775597403</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (175.76553405783957 -36.70904754776786, 175.76219422237537 -36.70120998553107)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>175.7655340578396</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-36.70904754776786</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>175.7621942223754</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-36.70120998553107</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>175.7638641401075</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-36.70512876664947</v>
       </c>
     </row>
@@ -35102,27 +35130,28 @@
       <c r="P25" t="n">
         <v>368.6436535381644</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (175.7665122336494 -36.70879160590069, 175.76285841584013 -36.701045127286804)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>175.7665122336494</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-36.70879160590069</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>175.7628584158401</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-36.7010451272868</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>175.7646853247448</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-36.70491836659374</v>
       </c>
     </row>
@@ -35179,27 +35208,28 @@
       <c r="P26" t="n">
         <v>366.8439526044784</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (175.76750369621044 -36.70847696005757, 175.7634506974564 -36.70085992062243)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>175.7675036962104</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-36.70847696005757</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>175.7634506974564</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-36.70085992062243</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>175.7654771968334</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-36.70466844034</v>
       </c>
     </row>
@@ -35256,27 +35286,28 @@
       <c r="P27" t="n">
         <v>376.702306553648</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (175.76836758651146 -36.70818797891881, 175.7642261058632 -36.70060176551593)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>175.7683675865115</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-36.70818797891881</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>175.7642261058632</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-36.70060176551593</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>175.7662968461873</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-36.70439487221736</v>
       </c>
     </row>
@@ -35333,27 +35364,28 @@
       <c r="P28" t="n">
         <v>375.7351593389154</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (175.7691968141879 -36.70791097686026, 175.76505529283884 -36.700324774725516)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>175.7691968141879</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-36.70791097686026</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>175.7650552928388</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-36.70032477472552</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>175.7671260535134</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-36.70411787579289</v>
       </c>
     </row>

--- a/data/nzd0153/nzd0153.xlsx
+++ b/data/nzd0153/nzd0153.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC347"/>
+  <dimension ref="A1:AC352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29513,6 +29513,437 @@
         </is>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>360.1</v>
+      </c>
+      <c r="C348" t="n">
+        <v>362.0555555555555</v>
+      </c>
+      <c r="D348" t="n">
+        <v>364.5555555555555</v>
+      </c>
+      <c r="E348" t="n">
+        <v>386.88</v>
+      </c>
+      <c r="F348" t="n">
+        <v>384.3993548387097</v>
+      </c>
+      <c r="G348" t="n">
+        <v>379.4855555555556</v>
+      </c>
+      <c r="H348" t="n">
+        <v>400.6455555555555</v>
+      </c>
+      <c r="I348" t="n">
+        <v>399.9455555555555</v>
+      </c>
+      <c r="J348" t="n">
+        <v>395.0566666666667</v>
+      </c>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
+      <c r="M348" t="inlineStr"/>
+      <c r="N348" t="inlineStr"/>
+      <c r="O348" t="inlineStr"/>
+      <c r="P348" t="inlineStr"/>
+      <c r="Q348" t="inlineStr"/>
+      <c r="R348" t="n">
+        <v>394.2636363636364</v>
+      </c>
+      <c r="S348" t="n">
+        <v>391.6817391304348</v>
+      </c>
+      <c r="T348" t="n">
+        <v>396.18</v>
+      </c>
+      <c r="U348" t="n">
+        <v>396.1066666666667</v>
+      </c>
+      <c r="V348" t="n">
+        <v>388.65</v>
+      </c>
+      <c r="W348" t="n">
+        <v>387.1033333333333</v>
+      </c>
+      <c r="X348" t="n">
+        <v>384.3257142857143</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>380.8104761904762</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>383.3155555555555</v>
+      </c>
+      <c r="AA348" t="n">
+        <v>387.6855555555555</v>
+      </c>
+      <c r="AB348" t="n">
+        <v>386.6717391304348</v>
+      </c>
+      <c r="AC348" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>363.995</v>
+      </c>
+      <c r="C349" t="n">
+        <v>364.3477777777778</v>
+      </c>
+      <c r="D349" t="n">
+        <v>374.5477777777778</v>
+      </c>
+      <c r="E349" t="n">
+        <v>396.23</v>
+      </c>
+      <c r="F349" t="n">
+        <v>380.5754838709677</v>
+      </c>
+      <c r="G349" t="n">
+        <v>390.3077777777777</v>
+      </c>
+      <c r="H349" t="n">
+        <v>411.4277777777777</v>
+      </c>
+      <c r="I349" t="n">
+        <v>411.1977777777778</v>
+      </c>
+      <c r="J349" t="n">
+        <v>401.4033333333333</v>
+      </c>
+      <c r="K349" t="n">
+        <v>408.3564705882353</v>
+      </c>
+      <c r="L349" t="n">
+        <v>401.461052631579</v>
+      </c>
+      <c r="M349" t="n">
+        <v>391.714347826087</v>
+      </c>
+      <c r="N349" t="n">
+        <v>387.4171428571429</v>
+      </c>
+      <c r="O349" t="n">
+        <v>399.005</v>
+      </c>
+      <c r="P349" t="n">
+        <v>389.1554545454546</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>389.0395238095238</v>
+      </c>
+      <c r="R349" t="n">
+        <v>385.6454545454546</v>
+      </c>
+      <c r="S349" t="n">
+        <v>399.3243478260869</v>
+      </c>
+      <c r="T349" t="n">
+        <v>403.52</v>
+      </c>
+      <c r="U349" t="n">
+        <v>394.4633333333333</v>
+      </c>
+      <c r="V349" t="n">
+        <v>397.605</v>
+      </c>
+      <c r="W349" t="n">
+        <v>400.9066666666667</v>
+      </c>
+      <c r="X349" t="n">
+        <v>383.9342857142857</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>378.3395238095238</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>381.9577777777778</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>384.7677777777778</v>
+      </c>
+      <c r="AB349" t="n">
+        <v>389.1943478260869</v>
+      </c>
+      <c r="AC349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>344.1</v>
+      </c>
+      <c r="C350" t="n">
+        <v>346.5833333333333</v>
+      </c>
+      <c r="D350" t="n">
+        <v>366.1633333333333</v>
+      </c>
+      <c r="E350" t="n">
+        <v>377.68</v>
+      </c>
+      <c r="F350" t="n">
+        <v>372.0354838709678</v>
+      </c>
+      <c r="G350" t="n">
+        <v>376.4833333333333</v>
+      </c>
+      <c r="H350" t="n">
+        <v>383.7933333333333</v>
+      </c>
+      <c r="I350" t="n">
+        <v>391.1433333333333</v>
+      </c>
+      <c r="J350" t="n">
+        <v>387.11</v>
+      </c>
+      <c r="K350" t="n">
+        <v>384.6594117647059</v>
+      </c>
+      <c r="L350" t="n">
+        <v>379.8678947368421</v>
+      </c>
+      <c r="M350" t="n">
+        <v>380.908695652174</v>
+      </c>
+      <c r="N350" t="n">
+        <v>376.3428571428572</v>
+      </c>
+      <c r="O350" t="n">
+        <v>378.27</v>
+      </c>
+      <c r="P350" t="n">
+        <v>377.0472727272728</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>377.4171428571429</v>
+      </c>
+      <c r="R350" t="n">
+        <v>374.1872727272727</v>
+      </c>
+      <c r="S350" t="n">
+        <v>386.398695652174</v>
+      </c>
+      <c r="T350" t="n">
+        <v>381.24</v>
+      </c>
+      <c r="U350" t="n">
+        <v>384.5</v>
+      </c>
+      <c r="V350" t="n">
+        <v>389.53</v>
+      </c>
+      <c r="W350" t="n">
+        <v>377.33</v>
+      </c>
+      <c r="X350" t="n">
+        <v>368.2657142857143</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>363.3271428571429</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>362.3633333333333</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>367.9033333333333</v>
+      </c>
+      <c r="AB350" t="n">
+        <v>369.6886956521739</v>
+      </c>
+      <c r="AC350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>337.75</v>
+      </c>
+      <c r="C351" t="n">
+        <v>344.8033333333333</v>
+      </c>
+      <c r="D351" t="n">
+        <v>363.6933333333333</v>
+      </c>
+      <c r="E351" t="n">
+        <v>372.75</v>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
+      <c r="M351" t="inlineStr"/>
+      <c r="N351" t="inlineStr"/>
+      <c r="O351" t="inlineStr"/>
+      <c r="P351" t="n">
+        <v>377.1945454545455</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>375.0985714285715</v>
+      </c>
+      <c r="R351" t="n">
+        <v>375.5545454545455</v>
+      </c>
+      <c r="S351" t="n">
+        <v>387.1482608695652</v>
+      </c>
+      <c r="T351" t="n">
+        <v>381.9</v>
+      </c>
+      <c r="U351" t="n">
+        <v>383.22</v>
+      </c>
+      <c r="V351" t="n">
+        <v>383.42</v>
+      </c>
+      <c r="W351" t="n">
+        <v>362.82</v>
+      </c>
+      <c r="X351" t="n">
+        <v>369.8328571428572</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>368.4585714285714</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>366.3833333333333</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>375.1333333333333</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>374.5282608695652</v>
+      </c>
+      <c r="AC351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>352.865</v>
+      </c>
+      <c r="C352" t="n">
+        <v>353.7588888888889</v>
+      </c>
+      <c r="D352" t="n">
+        <v>365.1688888888889</v>
+      </c>
+      <c r="E352" t="n">
+        <v>377.43</v>
+      </c>
+      <c r="F352" t="n">
+        <v>368.5567741935484</v>
+      </c>
+      <c r="G352" t="n">
+        <v>375.0488888888889</v>
+      </c>
+      <c r="H352" t="n">
+        <v>382.8388888888889</v>
+      </c>
+      <c r="I352" t="n">
+        <v>381.6188888888889</v>
+      </c>
+      <c r="J352" t="n">
+        <v>379.7566666666667</v>
+      </c>
+      <c r="K352" t="n">
+        <v>380.97</v>
+      </c>
+      <c r="L352" t="n">
+        <v>374.0094736842105</v>
+      </c>
+      <c r="M352" t="n">
+        <v>373.4382608695652</v>
+      </c>
+      <c r="N352" t="n">
+        <v>374.6742857142857</v>
+      </c>
+      <c r="O352" t="n">
+        <v>368.555</v>
+      </c>
+      <c r="P352" t="n">
+        <v>374.5454545454546</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>375.3590476190476</v>
+      </c>
+      <c r="R352" t="n">
+        <v>368.8654545454546</v>
+      </c>
+      <c r="S352" t="n">
+        <v>368.8782608695652</v>
+      </c>
+      <c r="T352" t="n">
+        <v>371.26</v>
+      </c>
+      <c r="U352" t="n">
+        <v>379.1366666666667</v>
+      </c>
+      <c r="V352" t="n">
+        <v>370.785</v>
+      </c>
+      <c r="W352" t="n">
+        <v>364.7633333333333</v>
+      </c>
+      <c r="X352" t="n">
+        <v>359.0485714285714</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>355.2190476190476</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>352.0088888888889</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>358.3588888888889</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>350.7982608695652</v>
+      </c>
+      <c r="AC352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29524,7 +29955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B362"/>
+  <dimension ref="A1:B367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33152,6 +33583,56 @@
       </c>
       <c r="B362" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -33325,28 +33806,28 @@
         <v>0.1032</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5525236683003336</v>
+        <v>0.5541681187977574</v>
       </c>
       <c r="J2" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05973848082884414</v>
+        <v>0.06170251487208567</v>
       </c>
       <c r="M2" t="n">
-        <v>13.33370643080455</v>
+        <v>13.25571101931766</v>
       </c>
       <c r="N2" t="n">
-        <v>266.0023876983094</v>
+        <v>263.1362661393787</v>
       </c>
       <c r="O2" t="n">
-        <v>16.30957962972404</v>
+        <v>16.22147546123283</v>
       </c>
       <c r="P2" t="n">
-        <v>337.1569602414</v>
+        <v>337.1418416700541</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33403,28 +33884,28 @@
         <v>0.117</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7442733446124564</v>
+        <v>0.7526204383384414</v>
       </c>
       <c r="J3" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1059366708492659</v>
+        <v>0.1109132716766178</v>
       </c>
       <c r="M3" t="n">
-        <v>13.30644514387321</v>
+        <v>13.20356291422612</v>
       </c>
       <c r="N3" t="n">
-        <v>263.4321262143522</v>
+        <v>260.205473138077</v>
       </c>
       <c r="O3" t="n">
-        <v>16.23059229400924</v>
+        <v>16.13088568982116</v>
       </c>
       <c r="P3" t="n">
-        <v>332.6385489856045</v>
+        <v>332.5602586381314</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33481,28 +33962,28 @@
         <v>0.1148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7284447207590646</v>
+        <v>0.7345129543860105</v>
       </c>
       <c r="J4" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K4" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1224933176258589</v>
+        <v>0.1279018097469852</v>
       </c>
       <c r="M4" t="n">
-        <v>11.4379242735328</v>
+        <v>11.28550719216401</v>
       </c>
       <c r="N4" t="n">
-        <v>215.6919146007125</v>
+        <v>212.3621003413838</v>
       </c>
       <c r="O4" t="n">
-        <v>14.68645343848243</v>
+        <v>14.57264905023736</v>
       </c>
       <c r="P4" t="n">
-        <v>346.3500221104292</v>
+        <v>346.2932233952957</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33559,28 +34040,28 @@
         <v>0.1157</v>
       </c>
       <c r="I5" t="n">
-        <v>0.611577914120134</v>
+        <v>0.6280802637486685</v>
       </c>
       <c r="J5" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K5" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1165349478279629</v>
+        <v>0.1246449085758747</v>
       </c>
       <c r="M5" t="n">
-        <v>10.08777827769718</v>
+        <v>10.04693394780323</v>
       </c>
       <c r="N5" t="n">
-        <v>160.7267513306793</v>
+        <v>159.7056855371734</v>
       </c>
       <c r="O5" t="n">
-        <v>12.67780546193541</v>
+        <v>12.63747148511811</v>
       </c>
       <c r="P5" t="n">
-        <v>361.192706406327</v>
+        <v>361.0384806645646</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33637,28 +34118,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5984808815991181</v>
+        <v>0.6017621305146342</v>
       </c>
       <c r="J6" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K6" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1371858297415497</v>
+        <v>0.1411037666474357</v>
       </c>
       <c r="M6" t="n">
-        <v>8.405458091527477</v>
+        <v>8.37871838371202</v>
       </c>
       <c r="N6" t="n">
-        <v>128.1269912846073</v>
+        <v>127.0078281441079</v>
       </c>
       <c r="O6" t="n">
-        <v>11.31931938256922</v>
+        <v>11.26977498196428</v>
       </c>
       <c r="P6" t="n">
-        <v>359.7814862808715</v>
+        <v>359.7511028566861</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33715,28 +34196,28 @@
         <v>0.1024</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5156144989255487</v>
+        <v>0.5212349337099103</v>
       </c>
       <c r="J7" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K7" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1025364036798436</v>
+        <v>0.1066390124946487</v>
       </c>
       <c r="M7" t="n">
-        <v>8.610116308088678</v>
+        <v>8.560027387534298</v>
       </c>
       <c r="N7" t="n">
-        <v>131.8090663896041</v>
+        <v>130.6241707035531</v>
       </c>
       <c r="O7" t="n">
-        <v>11.48081296727736</v>
+        <v>11.42909317065676</v>
       </c>
       <c r="P7" t="n">
-        <v>364.8802131145661</v>
+        <v>364.827499219266</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33787,28 +34268,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.5063014422290043</v>
+        <v>0.5250155688366039</v>
       </c>
       <c r="J8" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K8" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L8" t="n">
-        <v>0.100801546739929</v>
+        <v>0.1081249863676496</v>
       </c>
       <c r="M8" t="n">
-        <v>8.48264719304289</v>
+        <v>8.531378560417036</v>
       </c>
       <c r="N8" t="n">
-        <v>129.4890039613894</v>
+        <v>130.4458974727071</v>
       </c>
       <c r="O8" t="n">
-        <v>11.37932352828539</v>
+        <v>11.42129141002484</v>
       </c>
       <c r="P8" t="n">
-        <v>374.0044320668067</v>
+        <v>373.8288262116062</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33865,28 +34346,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.487240615280707</v>
+        <v>0.5021509085930628</v>
       </c>
       <c r="J9" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K9" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09139794939355195</v>
+        <v>0.09746863740277878</v>
       </c>
       <c r="M9" t="n">
-        <v>9.172241190552294</v>
+        <v>9.193256491239795</v>
       </c>
       <c r="N9" t="n">
-        <v>132.3685458042861</v>
+        <v>132.6883300075617</v>
       </c>
       <c r="O9" t="n">
-        <v>11.50515301090282</v>
+        <v>11.51904206119422</v>
       </c>
       <c r="P9" t="n">
-        <v>377.3458419848415</v>
+        <v>377.2051946412786</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33943,28 +34424,28 @@
         <v>0.1415</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2782271794847645</v>
+        <v>0.2933362829696174</v>
       </c>
       <c r="J10" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K10" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03578382530255575</v>
+        <v>0.04018882453355532</v>
       </c>
       <c r="M10" t="n">
-        <v>8.91367255540365</v>
+        <v>8.902155787724833</v>
       </c>
       <c r="N10" t="n">
-        <v>118.1932543839012</v>
+        <v>118.0080149439455</v>
       </c>
       <c r="O10" t="n">
-        <v>10.87167210616201</v>
+        <v>10.86314940263391</v>
       </c>
       <c r="P10" t="n">
-        <v>377.5213341839324</v>
+        <v>377.3798708123393</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34021,28 +34502,28 @@
         <v>0.1115</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2476339920147186</v>
+        <v>0.2656930715280876</v>
       </c>
       <c r="J11" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K11" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03353161101356494</v>
+        <v>0.03829673049503335</v>
       </c>
       <c r="M11" t="n">
-        <v>7.804656561169538</v>
+        <v>7.834743350028856</v>
       </c>
       <c r="N11" t="n">
-        <v>100.5548058832115</v>
+        <v>101.9292663163279</v>
       </c>
       <c r="O11" t="n">
-        <v>10.02770192433</v>
+        <v>10.09600249189391</v>
       </c>
       <c r="P11" t="n">
-        <v>375.4602350336366</v>
+        <v>375.2917372024733</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34099,28 +34580,28 @@
         <v>0.1108</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2798315677301352</v>
+        <v>0.2915460933276938</v>
       </c>
       <c r="J12" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K12" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0405285383413837</v>
+        <v>0.04399373985819488</v>
       </c>
       <c r="M12" t="n">
-        <v>8.09310891118897</v>
+        <v>8.119734656236801</v>
       </c>
       <c r="N12" t="n">
-        <v>105.226942315102</v>
+        <v>105.952473750252</v>
       </c>
       <c r="O12" t="n">
-        <v>10.25801843998645</v>
+        <v>10.2933218034924</v>
       </c>
       <c r="P12" t="n">
-        <v>371.6567048845388</v>
+        <v>371.5475336450312</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34177,28 +34658,28 @@
         <v>0.132</v>
       </c>
       <c r="I13" t="n">
-        <v>0.227892257433638</v>
+        <v>0.2349059316256677</v>
       </c>
       <c r="J13" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K13" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03235774855989382</v>
+        <v>0.03474458400895064</v>
       </c>
       <c r="M13" t="n">
-        <v>7.855151158778159</v>
+        <v>7.844168967607124</v>
       </c>
       <c r="N13" t="n">
-        <v>88.88736018955522</v>
+        <v>88.6976608626415</v>
       </c>
       <c r="O13" t="n">
-        <v>9.428009343947174</v>
+        <v>9.41794355805138</v>
       </c>
       <c r="P13" t="n">
-        <v>372.479232548077</v>
+        <v>372.4145887765549</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34255,28 +34736,28 @@
         <v>0.1814</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2179698161677444</v>
+        <v>0.2214105555410106</v>
       </c>
       <c r="J14" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K14" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04066093800812254</v>
+        <v>0.04251129098275874</v>
       </c>
       <c r="M14" t="n">
-        <v>6.040979356678725</v>
+        <v>6.029508020765436</v>
       </c>
       <c r="N14" t="n">
-        <v>65.39452270793066</v>
+        <v>65.08240281050314</v>
       </c>
       <c r="O14" t="n">
-        <v>8.086687993729612</v>
+        <v>8.067366535028833</v>
       </c>
       <c r="P14" t="n">
-        <v>372.0948471837493</v>
+        <v>372.0633016567407</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34333,28 +34814,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2235144076980916</v>
+        <v>0.2294828179742724</v>
       </c>
       <c r="J15" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K15" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02624902244705796</v>
+        <v>0.02773927513222796</v>
       </c>
       <c r="M15" t="n">
-        <v>8.306819899773439</v>
+        <v>8.328779215263751</v>
       </c>
       <c r="N15" t="n">
-        <v>108.0924396937587</v>
+        <v>108.7537903931472</v>
       </c>
       <c r="O15" t="n">
-        <v>10.396751400979</v>
+        <v>10.4285085411648</v>
       </c>
       <c r="P15" t="n">
-        <v>373.0625248868279</v>
+        <v>373.0077220560873</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34411,28 +34892,28 @@
         <v>0.1256</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1758391917934308</v>
+        <v>0.1748363809293624</v>
       </c>
       <c r="J16" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K16" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02009197427682274</v>
+        <v>0.02030797022096631</v>
       </c>
       <c r="M16" t="n">
-        <v>6.676207120267672</v>
+        <v>6.653774950174253</v>
       </c>
       <c r="N16" t="n">
-        <v>88.87790949924263</v>
+        <v>88.08633002103301</v>
       </c>
       <c r="O16" t="n">
-        <v>9.427508127773883</v>
+        <v>9.385431797260742</v>
       </c>
       <c r="P16" t="n">
-        <v>375.3930002300982</v>
+        <v>375.4024381895997</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34489,28 +34970,28 @@
         <v>0.1221</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1301198996961894</v>
+        <v>0.1281648687367891</v>
       </c>
       <c r="J17" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K17" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01238458883157811</v>
+        <v>0.01228991791368406</v>
       </c>
       <c r="M17" t="n">
-        <v>6.418297861326272</v>
+        <v>6.40237679722091</v>
       </c>
       <c r="N17" t="n">
-        <v>78.92701676294118</v>
+        <v>78.27033564962557</v>
       </c>
       <c r="O17" t="n">
-        <v>8.884087840793853</v>
+        <v>8.847052370684009</v>
       </c>
       <c r="P17" t="n">
-        <v>376.6502597303817</v>
+        <v>376.6685095904982</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34561,28 +35042,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.1131874239294719</v>
+        <v>0.112298512829012</v>
       </c>
       <c r="J18" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K18" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007397547396414517</v>
+        <v>0.007439099484226719</v>
       </c>
       <c r="M18" t="n">
-        <v>7.970562878131741</v>
+        <v>7.975391282485751</v>
       </c>
       <c r="N18" t="n">
-        <v>98.03850759933997</v>
+        <v>97.74895525596742</v>
       </c>
       <c r="O18" t="n">
-        <v>9.901439673064719</v>
+        <v>9.886807131524687</v>
       </c>
       <c r="P18" t="n">
-        <v>377.0389016829229</v>
+        <v>377.0480976964006</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34639,28 +35120,28 @@
         <v>0.1399</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1356759943828247</v>
+        <v>0.1406631584825744</v>
       </c>
       <c r="J19" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K19" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L19" t="n">
-        <v>0.009794514414945055</v>
+        <v>0.01070507944034915</v>
       </c>
       <c r="M19" t="n">
-        <v>8.322394721140826</v>
+        <v>8.314016683048509</v>
       </c>
       <c r="N19" t="n">
-        <v>108.0571234414073</v>
+        <v>107.9681710522127</v>
       </c>
       <c r="O19" t="n">
-        <v>10.39505283495025</v>
+        <v>10.39077336160368</v>
       </c>
       <c r="P19" t="n">
-        <v>381.6190427942825</v>
+        <v>381.5734200970371</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34717,28 +35198,28 @@
         <v>0.1622</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1646195149898639</v>
+        <v>0.1695813074467843</v>
       </c>
       <c r="J20" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K20" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01224653156859645</v>
+        <v>0.01319367783987802</v>
       </c>
       <c r="M20" t="n">
-        <v>8.722156313868609</v>
+        <v>8.74996656532872</v>
       </c>
       <c r="N20" t="n">
-        <v>124.8928708927794</v>
+        <v>125.0773304776013</v>
       </c>
       <c r="O20" t="n">
-        <v>11.17554790123416</v>
+        <v>11.18379767688961</v>
       </c>
       <c r="P20" t="n">
-        <v>381.0402732567076</v>
+        <v>380.9947591765249</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34795,28 +35276,28 @@
         <v>0.1408</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1355313474465474</v>
+        <v>0.1392755442743371</v>
       </c>
       <c r="J21" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K21" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008666343073475136</v>
+        <v>0.009417215191436124</v>
       </c>
       <c r="M21" t="n">
-        <v>8.197557302360504</v>
+        <v>8.160196513751961</v>
       </c>
       <c r="N21" t="n">
-        <v>118.4239284620498</v>
+        <v>117.1377915196859</v>
       </c>
       <c r="O21" t="n">
-        <v>10.88227588613934</v>
+        <v>10.82302136742259</v>
       </c>
       <c r="P21" t="n">
-        <v>382.8620078999905</v>
+        <v>382.8274408469819</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34873,28 +35354,28 @@
         <v>0.0956</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1257099996609953</v>
+        <v>-0.1055426936255257</v>
       </c>
       <c r="J22" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K22" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004961387245407844</v>
+        <v>0.003589970419529465</v>
       </c>
       <c r="M22" t="n">
-        <v>10.10960045084406</v>
+        <v>10.08465903538267</v>
       </c>
       <c r="N22" t="n">
-        <v>179.9061990680824</v>
+        <v>178.7562495917615</v>
       </c>
       <c r="O22" t="n">
-        <v>13.41291165512106</v>
+        <v>13.36997567655833</v>
       </c>
       <c r="P22" t="n">
-        <v>382.9949830685518</v>
+        <v>382.8072553385861</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34951,28 +35432,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1643062132648963</v>
+        <v>0.1802770858747544</v>
       </c>
       <c r="J23" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K23" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005928087604454291</v>
+        <v>0.007278846258703231</v>
       </c>
       <c r="M23" t="n">
-        <v>13.08694647117575</v>
+        <v>13.08002309614564</v>
       </c>
       <c r="N23" t="n">
-        <v>253.1116524290832</v>
+        <v>252.6065625036596</v>
       </c>
       <c r="O23" t="n">
-        <v>15.90948309748256</v>
+        <v>15.8936013069304</v>
       </c>
       <c r="P23" t="n">
-        <v>369.5708167495683</v>
+        <v>369.4215103461059</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35029,28 +35510,28 @@
         <v>0.0847</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3395491800477921</v>
+        <v>0.3459522553275748</v>
       </c>
       <c r="J24" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K24" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02792329904497481</v>
+        <v>0.02979512665360196</v>
       </c>
       <c r="M24" t="n">
-        <v>11.89845770351338</v>
+        <v>11.83311164265424</v>
       </c>
       <c r="N24" t="n">
-        <v>223.1352584767005</v>
+        <v>220.8314559234913</v>
       </c>
       <c r="O24" t="n">
-        <v>14.93771262532187</v>
+        <v>14.86039891535524</v>
       </c>
       <c r="P24" t="n">
-        <v>362.542775597403</v>
+        <v>362.4827056809807</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35107,28 +35588,28 @@
         <v>0.1319</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1166910294286536</v>
+        <v>0.1084854998895873</v>
       </c>
       <c r="J25" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K25" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L25" t="n">
-        <v>0.004154778135741277</v>
+        <v>0.003694344414125972</v>
       </c>
       <c r="M25" t="n">
-        <v>10.53429987421311</v>
+        <v>10.50378855844743</v>
       </c>
       <c r="N25" t="n">
-        <v>180.1349740159442</v>
+        <v>178.6187833327392</v>
       </c>
       <c r="O25" t="n">
-        <v>13.42143710695484</v>
+        <v>13.36483383109342</v>
       </c>
       <c r="P25" t="n">
-        <v>368.6436535381644</v>
+        <v>368.7222891072993</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35185,28 +35666,28 @@
         <v>0.1085</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1844791989142261</v>
+        <v>0.176471839927149</v>
       </c>
       <c r="J26" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K26" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L26" t="n">
-        <v>0.008861143946134242</v>
+        <v>0.008311622403797347</v>
       </c>
       <c r="M26" t="n">
-        <v>11.38659448664148</v>
+        <v>11.38109655833643</v>
       </c>
       <c r="N26" t="n">
-        <v>210.4152336894088</v>
+        <v>209.2969138862763</v>
       </c>
       <c r="O26" t="n">
-        <v>14.50569659442141</v>
+        <v>14.46709763173928</v>
       </c>
       <c r="P26" t="n">
-        <v>366.8439526044784</v>
+        <v>366.9212088621027</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35263,28 +35744,28 @@
         <v>0.1067</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07910301292345802</v>
+        <v>0.0658509848823715</v>
       </c>
       <c r="J27" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K27" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00233854437509895</v>
+        <v>0.001655096865946559</v>
       </c>
       <c r="M27" t="n">
-        <v>9.801552119066166</v>
+        <v>9.808841143714396</v>
       </c>
       <c r="N27" t="n">
-        <v>147.7169524616891</v>
+        <v>147.4290675270951</v>
       </c>
       <c r="O27" t="n">
-        <v>12.15388631104015</v>
+        <v>12.1420372066262</v>
       </c>
       <c r="P27" t="n">
-        <v>376.702306553648</v>
+        <v>376.8296044069736</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35341,28 +35822,28 @@
         <v>0.1523</v>
       </c>
       <c r="I28" t="n">
-        <v>0.08568447867562583</v>
+        <v>0.07327016658591264</v>
       </c>
       <c r="J28" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K28" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001754710893032585</v>
+        <v>0.001309856042625346</v>
       </c>
       <c r="M28" t="n">
-        <v>12.31040932940169</v>
+        <v>12.30768454532725</v>
       </c>
       <c r="N28" t="n">
-        <v>236.0895499953253</v>
+        <v>235.4991408716938</v>
       </c>
       <c r="O28" t="n">
-        <v>15.3652058233961</v>
+        <v>15.34598126128446</v>
       </c>
       <c r="P28" t="n">
-        <v>375.7351593389154</v>
+        <v>375.8533359472036</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35400,7 +35881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC347"/>
+  <dimension ref="A1:AC352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79921,6 +80402,673 @@
         </is>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>-36.70677799385262,175.74498395653913</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>-36.70707820238968,175.74580031711432</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>-36.70737344120235,175.7466171185476</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-36.70742971130599,175.7474870744647</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>-36.70750872022709,175.7483385021249</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-36.70761315045702,175.7492300810959</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-36.70748295349622,175.75011247057788</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-36.70746370831068,175.75095260356517</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>-36.70740521623359,175.7518269784152</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
+      <c r="M348" t="inlineStr"/>
+      <c r="N348" t="inlineStr"/>
+      <c r="O348" t="inlineStr"/>
+      <c r="P348" t="inlineStr"/>
+      <c r="Q348" t="inlineStr"/>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>-36.70673916910427,175.7589913523571</t>
+        </is>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>-36.706714741277125,175.759860087905</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>-36.70651109382532,175.7606793291984</t>
+        </is>
+      </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>-36.70631414741526,175.76153423959218</t>
+        </is>
+      </c>
+      <c r="V348" t="inlineStr">
+        <is>
+          <t>-36.70617605541527,175.76241624382305</t>
+        </is>
+      </c>
+      <c r="W348" t="inlineStr">
+        <is>
+          <t>-36.705969822045105,175.76327331102087</t>
+        </is>
+      </c>
+      <c r="X348" t="inlineStr">
+        <is>
+          <t>-36.70577291672608,175.7641385380638</t>
+        </is>
+      </c>
+      <c r="Y348" t="inlineStr">
+        <is>
+          <t>-36.70558473802289,175.76499953225752</t>
+        </is>
+      </c>
+      <c r="Z348" t="inlineStr">
+        <is>
+          <t>-36.70530307747835,175.76581477107237</t>
+        </is>
+      </c>
+      <c r="AA348" t="inlineStr">
+        <is>
+          <t>-36.70499094079687,175.7666221365335</t>
+        </is>
+      </c>
+      <c r="AB348" t="inlineStr">
+        <is>
+          <t>-36.704722308218045,175.7674559136808</t>
+        </is>
+      </c>
+      <c r="AC348" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-36.70674619566284,175.74500237648238</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-36.70705948899396,175.74581115722603</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-36.707290266283145,175.74665985507798</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-36.70734725677488,175.7475084190932</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-36.707543093196215,175.74833571536948</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-36.70751586896398,175.7492379673592</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-36.707385825854594,175.75011285445106</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-36.707362987193044,175.75093847030936</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>-36.707348825006534,175.75181528493124</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>-36.707181883833556,175.75269146956774</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>-36.70713825267426,175.75359693956196</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>-36.70713186862845,175.75450757904832</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>-36.70707747723251,175.7554055087791</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>-36.70688095675292,175.75628148717573</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>-36.706889107097815,175.75719849948743</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>-36.70683775200201,175.75810065965663</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>-36.70681648322951,175.7590000920771</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>-36.70664696268978,175.75984509261434</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>-36.706447572754115,175.7606565340001</t>
+        </is>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>-36.70632827590989,175.76153972737475</t>
+        </is>
+      </c>
+      <c r="V349" t="inlineStr">
+        <is>
+          <t>-36.706099436239384,175.76238490390014</t>
+        </is>
+      </c>
+      <c r="W349" t="inlineStr">
+        <is>
+          <t>-36.7058522106114,175.76322319298268</t>
+        </is>
+      </c>
+      <c r="X349" t="inlineStr">
+        <is>
+          <t>-36.705776251888395,175.7641399593103</t>
+        </is>
+      </c>
+      <c r="Y349" t="inlineStr">
+        <is>
+          <t>-36.70560554640472,175.76500934724356</t>
+        </is>
+      </c>
+      <c r="Z349" t="inlineStr">
+        <is>
+          <t>-36.705314320039115,175.7658207533139</t>
+        </is>
+      </c>
+      <c r="AA349" t="inlineStr">
+        <is>
+          <t>-36.705015002294004,175.76663527247675</t>
+        </is>
+      </c>
+      <c r="AB349" t="inlineStr">
+        <is>
+          <t>-36.70470150554646,175.76744455671135</t>
+        </is>
+      </c>
+      <c r="AC349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-36.706908615403194,175.74490829038098</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-36.70720451552158,175.74572714754217</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-36.707360058115455,175.7466239949862</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-36.70751084303427,175.7474660722241</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-36.70761985968678,175.7483294915946</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-36.70764013758149,175.7492278933439</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-36.707634760474136,175.7501118706118</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-36.707542498935815,175.75096365955136</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>-36.70747582373312,175.75184161986405</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>-36.70739245624567,175.75273498091795</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>-36.707330400884146,175.75363450742805</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>-36.707228143539886,175.75452540533138</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>-36.707176145445736,175.75542377896073</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>-36.70706596208929,175.7563134238259</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>-36.70699752627143,175.7572133006101</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>-36.70694201704792,175.75811244519298</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>-36.70691927512839,175.75901171188306</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>-36.70676159402357,175.75987045359426</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>-36.70664038601269,175.76072572718004</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>-36.70641393527417,175.76157299919015</t>
+        </is>
+      </c>
+      <c r="V350" t="inlineStr">
+        <is>
+          <t>-36.706168526116535,175.76241316407334</t>
+        </is>
+      </c>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t>-36.70605309580735,175.76330879677226</t>
+        </is>
+      </c>
+      <c r="X350" t="inlineStr">
+        <is>
+          <t>-36.705909755738226,175.7641968507741</t>
+        </is>
+      </c>
+      <c r="Y350" t="inlineStr">
+        <is>
+          <t>-36.70573196862937,175.76506897874802</t>
+        </is>
+      </c>
+      <c r="Z350" t="inlineStr">
+        <is>
+          <t>-36.70547656431542,175.76590708480256</t>
+        </is>
+      </c>
+      <c r="AA350" t="inlineStr">
+        <is>
+          <t>-36.705154075145046,175.76671119699654</t>
+        </is>
+      </c>
+      <c r="AB350" t="inlineStr">
+        <is>
+          <t>-36.70486235870797,175.76753237275594</t>
+        </is>
+      </c>
+      <c r="AC350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-36.70696045581998,175.74487826030645</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-36.7072190471987,175.74571872974258</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-36.70738061831033,175.74661343083667</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-36.70755431905706,175.74745481774656</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
+      <c r="M351" t="inlineStr"/>
+      <c r="N351" t="inlineStr"/>
+      <c r="O351" t="inlineStr"/>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>-36.706996207560906,175.75721312058263</t>
+        </is>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>-36.70696281708465,175.75811479631747</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>-36.70690700925935,175.7590103253221</t>
+        </is>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>-36.70675494649386,175.75986898289563</t>
+        </is>
+      </c>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>-36.7066346743102,175.76072367746644</t>
+        </is>
+      </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>-36.706424940022565,175.76157727366132</t>
+        </is>
+      </c>
+      <c r="V351" t="inlineStr">
+        <is>
+          <t>-36.70622080340424,175.7624345473488</t>
+        </is>
+      </c>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>-36.70617672834722,175.76336148091903</t>
+        </is>
+      </c>
+      <c r="X351" t="inlineStr">
+        <is>
+          <t>-36.705896402920544,175.76419116058088</t>
+        </is>
+      </c>
+      <c r="Y351" t="inlineStr">
+        <is>
+          <t>-36.705688755860564,175.76504859589494</t>
+        </is>
+      </c>
+      <c r="Z351" t="inlineStr">
+        <is>
+          <t>-36.70544327825508,175.7658893729866</t>
+        </is>
+      </c>
+      <c r="AA351" t="inlineStr">
+        <is>
+          <t>-36.70509445286774,175.7666786471623</t>
+        </is>
+      </c>
+      <c r="AB351" t="inlineStr">
+        <is>
+          <t>-36.70482244929066,175.7675105846009</t>
+        </is>
+      </c>
+      <c r="AC351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-36.706837059289974,175.74494974127865</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-36.707145935260115,175.74576108143762</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-36.70736833583683,175.74661974176425</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-36.70751304770076,175.7474655015105</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-36.70765112998327,175.74832695638096</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-36.70765303187372,175.74922684804832</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>-36.70764335823193,175.75011183663256</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-36.70762775432747,175.7509756227123</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>-36.70754115936068,175.75185516814494</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>-36.707425240409776,175.75274175525533</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>-36.70738253244497,175.7536446999709</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>-36.70729470272559,175.75453772947543</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>-36.707191011863294,175.75542653174827</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>-36.70715264290433,175.7563283872139</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>-36.70701992807013,175.75721635885583</t>
+        </is>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>-36.706960480337855,175.75811453218407</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>-36.706967017413284,175.75901710878205</t>
+        </is>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>-36.70691697423678,175.75990482997733</t>
+        </is>
+      </c>
+      <c r="T352" t="inlineStr">
+        <is>
+          <t>-36.70672675387107,175.76075672137407</t>
+        </is>
+      </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>-36.70646004631479,175.7615909096784</t>
+        </is>
+      </c>
+      <c r="V352" t="inlineStr">
+        <is>
+          <t>-36.70632890871096,175.76247876638104</t>
+        </is>
+      </c>
+      <c r="W352" t="inlineStr">
+        <is>
+          <t>-36.70616017016608,175.763354424888</t>
+        </is>
+      </c>
+      <c r="X352" t="inlineStr">
+        <is>
+          <t>-36.70598829026083,175.76423031765978</t>
+        </is>
+      </c>
+      <c r="Y352" t="inlineStr">
+        <is>
+          <t>-36.70580024848371,175.7651011854454</t>
+        </is>
+      </c>
+      <c r="Z352" t="inlineStr">
+        <is>
+          <t>-36.705562300285244,175.76595270577565</t>
+        </is>
+      </c>
+      <c r="AA352" t="inlineStr">
+        <is>
+          <t>-36.70523278349711,175.76675416666023</t>
+        </is>
+      </c>
+      <c r="AB352" t="inlineStr">
+        <is>
+          <t>-36.70501813840537,175.76761741940751</t>
+        </is>
+      </c>
+      <c r="AC352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0153/nzd0153.xlsx
+++ b/data/nzd0153/nzd0153.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC352"/>
+  <dimension ref="A1:AC353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29944,6 +29944,99 @@
         </is>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>344.44</v>
+      </c>
+      <c r="C353" t="n">
+        <v>355.0644444444445</v>
+      </c>
+      <c r="D353" t="n">
+        <v>362.3844444444445</v>
+      </c>
+      <c r="E353" t="n">
+        <v>385.73</v>
+      </c>
+      <c r="F353" t="n">
+        <v>380.1441935483871</v>
+      </c>
+      <c r="G353" t="n">
+        <v>379.2644444444445</v>
+      </c>
+      <c r="H353" t="n">
+        <v>388.2844444444444</v>
+      </c>
+      <c r="I353" t="n">
+        <v>393.6944444444445</v>
+      </c>
+      <c r="J353" t="n">
+        <v>388.3733333333333</v>
+      </c>
+      <c r="K353" t="n">
+        <v>381.2776470588236</v>
+      </c>
+      <c r="L353" t="n">
+        <v>384.0368421052632</v>
+      </c>
+      <c r="M353" t="n">
+        <v>380.6521739130435</v>
+      </c>
+      <c r="N353" t="n">
+        <v>374.5285714285715</v>
+      </c>
+      <c r="O353" t="n">
+        <v>376.04</v>
+      </c>
+      <c r="P353" t="n">
+        <v>377.3945454545454</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>375.4080952380953</v>
+      </c>
+      <c r="R353" t="n">
+        <v>378.4845454545454</v>
+      </c>
+      <c r="S353" t="n">
+        <v>383.8121739130435</v>
+      </c>
+      <c r="T353" t="n">
+        <v>382.92</v>
+      </c>
+      <c r="U353" t="n">
+        <v>385.7533333333333</v>
+      </c>
+      <c r="V353" t="n">
+        <v>376.71</v>
+      </c>
+      <c r="W353" t="n">
+        <v>369.6966666666667</v>
+      </c>
+      <c r="X353" t="n">
+        <v>366.4971428571428</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>367.3280952380952</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>365.0044444444445</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>377.6644444444445</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>365.4221739130435</v>
+      </c>
+      <c r="AC353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29955,7 +30048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33633,6 +33726,16 @@
       </c>
       <c r="B367" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -33806,28 +33909,28 @@
         <v>0.1032</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5541681187977574</v>
+        <v>0.549833766680792</v>
       </c>
       <c r="J2" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K2" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06170251487208567</v>
+        <v>0.06115382988809548</v>
       </c>
       <c r="M2" t="n">
-        <v>13.25571101931766</v>
+        <v>13.23804539891214</v>
       </c>
       <c r="N2" t="n">
-        <v>263.1362661393787</v>
+        <v>262.4093350195839</v>
       </c>
       <c r="O2" t="n">
-        <v>16.22147546123283</v>
+        <v>16.19905352233839</v>
       </c>
       <c r="P2" t="n">
-        <v>337.1418416700541</v>
+        <v>337.1833558517305</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33884,28 +33987,28 @@
         <v>0.117</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7526204383384414</v>
+        <v>0.7546408541095518</v>
       </c>
       <c r="J3" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K3" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1109132716766178</v>
+        <v>0.1120844280865479</v>
       </c>
       <c r="M3" t="n">
-        <v>13.20356291422612</v>
+        <v>13.16920255927241</v>
       </c>
       <c r="N3" t="n">
-        <v>260.205473138077</v>
+        <v>259.3764627097739</v>
       </c>
       <c r="O3" t="n">
-        <v>16.13088568982116</v>
+        <v>16.10516881966078</v>
       </c>
       <c r="P3" t="n">
-        <v>332.5602586381314</v>
+        <v>332.541083979616</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33962,28 +34065,28 @@
         <v>0.1148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7345129543860105</v>
+        <v>0.7328484538995118</v>
       </c>
       <c r="J4" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K4" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1279018097469852</v>
+        <v>0.1281331196423949</v>
       </c>
       <c r="M4" t="n">
-        <v>11.28550719216401</v>
+        <v>11.25672364486113</v>
       </c>
       <c r="N4" t="n">
-        <v>212.3621003413838</v>
+        <v>211.6684539363538</v>
       </c>
       <c r="O4" t="n">
-        <v>14.57264905023736</v>
+        <v>14.54882998513467</v>
       </c>
       <c r="P4" t="n">
-        <v>346.2932233952957</v>
+        <v>346.3089127877815</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34040,28 +34143,28 @@
         <v>0.1157</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6280802637486685</v>
+        <v>0.6333505800383344</v>
       </c>
       <c r="J5" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K5" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1246449085758747</v>
+        <v>0.1270374933618961</v>
       </c>
       <c r="M5" t="n">
-        <v>10.04693394780323</v>
+        <v>10.0452810978991</v>
       </c>
       <c r="N5" t="n">
-        <v>159.7056855371734</v>
+        <v>159.4241155527714</v>
       </c>
       <c r="O5" t="n">
-        <v>12.63747148511811</v>
+        <v>12.62632628886056</v>
       </c>
       <c r="P5" t="n">
-        <v>361.0384806645646</v>
+        <v>360.9887928562127</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34118,28 +34221,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6017621305146342</v>
+        <v>0.6047930863360352</v>
       </c>
       <c r="J6" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K6" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1411037666474357</v>
+        <v>0.143039410223224</v>
       </c>
       <c r="M6" t="n">
-        <v>8.37871838371202</v>
+        <v>8.370505569432318</v>
       </c>
       <c r="N6" t="n">
-        <v>127.0078281441079</v>
+        <v>126.6744837869929</v>
       </c>
       <c r="O6" t="n">
-        <v>11.26977498196428</v>
+        <v>11.25497595674877</v>
       </c>
       <c r="P6" t="n">
-        <v>359.7511028566861</v>
+        <v>359.7224563356702</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34196,28 +34299,28 @@
         <v>0.1024</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5212349337099103</v>
+        <v>0.5219146541302369</v>
       </c>
       <c r="J7" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K7" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1066390124946487</v>
+        <v>0.1075058318945851</v>
       </c>
       <c r="M7" t="n">
-        <v>8.560027387534298</v>
+        <v>8.53608318609443</v>
       </c>
       <c r="N7" t="n">
-        <v>130.6241707035531</v>
+        <v>130.2027695032871</v>
       </c>
       <c r="O7" t="n">
-        <v>11.42909317065676</v>
+        <v>11.41064281726876</v>
       </c>
       <c r="P7" t="n">
-        <v>364.827499219266</v>
+        <v>364.8210629020909</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34268,28 +34371,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.5250155688366039</v>
+        <v>0.5256481494485248</v>
       </c>
       <c r="J8" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K8" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1081249863676496</v>
+        <v>0.108983177077863</v>
       </c>
       <c r="M8" t="n">
-        <v>8.531378560417036</v>
+        <v>8.507376329118747</v>
       </c>
       <c r="N8" t="n">
-        <v>130.4458974727071</v>
+        <v>130.0245311598181</v>
       </c>
       <c r="O8" t="n">
-        <v>11.42129141002484</v>
+        <v>11.40282996276881</v>
       </c>
       <c r="P8" t="n">
-        <v>373.8288262116062</v>
+        <v>373.822833581915</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34346,28 +34449,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5021509085930628</v>
+        <v>0.5043561011051382</v>
       </c>
       <c r="J9" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K9" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09746863740277878</v>
+        <v>0.09878735745039491</v>
       </c>
       <c r="M9" t="n">
-        <v>9.193256491239795</v>
+        <v>9.176455517511313</v>
       </c>
       <c r="N9" t="n">
-        <v>132.6883300075617</v>
+        <v>132.3044533258561</v>
       </c>
       <c r="O9" t="n">
-        <v>11.51904206119422</v>
+        <v>11.50236729225146</v>
       </c>
       <c r="P9" t="n">
-        <v>377.2051946412786</v>
+        <v>377.1841878639774</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34424,28 +34527,28 @@
         <v>0.1415</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2933362829696174</v>
+        <v>0.2954705885264609</v>
       </c>
       <c r="J10" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K10" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04018882453355532</v>
+        <v>0.04099614432468424</v>
       </c>
       <c r="M10" t="n">
-        <v>8.902155787724833</v>
+        <v>8.883476905408134</v>
       </c>
       <c r="N10" t="n">
-        <v>118.0080149439455</v>
+        <v>117.6609199799005</v>
       </c>
       <c r="O10" t="n">
-        <v>10.86314940263391</v>
+        <v>10.84716183985011</v>
       </c>
       <c r="P10" t="n">
-        <v>377.3798708123393</v>
+        <v>377.3597025217258</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34502,28 +34605,28 @@
         <v>0.1115</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2656930715280876</v>
+        <v>0.2651890312540911</v>
       </c>
       <c r="J11" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K11" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03829673049503335</v>
+        <v>0.03840878693069716</v>
       </c>
       <c r="M11" t="n">
-        <v>7.834743350028856</v>
+        <v>7.810760757409583</v>
       </c>
       <c r="N11" t="n">
-        <v>101.9292663163279</v>
+        <v>101.5882006234473</v>
       </c>
       <c r="O11" t="n">
-        <v>10.09600249189391</v>
+        <v>10.07909721271937</v>
       </c>
       <c r="P11" t="n">
-        <v>375.2917372024733</v>
+        <v>375.2964723977229</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34580,28 +34683,28 @@
         <v>0.1108</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2915460933276938</v>
+        <v>0.2946676742557165</v>
       </c>
       <c r="J12" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K12" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04399373985819488</v>
+        <v>0.04515477119206246</v>
       </c>
       <c r="M12" t="n">
-        <v>8.119734656236801</v>
+        <v>8.112919559058973</v>
       </c>
       <c r="N12" t="n">
-        <v>105.952473750252</v>
+        <v>105.6867873170811</v>
       </c>
       <c r="O12" t="n">
-        <v>10.2933218034924</v>
+        <v>10.28040793534386</v>
       </c>
       <c r="P12" t="n">
-        <v>371.5475336450312</v>
+        <v>371.5182105204418</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34658,28 +34761,28 @@
         <v>0.132</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2349059316256677</v>
+        <v>0.2363108572877312</v>
       </c>
       <c r="J13" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K13" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03474458400895064</v>
+        <v>0.03537544783525115</v>
       </c>
       <c r="M13" t="n">
-        <v>7.844168967607124</v>
+        <v>7.825013131663868</v>
       </c>
       <c r="N13" t="n">
-        <v>88.6976608626415</v>
+        <v>88.41853315266479</v>
       </c>
       <c r="O13" t="n">
-        <v>9.41794355805138</v>
+        <v>9.403112950117359</v>
       </c>
       <c r="P13" t="n">
-        <v>372.4145887765549</v>
+        <v>372.4015308341778</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34736,28 +34839,28 @@
         <v>0.1814</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2214105555410106</v>
+        <v>0.2194033077776316</v>
       </c>
       <c r="J14" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K14" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04251129098275874</v>
+        <v>0.04202920478407457</v>
       </c>
       <c r="M14" t="n">
-        <v>6.029508020765436</v>
+        <v>6.018118379938914</v>
       </c>
       <c r="N14" t="n">
-        <v>65.08240281050314</v>
+        <v>64.8926952571673</v>
       </c>
       <c r="O14" t="n">
-        <v>8.067366535028833</v>
+        <v>8.055600241891804</v>
       </c>
       <c r="P14" t="n">
-        <v>372.0633016567407</v>
+        <v>372.0818986777833</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34814,28 +34917,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2294828179742724</v>
+        <v>0.2277004937318853</v>
       </c>
       <c r="J15" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K15" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02773927513222796</v>
+        <v>0.02749649450493274</v>
       </c>
       <c r="M15" t="n">
-        <v>8.328779215263751</v>
+        <v>8.309305417835253</v>
       </c>
       <c r="N15" t="n">
-        <v>108.7537903931472</v>
+        <v>108.40366623677</v>
       </c>
       <c r="O15" t="n">
-        <v>10.4285085411648</v>
+        <v>10.41170813251937</v>
       </c>
       <c r="P15" t="n">
-        <v>373.0077220560873</v>
+        <v>373.0242977114197</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34892,28 +34995,28 @@
         <v>0.1256</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1748363809293624</v>
+        <v>0.1732894816140301</v>
       </c>
       <c r="J16" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K16" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02030797022096631</v>
+        <v>0.02008509945840553</v>
       </c>
       <c r="M16" t="n">
-        <v>6.653774950174253</v>
+        <v>6.640093501262928</v>
       </c>
       <c r="N16" t="n">
-        <v>88.08633002103301</v>
+        <v>87.79950104260041</v>
       </c>
       <c r="O16" t="n">
-        <v>9.385431797260742</v>
+        <v>9.370138795268746</v>
       </c>
       <c r="P16" t="n">
-        <v>375.4024381895997</v>
+        <v>375.4167126508332</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34970,28 +35073,28 @@
         <v>0.1221</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1281648687367891</v>
+        <v>0.1252201063632359</v>
       </c>
       <c r="J17" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K17" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01228991791368406</v>
+        <v>0.01180906404947135</v>
       </c>
       <c r="M17" t="n">
-        <v>6.40237679722091</v>
+        <v>6.396350544918453</v>
       </c>
       <c r="N17" t="n">
-        <v>78.27033564962557</v>
+        <v>78.06193857287097</v>
       </c>
       <c r="O17" t="n">
-        <v>8.847052370684009</v>
+        <v>8.835266751653341</v>
       </c>
       <c r="P17" t="n">
-        <v>376.6685095904982</v>
+        <v>376.6957719073009</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35042,28 +35145,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.112298512829012</v>
+        <v>0.111321856167562</v>
       </c>
       <c r="J18" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K18" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007439099484226719</v>
+        <v>0.007363807622623453</v>
       </c>
       <c r="M18" t="n">
-        <v>7.975391282485751</v>
+        <v>7.950247195336194</v>
       </c>
       <c r="N18" t="n">
-        <v>97.74895525596742</v>
+        <v>97.39044489890337</v>
       </c>
       <c r="O18" t="n">
-        <v>9.886807131524687</v>
+        <v>9.868659731640532</v>
       </c>
       <c r="P18" t="n">
-        <v>377.0480976964006</v>
+        <v>377.0573065967009</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35120,28 +35223,28 @@
         <v>0.1399</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1406631584825744</v>
+        <v>0.1398095721219988</v>
       </c>
       <c r="J19" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K19" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01070507944034915</v>
+        <v>0.01064727843968805</v>
       </c>
       <c r="M19" t="n">
-        <v>8.314016683048509</v>
+        <v>8.290288461254983</v>
       </c>
       <c r="N19" t="n">
-        <v>107.9681710522127</v>
+        <v>107.595698498793</v>
       </c>
       <c r="O19" t="n">
-        <v>10.39077336160368</v>
+        <v>10.37283464144652</v>
       </c>
       <c r="P19" t="n">
-        <v>381.5734200970371</v>
+        <v>381.5813822901059</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35198,28 +35301,28 @@
         <v>0.1622</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1695813074467843</v>
+        <v>0.1680368417926941</v>
       </c>
       <c r="J20" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K20" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01319367783987802</v>
+        <v>0.0130440480142392</v>
       </c>
       <c r="M20" t="n">
-        <v>8.74996656532872</v>
+        <v>8.726619554594965</v>
       </c>
       <c r="N20" t="n">
-        <v>125.0773304776013</v>
+        <v>124.6585578584943</v>
       </c>
       <c r="O20" t="n">
-        <v>11.18379767688961</v>
+        <v>11.16505968898037</v>
       </c>
       <c r="P20" t="n">
-        <v>380.9947591765249</v>
+        <v>381.0092727822811</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35276,28 +35379,28 @@
         <v>0.1408</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1392755442743371</v>
+        <v>0.1388628912895774</v>
       </c>
       <c r="J21" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K21" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009417215191436124</v>
+        <v>0.009427717313716721</v>
       </c>
       <c r="M21" t="n">
-        <v>8.160196513751961</v>
+        <v>8.133634884396326</v>
       </c>
       <c r="N21" t="n">
-        <v>117.1377915196859</v>
+        <v>116.7281641566608</v>
       </c>
       <c r="O21" t="n">
-        <v>10.82302136742259</v>
+        <v>10.80408090291168</v>
       </c>
       <c r="P21" t="n">
-        <v>382.8274408469819</v>
+        <v>382.8313344162656</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35354,28 +35457,28 @@
         <v>0.0956</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1055426936255257</v>
+        <v>-0.1077640616188078</v>
       </c>
       <c r="J22" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K22" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003589970419529465</v>
+        <v>0.003767730228422694</v>
       </c>
       <c r="M22" t="n">
-        <v>10.08465903538267</v>
+        <v>10.06298175258233</v>
       </c>
       <c r="N22" t="n">
-        <v>178.7562495917615</v>
+        <v>178.1671445619243</v>
       </c>
       <c r="O22" t="n">
-        <v>13.36997567655833</v>
+        <v>13.34792660160837</v>
       </c>
       <c r="P22" t="n">
-        <v>382.8072553385861</v>
+        <v>382.8281052420211</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35432,28 +35535,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1802770858747544</v>
+        <v>0.1773881416326883</v>
       </c>
       <c r="J23" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K23" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007278846258703231</v>
+        <v>0.007098046068814257</v>
       </c>
       <c r="M23" t="n">
-        <v>13.08002309614564</v>
+        <v>13.04918270162073</v>
       </c>
       <c r="N23" t="n">
-        <v>252.6065625036596</v>
+        <v>251.7765326194017</v>
       </c>
       <c r="O23" t="n">
-        <v>15.8936013069304</v>
+        <v>15.86746774439456</v>
       </c>
       <c r="P23" t="n">
-        <v>369.4215103461059</v>
+        <v>369.4488402261456</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35510,28 +35613,28 @@
         <v>0.0847</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3459522553275748</v>
+        <v>0.3426320784127477</v>
       </c>
       <c r="J24" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K24" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02979512665360196</v>
+        <v>0.02944140078864499</v>
       </c>
       <c r="M24" t="n">
-        <v>11.83311164265424</v>
+        <v>11.80806335861126</v>
       </c>
       <c r="N24" t="n">
-        <v>220.8314559234913</v>
+        <v>220.101390497503</v>
       </c>
       <c r="O24" t="n">
-        <v>14.86039891535524</v>
+        <v>14.83581445346035</v>
       </c>
       <c r="P24" t="n">
-        <v>362.4827056809807</v>
+        <v>362.5144661252631</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35588,28 +35691,28 @@
         <v>0.1319</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1084854998895873</v>
+        <v>0.1056684979158526</v>
       </c>
       <c r="J25" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K25" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003694344414125972</v>
+        <v>0.003530078716787788</v>
       </c>
       <c r="M25" t="n">
-        <v>10.50378855844743</v>
+        <v>10.4815429515223</v>
       </c>
       <c r="N25" t="n">
-        <v>178.6187833327392</v>
+        <v>178.0441884324885</v>
       </c>
       <c r="O25" t="n">
-        <v>13.36483383109342</v>
+        <v>13.34331999288365</v>
       </c>
       <c r="P25" t="n">
-        <v>368.7222891072993</v>
+        <v>368.7491658412272</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35666,28 +35769,28 @@
         <v>0.1085</v>
       </c>
       <c r="I26" t="n">
-        <v>0.176471839927149</v>
+        <v>0.1721629168168403</v>
       </c>
       <c r="J26" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K26" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L26" t="n">
-        <v>0.008311622403797347</v>
+        <v>0.007965080724442575</v>
       </c>
       <c r="M26" t="n">
-        <v>11.38109655833643</v>
+        <v>11.36184009483041</v>
       </c>
       <c r="N26" t="n">
-        <v>209.2969138862763</v>
+        <v>208.6973558817218</v>
       </c>
       <c r="O26" t="n">
-        <v>14.46709763173928</v>
+        <v>14.44636133708838</v>
       </c>
       <c r="P26" t="n">
-        <v>366.9212088621027</v>
+        <v>366.9624770907472</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35744,28 +35847,28 @@
         <v>0.1067</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0658509848823715</v>
+        <v>0.06528924428989703</v>
       </c>
       <c r="J27" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K27" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001655096865946559</v>
+        <v>0.001638559533106987</v>
       </c>
       <c r="M27" t="n">
-        <v>9.808841143714396</v>
+        <v>9.777347215675061</v>
       </c>
       <c r="N27" t="n">
-        <v>147.4290675270951</v>
+        <v>146.9106244092278</v>
       </c>
       <c r="O27" t="n">
-        <v>12.1420372066262</v>
+        <v>12.12066930533243</v>
       </c>
       <c r="P27" t="n">
-        <v>376.8296044069736</v>
+        <v>376.8349935115882</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35822,28 +35925,28 @@
         <v>0.1523</v>
       </c>
       <c r="I28" t="n">
-        <v>0.07327016658591264</v>
+        <v>0.06522833560852163</v>
       </c>
       <c r="J28" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K28" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001309856042625346</v>
+        <v>0.001043288064916936</v>
       </c>
       <c r="M28" t="n">
-        <v>12.30768454532725</v>
+        <v>12.3118218297148</v>
       </c>
       <c r="N28" t="n">
-        <v>235.4991408716938</v>
+        <v>235.194022714752</v>
       </c>
       <c r="O28" t="n">
-        <v>15.34598126128446</v>
+        <v>15.33603673426586</v>
       </c>
       <c r="P28" t="n">
-        <v>375.8533359472036</v>
+        <v>375.929654678409</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35881,7 +35984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC352"/>
+  <dimension ref="A1:AC353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81069,6 +81172,153 @@
         </is>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-36.706905839695665,175.74490989828942</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-36.70713527688092,175.74576725553067</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-36.70739151345602,175.74660783273814</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-36.70743985277218,175.74748444918677</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-36.707546970086696,175.74833540105422</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-36.70761513803576,175.74922991996985</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>-36.7075943039699,175.7501120305009</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>-36.707519663380026,175.75096045523844</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>-36.70746459879949,175.75183929221552</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>-36.70742250665377,175.75274119036695</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>-36.70729330321944,175.7536272542591</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>-36.707230429066634,175.75452582852063</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>-36.7071923101292,175.75542677214588</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>-36.7070858589726,175.75631685854756</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>-36.70699441671941,175.75721287610085</t>
+        </is>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>-36.70696004032887,175.7581144824478</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>-36.70688072408903,175.75900735399023</t>
+        </is>
+      </c>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>-36.706784532627864,175.75987552853042</t>
+        </is>
+      </c>
+      <c r="T353" t="inlineStr">
+        <is>
+          <t>-36.70662584713354,175.76072050972792</t>
+        </is>
+      </c>
+      <c r="U353" t="inlineStr">
+        <is>
+          <t>-36.706403159791144,175.76156881377173</t>
+        </is>
+      </c>
+      <c r="V353" t="inlineStr">
+        <is>
+          <t>-36.70627821429818,175.76245803049065</t>
+        </is>
+      </c>
+      <c r="W353" t="inlineStr">
+        <is>
+          <t>-36.706118135672746,175.76333651250815</t>
+        </is>
+      </c>
+      <c r="X353" t="inlineStr">
+        <is>
+          <t>-36.705924824824656,175.76420327234385</t>
+        </is>
+      </c>
+      <c r="Y353" t="inlineStr">
+        <is>
+          <t>-36.70569827582322,175.76505308632468</t>
+        </is>
+      </c>
+      <c r="Z353" t="inlineStr">
+        <is>
+          <t>-36.70545469561337,175.76589544826496</t>
+        </is>
+      </c>
+      <c r="AA353" t="inlineStr">
+        <is>
+          <t>-36.705073580028426,175.76666725198154</t>
+        </is>
+      </c>
+      <c r="AB353" t="inlineStr">
+        <is>
+          <t>-36.70489754252472,175.76755158103765</t>
+        </is>
+      </c>
+      <c r="AC353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0153/nzd0153.xlsx
+++ b/data/nzd0153/nzd0153.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC353"/>
+  <dimension ref="A1:AC355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30037,6 +30037,190 @@
         </is>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>362.37</v>
+      </c>
+      <c r="C354" t="n">
+        <v>361.4266666666667</v>
+      </c>
+      <c r="D354" t="n">
+        <v>365.5166666666667</v>
+      </c>
+      <c r="E354" t="n">
+        <v>363.27</v>
+      </c>
+      <c r="F354" t="n">
+        <v>363.1722580645161</v>
+      </c>
+      <c r="G354" t="n">
+        <v>345.9766666666667</v>
+      </c>
+      <c r="H354" t="n">
+        <v>370.0566666666667</v>
+      </c>
+      <c r="I354" t="n">
+        <v>379.7066666666667</v>
+      </c>
+      <c r="J354" t="n">
+        <v>363.67</v>
+      </c>
+      <c r="K354" t="n">
+        <v>384.7864705882353</v>
+      </c>
+      <c r="L354" t="n">
+        <v>373.9605263157895</v>
+      </c>
+      <c r="M354" t="n">
+        <v>372.7526086956522</v>
+      </c>
+      <c r="N354" t="n">
+        <v>376.1714285714286</v>
+      </c>
+      <c r="O354" t="n">
+        <v>373.83</v>
+      </c>
+      <c r="P354" t="n">
+        <v>370.2909090909091</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>373.1885714285714</v>
+      </c>
+      <c r="R354" t="n">
+        <v>372.0109090909091</v>
+      </c>
+      <c r="S354" t="n">
+        <v>361.4026086956522</v>
+      </c>
+      <c r="T354" t="n">
+        <v>370.96</v>
+      </c>
+      <c r="U354" t="n">
+        <v>370.15</v>
+      </c>
+      <c r="V354" t="n">
+        <v>361.37</v>
+      </c>
+      <c r="W354" t="inlineStr"/>
+      <c r="X354" t="n">
+        <v>334.6828571428572</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>338.4185714285715</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>343.5666666666667</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>361.5166666666667</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>343.9226086956522</v>
+      </c>
+      <c r="AC354" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>343.875</v>
+      </c>
+      <c r="C355" t="n">
+        <v>339.9833333333333</v>
+      </c>
+      <c r="D355" t="n">
+        <v>356.0533333333333</v>
+      </c>
+      <c r="E355" t="n">
+        <v>371.81</v>
+      </c>
+      <c r="F355" t="n">
+        <v>369.8783870967742</v>
+      </c>
+      <c r="G355" t="n">
+        <v>366.9433333333333</v>
+      </c>
+      <c r="H355" t="n">
+        <v>375.2633333333333</v>
+      </c>
+      <c r="I355" t="n">
+        <v>382.2833333333333</v>
+      </c>
+      <c r="J355" t="n">
+        <v>380.91</v>
+      </c>
+      <c r="K355" t="n">
+        <v>376.4823529411765</v>
+      </c>
+      <c r="L355" t="n">
+        <v>368.5068421052632</v>
+      </c>
+      <c r="M355" t="n">
+        <v>372.19</v>
+      </c>
+      <c r="N355" t="n">
+        <v>370.5614285714286</v>
+      </c>
+      <c r="O355" t="n">
+        <v>364.555</v>
+      </c>
+      <c r="P355" t="n">
+        <v>373.4272727272728</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>369.7685714285714</v>
+      </c>
+      <c r="R355" t="n">
+        <v>367.2572727272727</v>
+      </c>
+      <c r="S355" t="n">
+        <v>379.5</v>
+      </c>
+      <c r="T355" t="n">
+        <v>374.46</v>
+      </c>
+      <c r="U355" t="n">
+        <v>372.51</v>
+      </c>
+      <c r="V355" t="n">
+        <v>356.775</v>
+      </c>
+      <c r="W355" t="n">
+        <v>349.58</v>
+      </c>
+      <c r="X355" t="n">
+        <v>348.4428571428572</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>347.3985714285715</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>348.3033333333333</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>367.5133333333333</v>
+      </c>
+      <c r="AB355" t="n">
+        <v>344.59</v>
+      </c>
+      <c r="AC355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30048,7 +30232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:B370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33736,6 +33920,26 @@
       </c>
       <c r="B368" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -33909,28 +34113,28 @@
         <v>0.1032</v>
       </c>
       <c r="I2" t="n">
-        <v>0.549833766680792</v>
+        <v>0.5521374980858617</v>
       </c>
       <c r="J2" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06115382988809548</v>
+        <v>0.0622873651912863</v>
       </c>
       <c r="M2" t="n">
-        <v>13.23804539891214</v>
+        <v>13.20946818892157</v>
       </c>
       <c r="N2" t="n">
-        <v>262.4093350195839</v>
+        <v>261.2532748947493</v>
       </c>
       <c r="O2" t="n">
-        <v>16.19905352233839</v>
+        <v>16.16333118186809</v>
       </c>
       <c r="P2" t="n">
-        <v>337.1833558517305</v>
+        <v>337.1612668831802</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33987,28 +34191,28 @@
         <v>0.117</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7546408541095518</v>
+        <v>0.7532097793438776</v>
       </c>
       <c r="J3" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1120844280865479</v>
+        <v>0.1127175864972952</v>
       </c>
       <c r="M3" t="n">
-        <v>13.16920255927241</v>
+        <v>13.15409232442857</v>
       </c>
       <c r="N3" t="n">
-        <v>259.3764627097739</v>
+        <v>258.4331534713218</v>
       </c>
       <c r="O3" t="n">
-        <v>16.10516881966078</v>
+        <v>16.07585622824868</v>
       </c>
       <c r="P3" t="n">
-        <v>332.541083979616</v>
+        <v>332.5547935374432</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34065,28 +34269,28 @@
         <v>0.1148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7328484538995118</v>
+        <v>0.7275496135815879</v>
       </c>
       <c r="J4" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K4" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1281331196423949</v>
+        <v>0.1278605395661864</v>
       </c>
       <c r="M4" t="n">
-        <v>11.25672364486113</v>
+        <v>11.21404615129491</v>
       </c>
       <c r="N4" t="n">
-        <v>211.6684539363538</v>
+        <v>210.5200287191309</v>
       </c>
       <c r="O4" t="n">
-        <v>14.54882998513467</v>
+        <v>14.50930834737242</v>
       </c>
       <c r="P4" t="n">
-        <v>346.3089127877815</v>
+        <v>346.3590956761161</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34143,28 +34347,28 @@
         <v>0.1157</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6333505800383344</v>
+        <v>0.621717378751508</v>
       </c>
       <c r="J5" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K5" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1270374933618961</v>
+        <v>0.1239063492210766</v>
       </c>
       <c r="M5" t="n">
-        <v>10.0452810978991</v>
+        <v>10.0355949659777</v>
       </c>
       <c r="N5" t="n">
-        <v>159.4241155527714</v>
+        <v>159.1004929537074</v>
       </c>
       <c r="O5" t="n">
-        <v>12.62632628886056</v>
+        <v>12.61350438830175</v>
       </c>
       <c r="P5" t="n">
-        <v>360.9887928562127</v>
+        <v>361.0988869594937</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34221,28 +34425,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6047930863360352</v>
+        <v>0.594442391919338</v>
       </c>
       <c r="J6" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K6" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L6" t="n">
-        <v>0.143039410223224</v>
+        <v>0.1398788096841792</v>
       </c>
       <c r="M6" t="n">
-        <v>8.370505569432318</v>
+        <v>8.362339516240445</v>
       </c>
       <c r="N6" t="n">
-        <v>126.6744837869929</v>
+        <v>126.4054883636215</v>
       </c>
       <c r="O6" t="n">
-        <v>11.25497595674877</v>
+        <v>11.24301953941296</v>
       </c>
       <c r="P6" t="n">
-        <v>359.7224563356702</v>
+        <v>359.8206617721355</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34299,28 +34503,28 @@
         <v>0.1024</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5219146541302369</v>
+        <v>0.4959957098036791</v>
       </c>
       <c r="J7" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K7" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1075058318945851</v>
+        <v>0.09676525593545349</v>
       </c>
       <c r="M7" t="n">
-        <v>8.53608318609443</v>
+        <v>8.610235901874256</v>
       </c>
       <c r="N7" t="n">
-        <v>130.2027695032871</v>
+        <v>133.0681629185113</v>
       </c>
       <c r="O7" t="n">
-        <v>11.41064281726876</v>
+        <v>11.53551745343534</v>
       </c>
       <c r="P7" t="n">
-        <v>364.8210629020909</v>
+        <v>365.067417953362</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34371,28 +34575,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.5256481494485248</v>
+        <v>0.5081980041139945</v>
       </c>
       <c r="J8" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K8" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L8" t="n">
-        <v>0.108983177077863</v>
+        <v>0.1027922454175552</v>
       </c>
       <c r="M8" t="n">
-        <v>8.507376329118747</v>
+        <v>8.536046285046615</v>
       </c>
       <c r="N8" t="n">
-        <v>130.0245311598181</v>
+        <v>130.584893530008</v>
       </c>
       <c r="O8" t="n">
-        <v>11.40282996276881</v>
+        <v>11.42737474357116</v>
       </c>
       <c r="P8" t="n">
-        <v>373.822833581915</v>
+        <v>373.9887981501656</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34449,28 +34653,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5043561011051382</v>
+        <v>0.4935286223835879</v>
       </c>
       <c r="J9" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K9" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09878735745039491</v>
+        <v>0.09575174384775154</v>
       </c>
       <c r="M9" t="n">
-        <v>9.176455517511313</v>
+        <v>9.170335840212431</v>
       </c>
       <c r="N9" t="n">
-        <v>132.3044533258561</v>
+        <v>131.9895770150502</v>
       </c>
       <c r="O9" t="n">
-        <v>11.50236729225146</v>
+        <v>11.48867168192434</v>
       </c>
       <c r="P9" t="n">
-        <v>377.1841878639774</v>
+        <v>377.2877353765026</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34527,28 +34731,28 @@
         <v>0.1415</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2954705885264609</v>
+        <v>0.2802674346313319</v>
       </c>
       <c r="J10" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K10" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04099614432468424</v>
+        <v>0.037048218735108</v>
       </c>
       <c r="M10" t="n">
-        <v>8.883476905408134</v>
+        <v>8.914691613979278</v>
       </c>
       <c r="N10" t="n">
-        <v>117.6609199799005</v>
+        <v>118.3984819384281</v>
       </c>
       <c r="O10" t="n">
-        <v>10.84716183985011</v>
+        <v>10.8811066504482</v>
       </c>
       <c r="P10" t="n">
-        <v>377.3597025217258</v>
+        <v>377.5038898757745</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34605,28 +34809,28 @@
         <v>0.1115</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2651890312540911</v>
+        <v>0.2633735130425182</v>
       </c>
       <c r="J11" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K11" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03840878693069716</v>
+        <v>0.03835744430617338</v>
       </c>
       <c r="M11" t="n">
-        <v>7.810760757409583</v>
+        <v>7.785392307257869</v>
       </c>
       <c r="N11" t="n">
-        <v>101.5882006234473</v>
+        <v>101.0380310739172</v>
       </c>
       <c r="O11" t="n">
-        <v>10.07909721271937</v>
+        <v>10.05176755968408</v>
       </c>
       <c r="P11" t="n">
-        <v>375.2964723977229</v>
+        <v>375.3136247288197</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34683,28 +34887,28 @@
         <v>0.1108</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2946676742557165</v>
+        <v>0.2850933727738382</v>
       </c>
       <c r="J12" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K12" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04515477119206246</v>
+        <v>0.04276628202835209</v>
       </c>
       <c r="M12" t="n">
-        <v>8.112919559058973</v>
+        <v>8.100379150881258</v>
       </c>
       <c r="N12" t="n">
-        <v>105.6867873170811</v>
+        <v>105.4377761865236</v>
       </c>
       <c r="O12" t="n">
-        <v>10.28040793534386</v>
+        <v>10.26828983748139</v>
       </c>
       <c r="P12" t="n">
-        <v>371.5182105204418</v>
+        <v>371.6085241158316</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34761,28 +34965,28 @@
         <v>0.132</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2363108572877312</v>
+        <v>0.2288994546219664</v>
       </c>
       <c r="J13" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K13" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03537544783525115</v>
+        <v>0.03362220785555703</v>
       </c>
       <c r="M13" t="n">
-        <v>7.825013131663868</v>
+        <v>7.814535786532887</v>
       </c>
       <c r="N13" t="n">
-        <v>88.41853315266479</v>
+        <v>88.06582518310427</v>
       </c>
       <c r="O13" t="n">
-        <v>9.403112950117359</v>
+        <v>9.384339357839968</v>
       </c>
       <c r="P13" t="n">
-        <v>372.4015308341778</v>
+        <v>372.4706913205511</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34839,28 +35043,28 @@
         <v>0.1814</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2194033077776316</v>
+        <v>0.2140149630282867</v>
       </c>
       <c r="J14" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K14" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04202920478407457</v>
+        <v>0.04048951102591336</v>
       </c>
       <c r="M14" t="n">
-        <v>6.018118379938914</v>
+        <v>6.001759757034399</v>
       </c>
       <c r="N14" t="n">
-        <v>64.8926952571673</v>
+        <v>64.62834413355166</v>
       </c>
       <c r="O14" t="n">
-        <v>8.055600241891804</v>
+        <v>8.039175587928881</v>
       </c>
       <c r="P14" t="n">
-        <v>372.0818986777833</v>
+        <v>372.1320490203196</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34917,28 +35121,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2277004937318853</v>
+        <v>0.2156757875438131</v>
       </c>
       <c r="J15" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K15" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02749649450493274</v>
+        <v>0.02489176252485026</v>
       </c>
       <c r="M15" t="n">
-        <v>8.309305417835253</v>
+        <v>8.315771333003841</v>
       </c>
       <c r="N15" t="n">
-        <v>108.40366623677</v>
+        <v>108.4356326667232</v>
       </c>
       <c r="O15" t="n">
-        <v>10.41170813251937</v>
+        <v>10.41324313874997</v>
       </c>
       <c r="P15" t="n">
-        <v>373.0242977114197</v>
+        <v>373.1366304875292</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34995,28 +35199,28 @@
         <v>0.1256</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1732894816140301</v>
+        <v>0.1634193448292685</v>
       </c>
       <c r="J16" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K16" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02008509945840553</v>
+        <v>0.01804764735891362</v>
       </c>
       <c r="M16" t="n">
-        <v>6.640093501262928</v>
+        <v>6.654991179649136</v>
       </c>
       <c r="N16" t="n">
-        <v>87.79950104260041</v>
+        <v>87.64191346385891</v>
       </c>
       <c r="O16" t="n">
-        <v>9.370138795268746</v>
+        <v>9.361725987437302</v>
       </c>
       <c r="P16" t="n">
-        <v>375.4167126508332</v>
+        <v>375.5081727815588</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35073,28 +35277,28 @@
         <v>0.1221</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1252201063632359</v>
+        <v>0.1144256667387994</v>
       </c>
       <c r="J17" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K17" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01180906404947135</v>
+        <v>0.009951810375694592</v>
       </c>
       <c r="M17" t="n">
-        <v>6.396350544918453</v>
+        <v>6.413697723521299</v>
       </c>
       <c r="N17" t="n">
-        <v>78.06193857287097</v>
+        <v>78.02164763798693</v>
       </c>
       <c r="O17" t="n">
-        <v>8.835266751653341</v>
+        <v>8.832986337473127</v>
       </c>
       <c r="P17" t="n">
-        <v>376.6957719073009</v>
+        <v>376.7961417664384</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35145,28 +35349,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.111321856167562</v>
+        <v>0.09750386036609252</v>
       </c>
       <c r="J18" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K18" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007363807622623453</v>
+        <v>0.005693550594351726</v>
       </c>
       <c r="M18" t="n">
-        <v>7.950247195336194</v>
+        <v>7.957032985015048</v>
       </c>
       <c r="N18" t="n">
-        <v>97.39044489890337</v>
+        <v>97.47626410813048</v>
       </c>
       <c r="O18" t="n">
-        <v>9.868659731640532</v>
+        <v>9.873006842301411</v>
       </c>
       <c r="P18" t="n">
-        <v>377.0573065967009</v>
+        <v>377.1881584090578</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35223,28 +35427,28 @@
         <v>0.1399</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1398095721219988</v>
+        <v>0.12151132357994</v>
       </c>
       <c r="J19" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K19" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01064727843968805</v>
+        <v>0.008019356190576254</v>
       </c>
       <c r="M19" t="n">
-        <v>8.290288461254983</v>
+        <v>8.347712263638499</v>
       </c>
       <c r="N19" t="n">
-        <v>107.595698498793</v>
+        <v>108.8940004862773</v>
       </c>
       <c r="O19" t="n">
-        <v>10.37283464144652</v>
+        <v>10.43522881810827</v>
       </c>
       <c r="P19" t="n">
-        <v>381.5813822901059</v>
+        <v>381.7527300725562</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35301,28 +35505,28 @@
         <v>0.1622</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1680368417926941</v>
+        <v>0.1520734943035816</v>
       </c>
       <c r="J20" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K20" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0130440480142392</v>
+        <v>0.01075992248648849</v>
       </c>
       <c r="M20" t="n">
-        <v>8.726619554594965</v>
+        <v>8.741211786272975</v>
       </c>
       <c r="N20" t="n">
-        <v>124.6585578584943</v>
+        <v>124.8954429337974</v>
       </c>
       <c r="O20" t="n">
-        <v>11.16505968898037</v>
+        <v>11.17566297513474</v>
       </c>
       <c r="P20" t="n">
-        <v>381.0092727822811</v>
+        <v>381.1598925449957</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35379,28 +35583,28 @@
         <v>0.1408</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1388628912895774</v>
+        <v>0.1194421025132177</v>
       </c>
       <c r="J21" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K21" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009427717313716721</v>
+        <v>0.006997117502509087</v>
       </c>
       <c r="M21" t="n">
-        <v>8.133634884396326</v>
+        <v>8.173162513927805</v>
       </c>
       <c r="N21" t="n">
-        <v>116.7281641566608</v>
+        <v>117.4716776118595</v>
       </c>
       <c r="O21" t="n">
-        <v>10.80408090291168</v>
+        <v>10.83843520125758</v>
       </c>
       <c r="P21" t="n">
-        <v>382.8313344162656</v>
+        <v>383.015308713251</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35457,28 +35661,28 @@
         <v>0.0956</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1077640616188078</v>
+        <v>-0.1348059439904618</v>
       </c>
       <c r="J22" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K22" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003767730228422694</v>
+        <v>0.005865472929218241</v>
       </c>
       <c r="M22" t="n">
-        <v>10.06298175258233</v>
+        <v>10.16094045648275</v>
       </c>
       <c r="N22" t="n">
-        <v>178.1671445619243</v>
+        <v>179.9763140104662</v>
       </c>
       <c r="O22" t="n">
-        <v>13.34792660160837</v>
+        <v>13.41552511124578</v>
       </c>
       <c r="P22" t="n">
-        <v>382.8281052420211</v>
+        <v>383.0829699416793</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35535,28 +35739,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1773881416326883</v>
+        <v>0.1611383296063226</v>
       </c>
       <c r="J23" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K23" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007098046068814257</v>
+        <v>0.005858488366421444</v>
       </c>
       <c r="M23" t="n">
-        <v>13.04918270162073</v>
+        <v>13.08950366926532</v>
       </c>
       <c r="N23" t="n">
-        <v>251.7765326194017</v>
+        <v>252.9705306580036</v>
       </c>
       <c r="O23" t="n">
-        <v>15.86746774439456</v>
+        <v>15.90504733278099</v>
       </c>
       <c r="P23" t="n">
-        <v>369.4488402261456</v>
+        <v>369.6032631278538</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35613,28 +35817,28 @@
         <v>0.0847</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3426320784127477</v>
+        <v>0.3022928211137569</v>
       </c>
       <c r="J24" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K24" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02944140078864499</v>
+        <v>0.02272081482362287</v>
       </c>
       <c r="M24" t="n">
-        <v>11.80806335861126</v>
+        <v>11.94465750131017</v>
       </c>
       <c r="N24" t="n">
-        <v>220.101390497503</v>
+        <v>225.1691609881131</v>
       </c>
       <c r="O24" t="n">
-        <v>14.83581445346035</v>
+        <v>15.00563764017088</v>
       </c>
       <c r="P24" t="n">
-        <v>362.5144661252631</v>
+        <v>362.9018446446184</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35691,28 +35895,28 @@
         <v>0.1319</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1056684979158526</v>
+        <v>0.06761234093136236</v>
       </c>
       <c r="J25" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K25" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003530078716787788</v>
+        <v>0.001422986196329967</v>
       </c>
       <c r="M25" t="n">
-        <v>10.4815429515223</v>
+        <v>10.61342477510378</v>
       </c>
       <c r="N25" t="n">
-        <v>178.0441884324885</v>
+        <v>182.564567531538</v>
       </c>
       <c r="O25" t="n">
-        <v>13.34331999288365</v>
+        <v>13.51164562633057</v>
       </c>
       <c r="P25" t="n">
-        <v>368.7491658412272</v>
+        <v>369.113642983821</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35769,28 +35973,28 @@
         <v>0.1085</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1721629168168403</v>
+        <v>0.1385214189164164</v>
       </c>
       <c r="J26" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K26" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L26" t="n">
-        <v>0.007965080724442575</v>
+        <v>0.005133687949479437</v>
       </c>
       <c r="M26" t="n">
-        <v>11.36184009483041</v>
+        <v>11.44619569588779</v>
       </c>
       <c r="N26" t="n">
-        <v>208.6973558817218</v>
+        <v>211.7381812624198</v>
       </c>
       <c r="O26" t="n">
-        <v>14.44636133708838</v>
+        <v>14.55122610855937</v>
       </c>
       <c r="P26" t="n">
-        <v>366.9624770907472</v>
+        <v>367.2859323715378</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35847,28 +36051,28 @@
         <v>0.1067</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06528924428989703</v>
+        <v>0.04698830043887801</v>
       </c>
       <c r="J27" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K27" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001638559533106987</v>
+        <v>0.0008531912006404241</v>
       </c>
       <c r="M27" t="n">
-        <v>9.777347215675061</v>
+        <v>9.810480534947562</v>
       </c>
       <c r="N27" t="n">
-        <v>146.9106244092278</v>
+        <v>147.2879552639764</v>
       </c>
       <c r="O27" t="n">
-        <v>12.12066930533243</v>
+        <v>12.13622491815212</v>
       </c>
       <c r="P27" t="n">
-        <v>376.8349935115882</v>
+        <v>377.0112423022844</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35925,28 +36129,28 @@
         <v>0.1523</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06522833560852163</v>
+        <v>0.02223151108307732</v>
       </c>
       <c r="J28" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K28" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001043288064916936</v>
+        <v>0.0001190732869811306</v>
       </c>
       <c r="M28" t="n">
-        <v>12.3118218297148</v>
+        <v>12.48337963202669</v>
       </c>
       <c r="N28" t="n">
-        <v>235.194022714752</v>
+        <v>241.2271665692467</v>
       </c>
       <c r="O28" t="n">
-        <v>15.33603673426586</v>
+        <v>15.53148951547297</v>
       </c>
       <c r="P28" t="n">
-        <v>375.929654678409</v>
+        <v>376.3393815387325</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35984,7 +36188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC353"/>
+  <dimension ref="A1:AC355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56361,7 +56565,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>-36.707719228101546,175.74741212824713</t>
+          <t>-36.70771922810155,175.74741212824713</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -58540,7 +58744,7 @@
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>-36.70480572684527,175.76750145515368</t>
+          <t>-36.704805726845265,175.76750145515368</t>
         </is>
       </c>
       <c r="AC175" t="inlineStr">
@@ -64388,7 +64592,7 @@
       </c>
       <c r="AA222" t="inlineStr">
         <is>
-          <t>-36.705102864310064,175.7666832392519</t>
+          <t>-36.70510286431006,175.7666832392519</t>
         </is>
       </c>
       <c r="AB222" t="inlineStr">
@@ -65808,7 +66012,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-36.70683656945916,175.74495002502667</t>
+          <t>-36.706836569459156,175.74495002502667</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -66944,7 +67148,7 @@
       </c>
       <c r="V241" t="inlineStr">
         <is>
-          <t>-36.706288994882584,175.76246244014592</t>
+          <t>-36.70628899488259,175.76246244014592</t>
         </is>
       </c>
       <c r="W241" t="inlineStr">
@@ -70983,7 +71187,7 @@
       </c>
       <c r="AB272" t="inlineStr">
         <is>
-          <t>-36.70468118690672,175.76743346400025</t>
+          <t>-36.70468118690671,175.76743346400025</t>
         </is>
       </c>
       <c r="AC272" t="inlineStr">
@@ -78477,7 +78681,7 @@
       </c>
       <c r="W333" t="inlineStr">
         <is>
-          <t>-36.705867291915,175.7632296196044</t>
+          <t>-36.70586729191499,175.7632296196044</t>
         </is>
       </c>
       <c r="X333" t="inlineStr">
@@ -79531,7 +79735,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>-36.707515615439576,175.75095988722677</t>
+          <t>-36.70751561543958,175.75095988722677</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -81319,6 +81523,296 @@
         </is>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-36.70675946191688,175.74499469165545</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-36.70708333655434,175.74579734304496</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-36.70736544094659,175.74662122920398</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-36.7076379200073,175.74743317624507</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-36.70769953166969,175.74832303225148</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-36.70791436351648,175.7492056627516</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>-36.7077585021258,175.75011138157697</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>-36.70764487104765,175.75097802455943</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>-36.70768409214152,175.75188480740474</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>-36.70739132719919,175.7527347476182</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>-36.70738296800647,175.75364478513012</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>-36.70730081166713,175.75453886061248</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>-36.70717767281741,175.75542406178133</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>-36.70710557740829,175.75632026246663</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>-36.70705802415171,175.7572215596566</t>
+        </is>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>-36.70697995180362,175.75811673313538</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>-36.70693879939054,175.75901391895005</t>
+        </is>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>-36.706983272153465,175.75991949780547</t>
+        </is>
+      </c>
+      <c r="T354" t="inlineStr">
+        <is>
+          <t>-36.706729350099096,175.76075765306445</t>
+        </is>
+      </c>
+      <c r="U354" t="inlineStr">
+        <is>
+          <t>-36.70653730880788,175.76162092009446</t>
+        </is>
+      </c>
+      <c r="V354" t="inlineStr">
+        <is>
+          <t>-36.70640946361961,175.7625117163834</t>
+        </is>
+      </c>
+      <c r="W354" t="inlineStr"/>
+      <c r="X354" t="inlineStr">
+        <is>
+          <t>-36.70619589788748,175.7643187884383</t>
+        </is>
+      </c>
+      <c r="Y354" t="inlineStr">
+        <is>
+          <t>-36.70594172853899,175.7651679199121</t>
+        </is>
+      </c>
+      <c r="Z354" t="inlineStr">
+        <is>
+          <t>-36.70563220282213,175.7659899017074</t>
+        </is>
+      </c>
+      <c r="AA354" t="inlineStr">
+        <is>
+          <t>-36.70520674285482,175.76673995014434</t>
+        </is>
+      </c>
+      <c r="AB354" t="inlineStr">
+        <is>
+          <t>-36.70507483835208,175.76764837437972</t>
+        </is>
+      </c>
+      <c r="AC354" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-36.70691045226847,175.7449072263239</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-36.70725839701852,175.745695935461</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-36.70744421340216,175.74658075464788</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-36.707562608602885,175.7474526718611</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-36.70763924993834,175.748327919546</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>-36.707725893114116,175.74922094143602</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>-36.70771159980625,175.7501115669366</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>-36.70762180673958,175.75097478813703</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>-36.707530911796454,175.75185304316352</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>-36.70746511770272,175.75274999528656</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>-36.707431497987116,175.75365427352205</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>-36.70730582433061,175.7545397887619</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>-36.707227656054584,175.75543331709204</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>-36.707188332379125,175.75633454816753</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>-36.7070299405019,175.75721772573235</t>
+        </is>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>-36.70701063281848,175.75812020115762</t>
+        </is>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>-36.706981444488946,175.75901873965395</t>
+        </is>
+      </c>
+      <c r="S355" t="inlineStr">
+        <is>
+          <t>-36.70682277520171,175.75988398932418</t>
+        </is>
+      </c>
+      <c r="T355" t="inlineStr">
+        <is>
+          <t>-36.706699060771506,175.76074678334774</t>
+        </is>
+      </c>
+      <c r="U355" t="inlineStr">
+        <is>
+          <t>-36.70651701880706,175.76161303901455</t>
+        </is>
+      </c>
+      <c r="V355" t="inlineStr">
+        <is>
+          <t>-36.7064487785172,175.76252779769118</t>
+        </is>
+      </c>
+      <c r="W355" t="inlineStr">
+        <is>
+          <t>-36.70628953981611,175.76340955399874</t>
+        </is>
+      </c>
+      <c r="X355" t="inlineStr">
+        <is>
+          <t>-36.70607865606837,175.76426882645396</t>
+        </is>
+      </c>
+      <c r="Y355" t="inlineStr">
+        <is>
+          <t>-36.705866106230665,175.7651322497295</t>
+        </is>
+      </c>
+      <c r="Z355" t="inlineStr">
+        <is>
+          <t>-36.705592982698356,175.76596903222554</t>
+        </is>
+      </c>
+      <c r="AA355" t="inlineStr">
+        <is>
+          <t>-36.705157291284166,175.7667129527982</t>
+        </is>
+      </c>
+      <c r="AB355" t="inlineStr">
+        <is>
+          <t>-36.705069334721685,175.76764536970566</t>
+        </is>
+      </c>
+      <c r="AC355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0153/nzd0153.xlsx
+++ b/data/nzd0153/nzd0153.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC355"/>
+  <dimension ref="A1:AC356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30221,6 +30221,99 @@
         </is>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>349.285</v>
+      </c>
+      <c r="C356" t="n">
+        <v>350.6433333333333</v>
+      </c>
+      <c r="D356" t="n">
+        <v>361.1533333333333</v>
+      </c>
+      <c r="E356" t="n">
+        <v>374.3</v>
+      </c>
+      <c r="F356" t="n">
+        <v>371.9070967741935</v>
+      </c>
+      <c r="G356" t="n">
+        <v>366.5233333333333</v>
+      </c>
+      <c r="H356" t="n">
+        <v>378.1333333333333</v>
+      </c>
+      <c r="I356" t="n">
+        <v>382.3533333333333</v>
+      </c>
+      <c r="J356" t="n">
+        <v>384.63</v>
+      </c>
+      <c r="K356" t="n">
+        <v>377.9947058823529</v>
+      </c>
+      <c r="L356" t="n">
+        <v>378.8621052631579</v>
+      </c>
+      <c r="M356" t="n">
+        <v>377.5047826086956</v>
+      </c>
+      <c r="N356" t="n">
+        <v>371.0157142857143</v>
+      </c>
+      <c r="O356" t="n">
+        <v>369.765</v>
+      </c>
+      <c r="P356" t="n">
+        <v>371.0209090909091</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>366.5242857142857</v>
+      </c>
+      <c r="R356" t="n">
+        <v>364.5309090909091</v>
+      </c>
+      <c r="S356" t="n">
+        <v>373.3347826086956</v>
+      </c>
+      <c r="T356" t="n">
+        <v>374.46</v>
+      </c>
+      <c r="U356" t="n">
+        <v>378.05</v>
+      </c>
+      <c r="V356" t="n">
+        <v>361.335</v>
+      </c>
+      <c r="W356" t="n">
+        <v>360.2</v>
+      </c>
+      <c r="X356" t="n">
+        <v>353.6514285714285</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>348.0442857142857</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>345.5333333333333</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>354.0233333333333</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>346.5647826086956</v>
+      </c>
+      <c r="AC356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30232,7 +30325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B370"/>
+  <dimension ref="A1:B371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33940,6 +34033,16 @@
       </c>
       <c r="B370" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.87</v>
       </c>
     </row>
   </sheetData>
@@ -34113,28 +34216,28 @@
         <v>0.1032</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5521374980858617</v>
+        <v>0.5508643927874476</v>
       </c>
       <c r="J2" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0622873651912863</v>
+        <v>0.06240468251920139</v>
       </c>
       <c r="M2" t="n">
-        <v>13.20946818892157</v>
+        <v>13.17343338652623</v>
       </c>
       <c r="N2" t="n">
-        <v>261.2532748947493</v>
+        <v>260.3991423843666</v>
       </c>
       <c r="O2" t="n">
-        <v>16.16333118186809</v>
+        <v>16.13688763003469</v>
       </c>
       <c r="P2" t="n">
-        <v>337.1612668831802</v>
+        <v>337.1735436306017</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34191,28 +34294,28 @@
         <v>0.117</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7532097793438776</v>
+        <v>0.7524558795109876</v>
       </c>
       <c r="J3" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K3" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1127175864972952</v>
+        <v>0.1131660749708866</v>
       </c>
       <c r="M3" t="n">
-        <v>13.15409232442857</v>
+        <v>13.11540200261488</v>
       </c>
       <c r="N3" t="n">
-        <v>258.4331534713218</v>
+        <v>257.5881050295089</v>
       </c>
       <c r="O3" t="n">
-        <v>16.07585622824868</v>
+        <v>16.04955155228672</v>
       </c>
       <c r="P3" t="n">
-        <v>332.5547935374432</v>
+        <v>332.5619984107039</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34269,28 +34372,28 @@
         <v>0.1148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7275496135815879</v>
+        <v>0.7251698407047474</v>
       </c>
       <c r="J4" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K4" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1278605395661864</v>
+        <v>0.1278411906119503</v>
       </c>
       <c r="M4" t="n">
-        <v>11.21404615129491</v>
+        <v>11.1899293727774</v>
       </c>
       <c r="N4" t="n">
-        <v>210.5200287191309</v>
+        <v>209.8658502475553</v>
       </c>
       <c r="O4" t="n">
-        <v>14.50930834737242</v>
+        <v>14.48674740055736</v>
       </c>
       <c r="P4" t="n">
-        <v>346.3590956761161</v>
+        <v>346.381684779746</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34347,28 +34450,28 @@
         <v>0.1157</v>
       </c>
       <c r="I5" t="n">
-        <v>0.621717378751508</v>
+        <v>0.6200654804865712</v>
       </c>
       <c r="J5" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K5" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1239063492210766</v>
+        <v>0.1240145077718245</v>
       </c>
       <c r="M5" t="n">
-        <v>10.0355949659777</v>
+        <v>10.01082792424149</v>
       </c>
       <c r="N5" t="n">
-        <v>159.1004929537074</v>
+        <v>158.606794971203</v>
       </c>
       <c r="O5" t="n">
-        <v>12.61350438830175</v>
+        <v>12.59391896794651</v>
       </c>
       <c r="P5" t="n">
-        <v>361.0988869594937</v>
+        <v>361.1145698213241</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34425,28 +34528,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.594442391919338</v>
+        <v>0.5925603023671675</v>
       </c>
       <c r="J6" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K6" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1398788096841792</v>
+        <v>0.1398532212720804</v>
       </c>
       <c r="M6" t="n">
-        <v>8.362339516240445</v>
+        <v>8.343702392567572</v>
       </c>
       <c r="N6" t="n">
-        <v>126.4054883636215</v>
+        <v>126.028678302598</v>
       </c>
       <c r="O6" t="n">
-        <v>11.24301953941296</v>
+        <v>11.22624952077042</v>
       </c>
       <c r="P6" t="n">
-        <v>359.8206617721355</v>
+        <v>359.8385750653531</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34503,28 +34606,28 @@
         <v>0.1024</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4959957098036791</v>
+        <v>0.4892976876630593</v>
       </c>
       <c r="J7" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K7" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09676525593545349</v>
+        <v>0.0947005596855951</v>
       </c>
       <c r="M7" t="n">
-        <v>8.610235901874256</v>
+        <v>8.615997652113199</v>
       </c>
       <c r="N7" t="n">
-        <v>133.0681629185113</v>
+        <v>133.0451596681532</v>
       </c>
       <c r="O7" t="n">
-        <v>11.53551745343534</v>
+        <v>11.53452034842166</v>
       </c>
       <c r="P7" t="n">
-        <v>365.067417953362</v>
+        <v>365.1312846891803</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34575,28 +34678,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.5081980041139945</v>
+        <v>0.5029116592109351</v>
       </c>
       <c r="J8" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K8" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1027922454175552</v>
+        <v>0.1012840348274158</v>
       </c>
       <c r="M8" t="n">
-        <v>8.536046285046615</v>
+        <v>8.534032501350294</v>
       </c>
       <c r="N8" t="n">
-        <v>130.584893530008</v>
+        <v>130.4167743812681</v>
       </c>
       <c r="O8" t="n">
-        <v>11.42737474357116</v>
+        <v>11.42001639146232</v>
       </c>
       <c r="P8" t="n">
-        <v>373.9887981501656</v>
+        <v>374.0392269464725</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34653,28 +34756,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4935286223835879</v>
+        <v>0.4890288640972099</v>
       </c>
       <c r="J9" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K9" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09575174384775154</v>
+        <v>0.09460357666345487</v>
       </c>
       <c r="M9" t="n">
-        <v>9.170335840212431</v>
+        <v>9.163440163834094</v>
       </c>
       <c r="N9" t="n">
-        <v>131.9895770150502</v>
+        <v>131.7515862163398</v>
       </c>
       <c r="O9" t="n">
-        <v>11.48867168192434</v>
+        <v>11.47830937971005</v>
       </c>
       <c r="P9" t="n">
-        <v>377.2877353765026</v>
+        <v>377.3308952592787</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34731,28 +34834,28 @@
         <v>0.1415</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2802674346313319</v>
+        <v>0.2802264674152253</v>
       </c>
       <c r="J10" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K10" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L10" t="n">
-        <v>0.037048218735108</v>
+        <v>0.03726936662672409</v>
       </c>
       <c r="M10" t="n">
-        <v>8.914691613979278</v>
+        <v>8.885991680575975</v>
       </c>
       <c r="N10" t="n">
-        <v>118.3984819384281</v>
+        <v>118.0140863170388</v>
       </c>
       <c r="O10" t="n">
-        <v>10.8811066504482</v>
+        <v>10.86342884714761</v>
       </c>
       <c r="P10" t="n">
-        <v>377.5038898757745</v>
+        <v>377.504279692335</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34809,28 +34912,28 @@
         <v>0.1115</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2633735130425182</v>
+        <v>0.2608482274556297</v>
       </c>
       <c r="J11" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K11" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03835744430617338</v>
+        <v>0.03787830491935407</v>
       </c>
       <c r="M11" t="n">
-        <v>7.785392307257869</v>
+        <v>7.771668437782787</v>
       </c>
       <c r="N11" t="n">
-        <v>101.0380310739172</v>
+        <v>100.7561618660085</v>
       </c>
       <c r="O11" t="n">
-        <v>10.05176755968408</v>
+        <v>10.03773688965837</v>
       </c>
       <c r="P11" t="n">
-        <v>375.3136247288197</v>
+        <v>375.337511940652</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34887,28 +34990,28 @@
         <v>0.1108</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2850933727738382</v>
+        <v>0.2850539793164307</v>
       </c>
       <c r="J12" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K12" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04276628202835209</v>
+        <v>0.04302768459541528</v>
       </c>
       <c r="M12" t="n">
-        <v>8.100379150881258</v>
+        <v>8.074160029557529</v>
       </c>
       <c r="N12" t="n">
-        <v>105.4377761865236</v>
+        <v>105.0943442005986</v>
       </c>
       <c r="O12" t="n">
-        <v>10.26828983748139</v>
+        <v>10.25155325795065</v>
       </c>
       <c r="P12" t="n">
-        <v>371.6085241158316</v>
+        <v>371.6088966963161</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34965,28 +35068,28 @@
         <v>0.132</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2288994546219664</v>
+        <v>0.2283807971070092</v>
       </c>
       <c r="J13" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K13" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03362220785555703</v>
+        <v>0.03369481803209373</v>
       </c>
       <c r="M13" t="n">
-        <v>7.814535786532887</v>
+        <v>7.79163452126679</v>
       </c>
       <c r="N13" t="n">
-        <v>88.06582518310427</v>
+        <v>87.77749397316805</v>
       </c>
       <c r="O13" t="n">
-        <v>9.384339357839968</v>
+        <v>9.368964402385572</v>
       </c>
       <c r="P13" t="n">
-        <v>372.4706913205511</v>
+        <v>372.4755449247535</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35043,28 +35146,28 @@
         <v>0.1814</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2140149630282867</v>
+        <v>0.20993087711332</v>
       </c>
       <c r="J14" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K14" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04048951102591336</v>
+        <v>0.03918539247139907</v>
       </c>
       <c r="M14" t="n">
-        <v>6.001759757034399</v>
+        <v>5.999966845603271</v>
       </c>
       <c r="N14" t="n">
-        <v>64.62834413355166</v>
+        <v>64.55538928764405</v>
       </c>
       <c r="O14" t="n">
-        <v>8.039175587928881</v>
+        <v>8.034636848523027</v>
       </c>
       <c r="P14" t="n">
-        <v>372.1320490203196</v>
+        <v>372.1701592427116</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35121,28 +35224,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2156757875438131</v>
+        <v>0.2101645862087884</v>
       </c>
       <c r="J15" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K15" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02489176252485026</v>
+        <v>0.02376285111814014</v>
       </c>
       <c r="M15" t="n">
-        <v>8.315771333003841</v>
+        <v>8.316702262781899</v>
       </c>
       <c r="N15" t="n">
-        <v>108.4356326667232</v>
+        <v>108.3329429759759</v>
       </c>
       <c r="O15" t="n">
-        <v>10.41324313874997</v>
+        <v>10.40831124515288</v>
       </c>
       <c r="P15" t="n">
-        <v>373.1366304875292</v>
+        <v>373.1882553980817</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35199,28 +35302,28 @@
         <v>0.1256</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1634193448292685</v>
+        <v>0.1580867874348436</v>
       </c>
       <c r="J16" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K16" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01804764735891362</v>
+        <v>0.01697006187800931</v>
       </c>
       <c r="M16" t="n">
-        <v>6.654991179649136</v>
+        <v>6.665194971842012</v>
       </c>
       <c r="N16" t="n">
-        <v>87.64191346385891</v>
+        <v>87.59686676952704</v>
       </c>
       <c r="O16" t="n">
-        <v>9.361725987437302</v>
+        <v>9.359319781347736</v>
       </c>
       <c r="P16" t="n">
-        <v>375.5081727815588</v>
+        <v>375.5577445193425</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35277,28 +35380,28 @@
         <v>0.1221</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1144256667387994</v>
+        <v>0.1060105375372493</v>
       </c>
       <c r="J17" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K17" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009951810375694592</v>
+        <v>0.008545709952679226</v>
       </c>
       <c r="M17" t="n">
-        <v>6.413697723521299</v>
+        <v>6.4402188704733</v>
       </c>
       <c r="N17" t="n">
-        <v>78.02164763798693</v>
+        <v>78.35845825450924</v>
       </c>
       <c r="O17" t="n">
-        <v>8.832986337473127</v>
+        <v>8.852031306683751</v>
       </c>
       <c r="P17" t="n">
-        <v>376.7961417664384</v>
+        <v>376.8746163525746</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35349,28 +35452,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.09750386036609252</v>
+        <v>0.08737040585965726</v>
       </c>
       <c r="J18" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K18" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005693550594351726</v>
+        <v>0.004570024960045438</v>
       </c>
       <c r="M18" t="n">
-        <v>7.957032985015048</v>
+        <v>7.975885022609132</v>
       </c>
       <c r="N18" t="n">
-        <v>97.47626410813048</v>
+        <v>97.95726493318442</v>
       </c>
       <c r="O18" t="n">
-        <v>9.873006842301411</v>
+        <v>9.897336254426461</v>
       </c>
       <c r="P18" t="n">
-        <v>377.1881584090578</v>
+        <v>377.2843929852931</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35427,28 +35530,28 @@
         <v>0.1399</v>
       </c>
       <c r="I19" t="n">
-        <v>0.12151132357994</v>
+        <v>0.1143675182917863</v>
       </c>
       <c r="J19" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K19" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L19" t="n">
-        <v>0.008019356190576254</v>
+        <v>0.007127909431812629</v>
       </c>
       <c r="M19" t="n">
-        <v>8.347712263638499</v>
+        <v>8.363306589387228</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8940004862773</v>
+        <v>108.9734124746519</v>
       </c>
       <c r="O19" t="n">
-        <v>10.43522881810827</v>
+        <v>10.43903311972195</v>
       </c>
       <c r="P19" t="n">
-        <v>381.7527300725562</v>
+        <v>381.8198557730487</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35505,28 +35608,28 @@
         <v>0.1622</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1520734943035816</v>
+        <v>0.1453919049397285</v>
       </c>
       <c r="J20" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K20" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01075992248648849</v>
+        <v>0.009880282649151306</v>
       </c>
       <c r="M20" t="n">
-        <v>8.741211786272975</v>
+        <v>8.742184859871008</v>
       </c>
       <c r="N20" t="n">
-        <v>124.8954429337974</v>
+        <v>124.8481978293095</v>
       </c>
       <c r="O20" t="n">
-        <v>11.17566297513474</v>
+        <v>11.17354902568157</v>
       </c>
       <c r="P20" t="n">
-        <v>381.1598925449957</v>
+        <v>381.2231284327288</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35583,28 +35686,28 @@
         <v>0.1408</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1194421025132177</v>
+        <v>0.1142902198113422</v>
       </c>
       <c r="J21" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K21" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L21" t="n">
-        <v>0.006997117502509087</v>
+        <v>0.006442594681983826</v>
       </c>
       <c r="M21" t="n">
-        <v>8.173162513927805</v>
+        <v>8.17048693130274</v>
       </c>
       <c r="N21" t="n">
-        <v>117.4716776118595</v>
+        <v>117.2854368076973</v>
       </c>
       <c r="O21" t="n">
-        <v>10.83843520125758</v>
+        <v>10.82984010997841</v>
       </c>
       <c r="P21" t="n">
-        <v>383.015308713251</v>
+        <v>383.064256236372</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35661,28 +35764,28 @@
         <v>0.0956</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1348059439904618</v>
+        <v>-0.1465187830748777</v>
       </c>
       <c r="J22" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K22" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005865472929218241</v>
+        <v>0.006925383736280044</v>
       </c>
       <c r="M22" t="n">
-        <v>10.16094045648275</v>
+        <v>10.19977364398492</v>
       </c>
       <c r="N22" t="n">
-        <v>179.9763140104662</v>
+        <v>180.5023836959326</v>
       </c>
       <c r="O22" t="n">
-        <v>13.41552511124578</v>
+        <v>13.43511755422827</v>
       </c>
       <c r="P22" t="n">
-        <v>383.0829699416793</v>
+        <v>383.1936761710462</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35739,28 +35842,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1611383296063226</v>
+        <v>0.1521867043136522</v>
       </c>
       <c r="J23" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K23" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005858488366421444</v>
+        <v>0.005253341217710372</v>
       </c>
       <c r="M23" t="n">
-        <v>13.08950366926532</v>
+        <v>13.09067134986171</v>
       </c>
       <c r="N23" t="n">
-        <v>252.9705306580036</v>
+        <v>252.71840395478</v>
       </c>
       <c r="O23" t="n">
-        <v>15.90504733278099</v>
+        <v>15.89711936027342</v>
       </c>
       <c r="P23" t="n">
-        <v>369.6032631278538</v>
+        <v>369.6885226730079</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35817,28 +35920,28 @@
         <v>0.0847</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3022928211137569</v>
+        <v>0.290815150635032</v>
       </c>
       <c r="J24" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K24" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02272081482362287</v>
+        <v>0.02111710713675141</v>
       </c>
       <c r="M24" t="n">
-        <v>11.94465750131017</v>
+        <v>11.96400532429613</v>
       </c>
       <c r="N24" t="n">
-        <v>225.1691609881131</v>
+        <v>225.391970776567</v>
       </c>
       <c r="O24" t="n">
-        <v>15.00563764017088</v>
+        <v>15.01306000709272</v>
       </c>
       <c r="P24" t="n">
-        <v>362.9018446446184</v>
+        <v>363.0123976712927</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35895,28 +35998,28 @@
         <v>0.1319</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06761234093136236</v>
+        <v>0.05249456093952776</v>
       </c>
       <c r="J25" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K25" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001422986196329967</v>
+        <v>0.000855930063876742</v>
       </c>
       <c r="M25" t="n">
-        <v>10.61342477510378</v>
+        <v>10.65827003897855</v>
       </c>
       <c r="N25" t="n">
-        <v>182.564567531538</v>
+        <v>183.7334534751894</v>
       </c>
       <c r="O25" t="n">
-        <v>13.51164562633057</v>
+        <v>13.55483137022329</v>
       </c>
       <c r="P25" t="n">
-        <v>369.113642983821</v>
+        <v>369.2588507076786</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35973,28 +36076,28 @@
         <v>0.1085</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1385214189164164</v>
+        <v>0.1218757342855995</v>
       </c>
       <c r="J26" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K26" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005133687949479437</v>
+        <v>0.003964982463826816</v>
       </c>
       <c r="M26" t="n">
-        <v>11.44619569588779</v>
+        <v>11.48955368619428</v>
       </c>
       <c r="N26" t="n">
-        <v>211.7381812624198</v>
+        <v>213.2241945216905</v>
       </c>
       <c r="O26" t="n">
-        <v>14.55122610855937</v>
+        <v>14.60219827702975</v>
       </c>
       <c r="P26" t="n">
-        <v>367.2859323715378</v>
+        <v>367.4464399731101</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -36051,28 +36154,28 @@
         <v>0.1067</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04698830043887801</v>
+        <v>0.03124692777082221</v>
       </c>
       <c r="J27" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K27" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0008531912006404241</v>
+        <v>0.0003749419136147569</v>
       </c>
       <c r="M27" t="n">
-        <v>9.810480534947562</v>
+        <v>9.862933205334008</v>
       </c>
       <c r="N27" t="n">
-        <v>147.2879552639764</v>
+        <v>148.7983362723945</v>
       </c>
       <c r="O27" t="n">
-        <v>12.13622491815212</v>
+        <v>12.19829235066919</v>
       </c>
       <c r="P27" t="n">
-        <v>377.0112423022844</v>
+        <v>377.1632927567348</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -36129,28 +36232,28 @@
         <v>0.1523</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02223151108307732</v>
+        <v>0.00276864246877493</v>
       </c>
       <c r="J28" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K28" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0001190732869811306</v>
+        <v>1.835191848376105e-06</v>
       </c>
       <c r="M28" t="n">
-        <v>12.48337963202669</v>
+        <v>12.55814265426275</v>
       </c>
       <c r="N28" t="n">
-        <v>241.2271665692467</v>
+        <v>243.5866484438454</v>
       </c>
       <c r="O28" t="n">
-        <v>15.53148951547297</v>
+        <v>15.60726268260535</v>
       </c>
       <c r="P28" t="n">
-        <v>376.3393815387325</v>
+        <v>376.5253967948261</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36188,7 +36291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC355"/>
+  <dimension ref="A1:AC356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81813,6 +81916,153 @@
         </is>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>-36.70686628586134,175.74493281097222</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-36.707171370233716,175.7457463476805</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-36.70740176118199,175.74660256729268</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-36.70754065012503,175.74745835617375</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>-36.707621013764864,175.7483293980287</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>-36.70772966851491,175.74922063537696</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>-36.70768574647889,175.75011166911054</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>-36.70762118015424,175.75097470021356</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>-36.7074978589587,175.75184618918158</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>-36.707451678914,175.75274721836578</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>-36.70733935097077,175.75363625731006</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>-36.70725847131727,175.7545310208401</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>-36.70722360851978,175.75543256761637</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>-36.70714184683805,175.75632652352675</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>-36.7070514875805,175.75722066729656</t>
+        </is>
+      </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>-36.707039737490156,175.75812349100156</t>
+        </is>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>-36.70700590282679,175.7590215044861</t>
+        </is>
+      </c>
+      <c r="S356" t="inlineStr">
+        <is>
+          <t>-36.7068774515152,175.75989608593855</t>
+        </is>
+      </c>
+      <c r="T356" t="inlineStr">
+        <is>
+          <t>-36.706699060771506,175.76074678334774</t>
+        </is>
+      </c>
+      <c r="U356" t="inlineStr">
+        <is>
+          <t>-36.70646938888686,175.76159453853091</t>
+        </is>
+      </c>
+      <c r="V356" t="inlineStr">
+        <is>
+          <t>-36.70640976308021,175.76251183887427</t>
+        </is>
+      </c>
+      <c r="W356" t="inlineStr">
+        <is>
+          <t>-36.70619905206906,175.76337099385793</t>
+        </is>
+      </c>
+      <c r="X356" t="inlineStr">
+        <is>
+          <t>-36.7060342765266,175.76424991439134</t>
+        </is>
+      </c>
+      <c r="Y356" t="inlineStr">
+        <is>
+          <t>-36.705860668545824,175.76512968483854</t>
+        </is>
+      </c>
+      <c r="Z356" t="inlineStr">
+        <is>
+          <t>-36.70561591860524,175.76598123668407</t>
+        </is>
+      </c>
+      <c r="AA356" t="inlineStr">
+        <is>
+          <t>-36.705268536690674,175.76677368562287</t>
+        </is>
+      </c>
+      <c r="AB356" t="inlineStr">
+        <is>
+          <t>-36.70505304971185,175.76763647900503</t>
+        </is>
+      </c>
+      <c r="AC356" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0153/nzd0153.xlsx
+++ b/data/nzd0153/nzd0153.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC356"/>
+  <dimension ref="A1:AC357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30314,6 +30314,47 @@
         </is>
       </c>
     </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:21+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr"/>
+      <c r="N357" t="inlineStr"/>
+      <c r="O357" t="inlineStr"/>
+      <c r="P357" t="inlineStr"/>
+      <c r="Q357" t="inlineStr"/>
+      <c r="R357" t="inlineStr"/>
+      <c r="S357" t="inlineStr"/>
+      <c r="T357" t="inlineStr"/>
+      <c r="U357" t="inlineStr"/>
+      <c r="V357" t="inlineStr"/>
+      <c r="W357" t="inlineStr"/>
+      <c r="X357" t="inlineStr"/>
+      <c r="Y357" t="n">
+        <v>369.5347619047619</v>
+      </c>
+      <c r="Z357" t="inlineStr"/>
+      <c r="AA357" t="inlineStr"/>
+      <c r="AB357" t="inlineStr"/>
+      <c r="AC357" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30325,7 +30366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B371"/>
+  <dimension ref="A1:B372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34043,6 +34084,16 @@
       </c>
       <c r="B371" t="n">
         <v>-0.87</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -34219,7 +34270,7 @@
         <v>0.5508643927874476</v>
       </c>
       <c r="J2" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K2" t="n">
         <v>301</v>
@@ -34297,7 +34348,7 @@
         <v>0.7524558795109876</v>
       </c>
       <c r="J3" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K3" t="n">
         <v>304</v>
@@ -34375,7 +34426,7 @@
         <v>0.7251698407047474</v>
       </c>
       <c r="J4" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K4" t="n">
         <v>299</v>
@@ -34453,7 +34504,7 @@
         <v>0.6200654804865712</v>
       </c>
       <c r="J5" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K5" t="n">
         <v>307</v>
@@ -34531,7 +34582,7 @@
         <v>0.5925603023671675</v>
       </c>
       <c r="J6" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K6" t="n">
         <v>309</v>
@@ -34609,7 +34660,7 @@
         <v>0.4892976876630593</v>
       </c>
       <c r="J7" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K7" t="n">
         <v>310</v>
@@ -34681,7 +34732,7 @@
         <v>0.5029116592109351</v>
       </c>
       <c r="J8" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K8" t="n">
         <v>310</v>
@@ -34759,7 +34810,7 @@
         <v>0.4890288640972099</v>
       </c>
       <c r="J9" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K9" t="n">
         <v>314</v>
@@ -34837,7 +34888,7 @@
         <v>0.2802264674152253</v>
       </c>
       <c r="J10" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K10" t="n">
         <v>308</v>
@@ -34915,7 +34966,7 @@
         <v>0.2608482274556297</v>
       </c>
       <c r="J11" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K11" t="n">
         <v>300</v>
@@ -34993,7 +35044,7 @@
         <v>0.2850539793164307</v>
       </c>
       <c r="J12" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K12" t="n">
         <v>307</v>
@@ -35071,7 +35122,7 @@
         <v>0.2283807971070092</v>
       </c>
       <c r="J13" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K13" t="n">
         <v>303</v>
@@ -35149,7 +35200,7 @@
         <v>0.20993087711332</v>
       </c>
       <c r="J14" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K14" t="n">
         <v>293</v>
@@ -35227,7 +35278,7 @@
         <v>0.2101645862087884</v>
       </c>
       <c r="J15" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K15" t="n">
         <v>291</v>
@@ -35305,7 +35356,7 @@
         <v>0.1580867874348436</v>
       </c>
       <c r="J16" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K16" t="n">
         <v>289</v>
@@ -35383,7 +35434,7 @@
         <v>0.1060105375372493</v>
       </c>
       <c r="J17" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K17" t="n">
         <v>281</v>
@@ -35455,7 +35506,7 @@
         <v>0.08737040585965726</v>
       </c>
       <c r="J18" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K18" t="n">
         <v>270</v>
@@ -35533,7 +35584,7 @@
         <v>0.1143675182917863</v>
       </c>
       <c r="J19" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K19" t="n">
         <v>288</v>
@@ -35611,7 +35662,7 @@
         <v>0.1453919049397285</v>
       </c>
       <c r="J20" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K20" t="n">
         <v>288</v>
@@ -35689,7 +35740,7 @@
         <v>0.1142902198113422</v>
       </c>
       <c r="J21" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K21" t="n">
         <v>288</v>
@@ -35767,7 +35818,7 @@
         <v>-0.1465187830748777</v>
       </c>
       <c r="J22" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K22" t="n">
         <v>287</v>
@@ -35845,7 +35896,7 @@
         <v>0.1521867043136522</v>
       </c>
       <c r="J23" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K23" t="n">
         <v>284</v>
@@ -35923,7 +35974,7 @@
         <v>0.290815150635032</v>
       </c>
       <c r="J24" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K24" t="n">
         <v>274</v>
@@ -35998,28 +36049,28 @@
         <v>0.1319</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05249456093952776</v>
+        <v>0.05178730973049162</v>
       </c>
       <c r="J25" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K25" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000855930063876742</v>
+        <v>0.0008389834467981139</v>
       </c>
       <c r="M25" t="n">
-        <v>10.65827003897855</v>
+        <v>10.62469374620036</v>
       </c>
       <c r="N25" t="n">
-        <v>183.7334534751894</v>
+        <v>183.0927785625233</v>
       </c>
       <c r="O25" t="n">
-        <v>13.55483137022329</v>
+        <v>13.53117801828515</v>
       </c>
       <c r="P25" t="n">
-        <v>369.2588507076786</v>
+        <v>369.265659164273</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -36079,7 +36130,7 @@
         <v>0.1218757342855995</v>
       </c>
       <c r="J26" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K26" t="n">
         <v>284</v>
@@ -36157,7 +36208,7 @@
         <v>0.03124692777082221</v>
       </c>
       <c r="J27" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K27" t="n">
         <v>286</v>
@@ -36235,7 +36286,7 @@
         <v>0.00276864246877493</v>
       </c>
       <c r="J28" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K28" t="n">
         <v>284</v>
@@ -36291,7 +36342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC356"/>
+  <dimension ref="A1:AC357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82063,6 +82114,49 @@
         </is>
       </c>
     </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:21+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr"/>
+      <c r="N357" t="inlineStr"/>
+      <c r="O357" t="inlineStr"/>
+      <c r="P357" t="inlineStr"/>
+      <c r="Q357" t="inlineStr"/>
+      <c r="R357" t="inlineStr"/>
+      <c r="S357" t="inlineStr"/>
+      <c r="T357" t="inlineStr"/>
+      <c r="U357" t="inlineStr"/>
+      <c r="V357" t="inlineStr"/>
+      <c r="W357" t="inlineStr"/>
+      <c r="X357" t="inlineStr"/>
+      <c r="Y357" t="inlineStr">
+        <is>
+          <t>-36.7056796930484,175.76504432109772</t>
+        </is>
+      </c>
+      <c r="Z357" t="inlineStr"/>
+      <c r="AA357" t="inlineStr"/>
+      <c r="AB357" t="inlineStr"/>
+      <c r="AC357" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0153/nzd0153.xlsx
+++ b/data/nzd0153/nzd0153.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC357"/>
+  <dimension ref="A1:AC359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30355,6 +30355,192 @@
         </is>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>334.25</v>
+      </c>
+      <c r="C358" t="n">
+        <v>344.6377777777778</v>
+      </c>
+      <c r="D358" t="n">
+        <v>360.2477777777778</v>
+      </c>
+      <c r="E358" t="n">
+        <v>373.99</v>
+      </c>
+      <c r="F358" t="n">
+        <v>367.3696774193549</v>
+      </c>
+      <c r="G358" t="n">
+        <v>373.9177777777778</v>
+      </c>
+      <c r="H358" t="n">
+        <v>384.2777777777778</v>
+      </c>
+      <c r="I358" t="n">
+        <v>386.3677777777777</v>
+      </c>
+      <c r="J358" t="n">
+        <v>389.9033333333333</v>
+      </c>
+      <c r="K358" t="n">
+        <v>380.6170588235294</v>
+      </c>
+      <c r="L358" t="n">
+        <v>387.1147368421053</v>
+      </c>
+      <c r="M358" t="n">
+        <v>382.7208695652174</v>
+      </c>
+      <c r="N358" t="n">
+        <v>374.6414285714285</v>
+      </c>
+      <c r="O358" t="n">
+        <v>372.98</v>
+      </c>
+      <c r="P358" t="n">
+        <v>378.4318181818182</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>374.1952380952381</v>
+      </c>
+      <c r="R358" t="n">
+        <v>367.4118181818182</v>
+      </c>
+      <c r="S358" t="n">
+        <v>371.3508695652174</v>
+      </c>
+      <c r="T358" t="n">
+        <v>370.89</v>
+      </c>
+      <c r="U358" t="n">
+        <v>376.4633333333333</v>
+      </c>
+      <c r="V358" t="n">
+        <v>367.35</v>
+      </c>
+      <c r="W358" t="n">
+        <v>351.7766666666667</v>
+      </c>
+      <c r="X358" t="n">
+        <v>349.1928571428572</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>348.1152380952381</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>348.2977777777777</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>366.9977777777778</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>350.8208695652174</v>
+      </c>
+      <c r="AC358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>328.61</v>
+      </c>
+      <c r="C359" t="n">
+        <v>339.9533333333333</v>
+      </c>
+      <c r="D359" t="n">
+        <v>357.5533333333333</v>
+      </c>
+      <c r="E359" t="n">
+        <v>365.33</v>
+      </c>
+      <c r="F359" t="n">
+        <v>367.5290322580645</v>
+      </c>
+      <c r="G359" t="n">
+        <v>367.6833333333333</v>
+      </c>
+      <c r="H359" t="n">
+        <v>377.5733333333333</v>
+      </c>
+      <c r="I359" t="n">
+        <v>386.1833333333333</v>
+      </c>
+      <c r="J359" t="n">
+        <v>384.11</v>
+      </c>
+      <c r="K359" t="n">
+        <v>375.6811764705882</v>
+      </c>
+      <c r="L359" t="n">
+        <v>369.9842105263158</v>
+      </c>
+      <c r="M359" t="n">
+        <v>378.0526086956522</v>
+      </c>
+      <c r="N359" t="n">
+        <v>369.2942857142857</v>
+      </c>
+      <c r="O359" t="n">
+        <v>362.3</v>
+      </c>
+      <c r="P359" t="n">
+        <v>372.2654545454546</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>368.1757142857143</v>
+      </c>
+      <c r="R359" t="n">
+        <v>361.2754545454546</v>
+      </c>
+      <c r="S359" t="n">
+        <v>361.0226086956522</v>
+      </c>
+      <c r="T359" t="n">
+        <v>361.34</v>
+      </c>
+      <c r="U359" t="n">
+        <v>366.98</v>
+      </c>
+      <c r="V359" t="n">
+        <v>357.47</v>
+      </c>
+      <c r="W359" t="n">
+        <v>348.24</v>
+      </c>
+      <c r="X359" t="n">
+        <v>332.9185714285715</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>339.9357142857143</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>339.7233333333333</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>371.1033333333333</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>342.6926086956522</v>
+      </c>
+      <c r="AC359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30366,7 +30552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34094,6 +34280,26 @@
       </c>
       <c r="B372" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -34267,28 +34473,28 @@
         <v>0.1032</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5508643927874476</v>
+        <v>0.5262589181240129</v>
       </c>
       <c r="J2" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K2" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06240468251920139</v>
+        <v>0.05744482085450597</v>
       </c>
       <c r="M2" t="n">
-        <v>13.17343338652623</v>
+        <v>13.23561338346633</v>
       </c>
       <c r="N2" t="n">
-        <v>260.3991423843666</v>
+        <v>261.3099477988131</v>
       </c>
       <c r="O2" t="n">
-        <v>16.13688763003469</v>
+        <v>16.16508421873555</v>
       </c>
       <c r="P2" t="n">
-        <v>337.1735436306017</v>
+        <v>337.4124561177164</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34345,28 +34551,28 @@
         <v>0.117</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7524558795109876</v>
+        <v>0.7408251914801833</v>
       </c>
       <c r="J3" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K3" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1131660749708866</v>
+        <v>0.1111170247039152</v>
       </c>
       <c r="M3" t="n">
-        <v>13.11540200261488</v>
+        <v>13.09940864131959</v>
       </c>
       <c r="N3" t="n">
-        <v>257.5881050295089</v>
+        <v>256.5415298075656</v>
       </c>
       <c r="O3" t="n">
-        <v>16.04955155228672</v>
+        <v>16.0169138665214</v>
       </c>
       <c r="P3" t="n">
-        <v>332.5619984107039</v>
+        <v>332.6739513087394</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34423,28 +34629,28 @@
         <v>0.1148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7251698407047474</v>
+        <v>0.7176340816375752</v>
       </c>
       <c r="J4" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K4" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1278411906119503</v>
+        <v>0.1268569838441702</v>
       </c>
       <c r="M4" t="n">
-        <v>11.1899293727774</v>
+        <v>11.15728300424762</v>
       </c>
       <c r="N4" t="n">
-        <v>209.8658502475553</v>
+        <v>208.7334260358436</v>
       </c>
       <c r="O4" t="n">
-        <v>14.48674740055736</v>
+        <v>14.44760969973385</v>
       </c>
       <c r="P4" t="n">
-        <v>346.381684779746</v>
+        <v>346.4537313488618</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34501,28 +34707,28 @@
         <v>0.1157</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6200654804865712</v>
+        <v>0.6111934742943828</v>
       </c>
       <c r="J5" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K5" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1240145077718245</v>
+        <v>0.1219839239198995</v>
       </c>
       <c r="M5" t="n">
-        <v>10.01082792424149</v>
+        <v>9.987725578939649</v>
       </c>
       <c r="N5" t="n">
-        <v>158.606794971203</v>
+        <v>158.054921680609</v>
       </c>
       <c r="O5" t="n">
-        <v>12.59391896794651</v>
+        <v>12.57198956731229</v>
       </c>
       <c r="P5" t="n">
-        <v>361.1145698213241</v>
+        <v>361.1994397819237</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34579,28 +34785,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5925603023671675</v>
+        <v>0.5835158398520497</v>
       </c>
       <c r="J6" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K6" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1398532212720804</v>
+        <v>0.1373590251471227</v>
       </c>
       <c r="M6" t="n">
-        <v>8.343702392567572</v>
+        <v>8.329762717319605</v>
       </c>
       <c r="N6" t="n">
-        <v>126.028678302598</v>
+        <v>125.5901176690407</v>
       </c>
       <c r="O6" t="n">
-        <v>11.22624952077042</v>
+        <v>11.20669967782847</v>
       </c>
       <c r="P6" t="n">
-        <v>359.8385750653531</v>
+        <v>359.9252561955041</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34657,28 +34863,28 @@
         <v>0.1024</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4892976876630593</v>
+        <v>0.4810857774667183</v>
       </c>
       <c r="J7" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K7" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0947005596855951</v>
+        <v>0.09268319423462756</v>
       </c>
       <c r="M7" t="n">
-        <v>8.615997652113199</v>
+        <v>8.602272644046781</v>
       </c>
       <c r="N7" t="n">
-        <v>133.0451596681532</v>
+        <v>132.5591987030603</v>
       </c>
       <c r="O7" t="n">
-        <v>11.53452034842166</v>
+        <v>11.51343557340989</v>
       </c>
       <c r="P7" t="n">
-        <v>365.1312846891803</v>
+        <v>365.2101682664029</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34729,28 +34935,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.5029116592109351</v>
+        <v>0.4957213482995088</v>
       </c>
       <c r="J8" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K8" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1012840348274158</v>
+        <v>0.09963029426568371</v>
       </c>
       <c r="M8" t="n">
-        <v>8.534032501350294</v>
+        <v>8.513330725647565</v>
       </c>
       <c r="N8" t="n">
-        <v>130.4167743812681</v>
+        <v>129.8864396445636</v>
       </c>
       <c r="O8" t="n">
-        <v>11.42001639146232</v>
+        <v>11.39677321194748</v>
       </c>
       <c r="P8" t="n">
-        <v>374.0392269464725</v>
+        <v>374.1083362787614</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34807,28 +35013,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4890288640972099</v>
+        <v>0.4847112300892685</v>
       </c>
       <c r="J9" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K9" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09460357666345487</v>
+        <v>0.09412786254009808</v>
       </c>
       <c r="M9" t="n">
-        <v>9.163440163834094</v>
+        <v>9.126465025276987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.7515862163398</v>
+        <v>131.0015485744376</v>
       </c>
       <c r="O9" t="n">
-        <v>11.47830937971005</v>
+        <v>11.44559079184808</v>
       </c>
       <c r="P9" t="n">
-        <v>377.3308952592787</v>
+        <v>377.3725915768892</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34885,28 +35091,28 @@
         <v>0.1415</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2802264674152253</v>
+        <v>0.2829221305683475</v>
       </c>
       <c r="J10" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K10" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03726936662672409</v>
+        <v>0.03841310454434799</v>
       </c>
       <c r="M10" t="n">
-        <v>8.885991680575975</v>
+        <v>8.846039334074716</v>
       </c>
       <c r="N10" t="n">
-        <v>118.0140863170388</v>
+        <v>117.3397344579705</v>
       </c>
       <c r="O10" t="n">
-        <v>10.86342884714761</v>
+        <v>10.83234667364235</v>
       </c>
       <c r="P10" t="n">
-        <v>377.504279692335</v>
+        <v>377.4784908962878</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34963,28 +35169,28 @@
         <v>0.1115</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2608482274556297</v>
+        <v>0.2560301948454318</v>
       </c>
       <c r="J11" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K11" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03787830491935407</v>
+        <v>0.03697267776091662</v>
       </c>
       <c r="M11" t="n">
-        <v>7.771668437782787</v>
+        <v>7.743311678222883</v>
       </c>
       <c r="N11" t="n">
-        <v>100.7561618660085</v>
+        <v>100.2290845825964</v>
       </c>
       <c r="O11" t="n">
-        <v>10.03773688965837</v>
+        <v>10.01144767666477</v>
       </c>
       <c r="P11" t="n">
-        <v>375.337511940652</v>
+        <v>375.3834308862079</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35041,28 +35247,28 @@
         <v>0.1108</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2850539793164307</v>
+        <v>0.2845334141709413</v>
       </c>
       <c r="J12" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K12" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04302768459541528</v>
+        <v>0.04323958445957699</v>
       </c>
       <c r="M12" t="n">
-        <v>8.074160029557529</v>
+        <v>8.076812164702702</v>
       </c>
       <c r="N12" t="n">
-        <v>105.0943442005986</v>
+        <v>104.8907482043707</v>
       </c>
       <c r="O12" t="n">
-        <v>10.25155325795065</v>
+        <v>10.24161843676919</v>
       </c>
       <c r="P12" t="n">
-        <v>371.6088966963161</v>
+        <v>371.6139648514957</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35119,28 +35325,28 @@
         <v>0.132</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2283807971070092</v>
+        <v>0.2308420911174344</v>
       </c>
       <c r="J13" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K13" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03369481803209373</v>
+        <v>0.034831993241214</v>
       </c>
       <c r="M13" t="n">
-        <v>7.79163452126679</v>
+        <v>7.755404048666361</v>
       </c>
       <c r="N13" t="n">
-        <v>87.77749397316805</v>
+        <v>87.26396990045349</v>
       </c>
       <c r="O13" t="n">
-        <v>9.368964402385572</v>
+        <v>9.341518607831036</v>
       </c>
       <c r="P13" t="n">
-        <v>372.4755449247535</v>
+        <v>372.4523863351823</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35197,28 +35403,28 @@
         <v>0.1814</v>
       </c>
       <c r="I14" t="n">
-        <v>0.20993087711332</v>
+        <v>0.2030379414856401</v>
       </c>
       <c r="J14" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K14" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03918539247139907</v>
+        <v>0.03708461092862436</v>
       </c>
       <c r="M14" t="n">
-        <v>5.999966845603271</v>
+        <v>5.990922475626804</v>
       </c>
       <c r="N14" t="n">
-        <v>64.55538928764405</v>
+        <v>64.37608749514165</v>
       </c>
       <c r="O14" t="n">
-        <v>8.034636848523027</v>
+        <v>8.023471037845257</v>
       </c>
       <c r="P14" t="n">
-        <v>372.1701592427116</v>
+        <v>372.2349736598954</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35275,28 +35481,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2101645862087884</v>
+        <v>0.1966865573612182</v>
       </c>
       <c r="J15" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K15" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02376285111814014</v>
+        <v>0.02096014170157934</v>
       </c>
       <c r="M15" t="n">
-        <v>8.316702262781899</v>
+        <v>8.330674813303354</v>
       </c>
       <c r="N15" t="n">
-        <v>108.3329429759759</v>
+        <v>108.5934876715544</v>
       </c>
       <c r="O15" t="n">
-        <v>10.40831124515288</v>
+        <v>10.42081991359386</v>
       </c>
       <c r="P15" t="n">
-        <v>373.1882553980817</v>
+        <v>373.3154859542977</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35353,28 +35559,28 @@
         <v>0.1256</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1580867874348436</v>
+        <v>0.1528542174888496</v>
       </c>
       <c r="J16" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K16" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01697006187800931</v>
+        <v>0.01605821946035224</v>
       </c>
       <c r="M16" t="n">
-        <v>6.665194971842012</v>
+        <v>6.652370054854512</v>
       </c>
       <c r="N16" t="n">
-        <v>87.59686676952704</v>
+        <v>87.18414063669884</v>
       </c>
       <c r="O16" t="n">
-        <v>9.359319781347736</v>
+        <v>9.337244809722986</v>
       </c>
       <c r="P16" t="n">
-        <v>375.5577445193425</v>
+        <v>375.6067861449295</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35431,28 +35637,28 @@
         <v>0.1221</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1060105375372493</v>
+        <v>0.09536309945624083</v>
       </c>
       <c r="J17" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K17" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008545709952679226</v>
+        <v>0.006973091179835245</v>
       </c>
       <c r="M17" t="n">
-        <v>6.4402188704733</v>
+        <v>6.456913584374463</v>
       </c>
       <c r="N17" t="n">
-        <v>78.35845825450924</v>
+        <v>78.35995694184793</v>
       </c>
       <c r="O17" t="n">
-        <v>8.852031306683751</v>
+        <v>8.852115958450156</v>
       </c>
       <c r="P17" t="n">
-        <v>376.8746163525746</v>
+        <v>376.9746690207148</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35503,28 +35709,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.08737040585965726</v>
+        <v>0.06723967112800441</v>
       </c>
       <c r="J18" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K18" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004570024960045438</v>
+        <v>0.002702893710386678</v>
       </c>
       <c r="M18" t="n">
-        <v>7.975885022609132</v>
+        <v>8.011728657939138</v>
       </c>
       <c r="N18" t="n">
-        <v>97.95726493318442</v>
+        <v>98.96748711813999</v>
       </c>
       <c r="O18" t="n">
-        <v>9.897336254426461</v>
+        <v>9.948240403113507</v>
       </c>
       <c r="P18" t="n">
-        <v>377.2843929852931</v>
+        <v>377.4769770376733</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35581,28 +35787,28 @@
         <v>0.1399</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1143675182917863</v>
+        <v>0.09152419429321769</v>
       </c>
       <c r="J19" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K19" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007127909431812629</v>
+        <v>0.004532860333661959</v>
       </c>
       <c r="M19" t="n">
-        <v>8.363306589387228</v>
+        <v>8.445537098501928</v>
       </c>
       <c r="N19" t="n">
-        <v>108.9734124746519</v>
+        <v>110.7399511688063</v>
       </c>
       <c r="O19" t="n">
-        <v>10.43903311972195</v>
+        <v>10.523305144716</v>
       </c>
       <c r="P19" t="n">
-        <v>381.8198557730487</v>
+        <v>382.0361314871685</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35659,28 +35865,28 @@
         <v>0.1622</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1453919049397285</v>
+        <v>0.1218094038876913</v>
       </c>
       <c r="J20" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K20" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L20" t="n">
-        <v>0.009880282649151306</v>
+        <v>0.006908621231494605</v>
       </c>
       <c r="M20" t="n">
-        <v>8.742184859871008</v>
+        <v>8.790250200003175</v>
       </c>
       <c r="N20" t="n">
-        <v>124.8481978293095</v>
+        <v>126.5476771397136</v>
       </c>
       <c r="O20" t="n">
-        <v>11.17354902568157</v>
+        <v>11.24934118691906</v>
       </c>
       <c r="P20" t="n">
-        <v>381.2231284327288</v>
+        <v>381.4479623374241</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35737,28 +35943,28 @@
         <v>0.1408</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1142902198113422</v>
+        <v>0.09610218557268782</v>
       </c>
       <c r="J21" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K21" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L21" t="n">
-        <v>0.006442594681983826</v>
+        <v>0.0045677121557407</v>
       </c>
       <c r="M21" t="n">
-        <v>8.17048693130274</v>
+        <v>8.204174099626499</v>
       </c>
       <c r="N21" t="n">
-        <v>117.2854368076973</v>
+        <v>118.011272701402</v>
       </c>
       <c r="O21" t="n">
-        <v>10.82984010997841</v>
+        <v>10.86329934694806</v>
       </c>
       <c r="P21" t="n">
-        <v>383.064256236372</v>
+        <v>383.2383135277672</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35815,28 +36021,28 @@
         <v>0.0956</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1465187830748777</v>
+        <v>-0.1681217997083888</v>
       </c>
       <c r="J22" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K22" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L22" t="n">
-        <v>0.006925383736280044</v>
+        <v>0.009117555561969248</v>
       </c>
       <c r="M22" t="n">
-        <v>10.19977364398492</v>
+        <v>10.26518035912676</v>
       </c>
       <c r="N22" t="n">
-        <v>180.5023836959326</v>
+        <v>181.3812626521783</v>
       </c>
       <c r="O22" t="n">
-        <v>13.43511755422827</v>
+        <v>13.46778610804977</v>
       </c>
       <c r="P22" t="n">
-        <v>383.1936761710462</v>
+        <v>383.399346119751</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35893,28 +36099,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1521867043136522</v>
+        <v>0.1212590746956159</v>
       </c>
       <c r="J23" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K23" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005253341217710372</v>
+        <v>0.003339119810979896</v>
       </c>
       <c r="M23" t="n">
-        <v>13.09067134986171</v>
+        <v>13.16096886987812</v>
       </c>
       <c r="N23" t="n">
-        <v>252.71840395478</v>
+        <v>254.7873914738027</v>
       </c>
       <c r="O23" t="n">
-        <v>15.89711936027342</v>
+        <v>15.96206100332293</v>
       </c>
       <c r="P23" t="n">
-        <v>369.6885226730079</v>
+        <v>369.9850937301791</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35971,28 +36177,28 @@
         <v>0.0847</v>
       </c>
       <c r="I24" t="n">
-        <v>0.290815150635032</v>
+        <v>0.2514113226626969</v>
       </c>
       <c r="J24" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K24" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02111710713675141</v>
+        <v>0.01563857596291829</v>
       </c>
       <c r="M24" t="n">
-        <v>11.96400532429613</v>
+        <v>12.09310833081396</v>
       </c>
       <c r="N24" t="n">
-        <v>225.391970776567</v>
+        <v>230.3929009725178</v>
       </c>
       <c r="O24" t="n">
-        <v>15.01306000709272</v>
+        <v>15.17869892225674</v>
       </c>
       <c r="P24" t="n">
-        <v>363.0123976712927</v>
+        <v>363.3946595954185</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -36049,28 +36255,28 @@
         <v>0.1319</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05178730973049162</v>
+        <v>0.01722702064972752</v>
       </c>
       <c r="J25" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K25" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0008389834467981139</v>
+        <v>9.174613956741684e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>10.62469374620036</v>
+        <v>10.73795699798753</v>
       </c>
       <c r="N25" t="n">
-        <v>183.0927785625233</v>
+        <v>186.7522061031045</v>
       </c>
       <c r="O25" t="n">
-        <v>13.53117801828515</v>
+        <v>13.66573108556964</v>
       </c>
       <c r="P25" t="n">
-        <v>369.265659164273</v>
+        <v>369.5999040278046</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -36127,28 +36333,28 @@
         <v>0.1085</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1218757342855995</v>
+        <v>0.08721187008352548</v>
       </c>
       <c r="J26" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K26" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003964982463826816</v>
+        <v>0.002016046244105008</v>
       </c>
       <c r="M26" t="n">
-        <v>11.48955368619428</v>
+        <v>11.58531493470273</v>
       </c>
       <c r="N26" t="n">
-        <v>213.2241945216905</v>
+        <v>216.6988083081343</v>
       </c>
       <c r="O26" t="n">
-        <v>14.60219827702975</v>
+        <v>14.72069320066601</v>
       </c>
       <c r="P26" t="n">
-        <v>367.4464399731101</v>
+        <v>367.7830078411042</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -36205,28 +36411,28 @@
         <v>0.1067</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03124692777082221</v>
+        <v>0.01974677662886795</v>
       </c>
       <c r="J27" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K27" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0003749419136147569</v>
+        <v>0.0001513008605626975</v>
       </c>
       <c r="M27" t="n">
-        <v>9.862933205334008</v>
+        <v>9.857496953547795</v>
       </c>
       <c r="N27" t="n">
-        <v>148.7983362723945</v>
+        <v>148.3352237463255</v>
       </c>
       <c r="O27" t="n">
-        <v>12.19829235066919</v>
+        <v>12.17929487886411</v>
       </c>
       <c r="P27" t="n">
-        <v>377.1632927567348</v>
+        <v>377.2751010841985</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -36283,28 +36489,28 @@
         <v>0.1523</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00276864246877493</v>
+        <v>-0.03519586812027831</v>
       </c>
       <c r="J28" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K28" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L28" t="n">
-        <v>1.835191848376105e-06</v>
+        <v>0.0002930688322281272</v>
       </c>
       <c r="M28" t="n">
-        <v>12.55814265426275</v>
+        <v>12.70263884379822</v>
       </c>
       <c r="N28" t="n">
-        <v>243.5866484438454</v>
+        <v>248.0973769584947</v>
       </c>
       <c r="O28" t="n">
-        <v>15.60726268260535</v>
+        <v>15.75110716611676</v>
       </c>
       <c r="P28" t="n">
-        <v>376.5253967948261</v>
+        <v>376.8908456602713</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36342,7 +36548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC357"/>
+  <dimension ref="A1:AC359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82157,6 +82363,300 @@
         </is>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-36.70698902927537,175.74486170828033</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-36.707220398771646,175.7457179468135</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-36.70740929899474,175.74659869424303</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-36.70754338391144,175.74745764848842</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>-36.70766180085593,175.74832609124843</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>-36.70766319948757,175.74922602379496</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>-36.70763039653654,175.75011188785857</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>-36.70758524598164,175.7509696578751</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>-36.70745100448663,175.75183647324386</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>-36.70742837664992,175.75274240331092</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>-36.707265914360974,175.75362189931772</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>-36.70721199764922,175.75452241575113</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>-36.70719130460952,175.75542658595558</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>-36.70711316142196,175.7563215716668</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>-36.70698512876429,175.75721160812984</t>
+        </is>
+      </c>
+      <c r="Q358" t="inlineStr">
+        <is>
+          <t>-36.706970920939526,175.7581157123342</t>
+        </is>
+      </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>-36.70698005805433,175.75901858292795</t>
+        </is>
+      </c>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>-36.706895045874234,175.75989997852744</t>
+        </is>
+      </c>
+      <c r="T358" t="inlineStr">
+        <is>
+          <t>-36.70672995588563,175.76075787045886</t>
+        </is>
+      </c>
+      <c r="U358" t="inlineStr">
+        <is>
+          <t>-36.70648303018813,175.76159983710252</t>
+        </is>
+      </c>
+      <c r="V358" t="inlineStr">
+        <is>
+          <t>-36.706358298633994,175.76249078796127</t>
+        </is>
+      </c>
+      <c r="W358" t="inlineStr">
+        <is>
+          <t>-36.70627082311155,175.76340157811737</t>
+        </is>
+      </c>
+      <c r="X358" t="inlineStr">
+        <is>
+          <t>-36.70607226570674,175.76426610324</t>
+        </is>
+      </c>
+      <c r="Y358" t="inlineStr">
+        <is>
+          <t>-36.70586007104211,175.76512940300321</t>
+        </is>
+      </c>
+      <c r="Z358" t="inlineStr">
+        <is>
+          <t>-36.70559302869897,175.76596905670297</t>
+        </is>
+      </c>
+      <c r="AA358" t="inlineStr">
+        <is>
+          <t>-36.70516154281843,175.76671527385824</t>
+        </is>
+      </c>
+      <c r="AB358" t="inlineStr">
+        <is>
+          <t>-36.705017951963136,175.76761731762065</t>
+        </is>
+      </c>
+      <c r="AC358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>-36.707035073353715,175.74483503584784</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>-36.707258641934395,175.7456957935878</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-36.707431727455386,175.74658717013403</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-36.70761975355634,175.74743787893772</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>-36.70766036840727,175.7483262073831</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>-36.70771924121748,175.74922148068288</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>-36.707690791030586,175.7501116491741</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>-36.70758689698433,175.75096988954618</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>-36.707502479247914,175.75184714726464</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>-36.70747223696764,175.75275146637458</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>-36.70741835152369,175.75365170317554</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>-36.70725359036195,175.75453011707924</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>-36.70723894587648,175.75543540761106</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>-36.707208452320224,175.75633802140808</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>-36.70704034366266,175.75721914595084</t>
+        </is>
+      </c>
+      <c r="Q359" t="inlineStr">
+        <is>
+          <t>-36.70702492243054,175.75812181638221</t>
+        </is>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>-36.707035107664026,175.75902480587746</t>
+        </is>
+      </c>
+      <c r="S359" t="inlineStr">
+        <is>
+          <t>-36.70698664218822,175.75992024339666</t>
+        </is>
+      </c>
+      <c r="T359" t="inlineStr">
+        <is>
+          <t>-36.70681260247183,175.76078752930482</t>
+        </is>
+      </c>
+      <c r="U359" t="inlineStr">
+        <is>
+          <t>-36.706564562748504,175.7616315061283</t>
+        </is>
+      </c>
+      <c r="V359" t="inlineStr">
+        <is>
+          <t>-36.706442832085656,175.76252536537038</t>
+        </is>
+      </c>
+      <c r="W359" t="inlineStr">
+        <is>
+          <t>-36.70630095728955,175.7634144194094</t>
+        </is>
+      </c>
+      <c r="X359" t="inlineStr">
+        <is>
+          <t>-36.70621093044832,175.76432519449764</t>
+        </is>
+      </c>
+      <c r="Y359" t="inlineStr">
+        <is>
+          <t>-36.70592895238801,175.76516189354132</t>
+        </is>
+      </c>
+      <c r="Z359" t="inlineStr">
+        <is>
+          <t>-36.705664026043614,175.7660068352302</t>
+        </is>
+      </c>
+      <c r="AA359" t="inlineStr">
+        <is>
+          <t>-36.70512768631005,175.7666967904244</t>
+        </is>
+      </c>
+      <c r="AB359" t="inlineStr">
+        <is>
+          <t>-36.70508498152469,175.7676539119854</t>
+        </is>
+      </c>
+      <c r="AC359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0153/nzd0153.xlsx
+++ b/data/nzd0153/nzd0153.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC359"/>
+  <dimension ref="A1:AC360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30541,6 +30541,97 @@
         </is>
       </c>
     </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>331.85</v>
+      </c>
+      <c r="C360" t="n">
+        <v>339.0388888888889</v>
+      </c>
+      <c r="D360" t="n">
+        <v>368.6888888888889</v>
+      </c>
+      <c r="E360" t="n">
+        <v>374.44</v>
+      </c>
+      <c r="F360" t="n">
+        <v>370.48</v>
+      </c>
+      <c r="G360" t="n">
+        <v>379.9588888888889</v>
+      </c>
+      <c r="H360" t="n">
+        <v>386.9188888888889</v>
+      </c>
+      <c r="I360" t="n">
+        <v>386.9288888888889</v>
+      </c>
+      <c r="J360" t="n">
+        <v>390.2666666666667</v>
+      </c>
+      <c r="K360" t="n">
+        <v>386.5641176470588</v>
+      </c>
+      <c r="L360" t="n">
+        <v>376.6063157894737</v>
+      </c>
+      <c r="M360" t="n">
+        <v>384.5313043478261</v>
+      </c>
+      <c r="N360" t="n">
+        <v>376.5785714285714</v>
+      </c>
+      <c r="O360" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="P360" t="n">
+        <v>376.3963636363636</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>365.874761904762</v>
+      </c>
+      <c r="R360" t="n">
+        <v>371.5063636363636</v>
+      </c>
+      <c r="S360" t="n">
+        <v>367.3013043478261</v>
+      </c>
+      <c r="T360" t="n">
+        <v>367.33</v>
+      </c>
+      <c r="U360" t="n">
+        <v>367.4666666666667</v>
+      </c>
+      <c r="V360" t="inlineStr"/>
+      <c r="W360" t="n">
+        <v>350.6533333333333</v>
+      </c>
+      <c r="X360" t="n">
+        <v>345.8671428571428</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>346.0147619047619</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>350.1888888888889</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>360.4088888888889</v>
+      </c>
+      <c r="AB360" t="n">
+        <v>344.7513043478261</v>
+      </c>
+      <c r="AC360" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30552,7 +30643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B374"/>
+  <dimension ref="A1:B375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34300,6 +34391,16 @@
       </c>
       <c r="B374" t="n">
         <v>-0.6</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -34473,28 +34574,28 @@
         <v>0.1032</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5262589181240129</v>
+        <v>0.5143946984640621</v>
       </c>
       <c r="J2" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K2" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05744482085450597</v>
+        <v>0.05513578377829975</v>
       </c>
       <c r="M2" t="n">
-        <v>13.23561338346633</v>
+        <v>13.26497231694673</v>
       </c>
       <c r="N2" t="n">
-        <v>261.3099477988131</v>
+        <v>261.6521412732256</v>
       </c>
       <c r="O2" t="n">
-        <v>16.16508421873555</v>
+        <v>16.17566509523567</v>
       </c>
       <c r="P2" t="n">
-        <v>337.4124561177164</v>
+        <v>337.5284042372002</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34551,28 +34652,28 @@
         <v>0.117</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7408251914801833</v>
+        <v>0.733093838884505</v>
       </c>
       <c r="J3" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1111170247039152</v>
+        <v>0.109497720392708</v>
       </c>
       <c r="M3" t="n">
-        <v>13.09940864131959</v>
+        <v>13.1028546510905</v>
       </c>
       <c r="N3" t="n">
-        <v>256.5415298075656</v>
+        <v>256.2382267266135</v>
       </c>
       <c r="O3" t="n">
-        <v>16.0169138665214</v>
+        <v>16.00744285407927</v>
       </c>
       <c r="P3" t="n">
-        <v>332.6739513087394</v>
+        <v>332.7488585731651</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34629,28 +34730,28 @@
         <v>0.1148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7176340816375752</v>
+        <v>0.7198436492197255</v>
       </c>
       <c r="J4" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K4" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1268569838441702</v>
+        <v>0.1282609605806306</v>
       </c>
       <c r="M4" t="n">
-        <v>11.15728300424762</v>
+        <v>11.13204776250473</v>
       </c>
       <c r="N4" t="n">
-        <v>208.7334260358436</v>
+        <v>208.0853306292258</v>
       </c>
       <c r="O4" t="n">
-        <v>14.44760969973385</v>
+        <v>14.42516310581013</v>
       </c>
       <c r="P4" t="n">
-        <v>346.4537313488618</v>
+        <v>346.4324665680197</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34707,28 +34808,28 @@
         <v>0.1157</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6111934742943828</v>
+        <v>0.6096385759205177</v>
       </c>
       <c r="J5" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K5" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1219839239198995</v>
+        <v>0.1221233553829285</v>
       </c>
       <c r="M5" t="n">
-        <v>9.987725578939649</v>
+        <v>9.962707646717551</v>
       </c>
       <c r="N5" t="n">
-        <v>158.054921680609</v>
+        <v>157.5668192885918</v>
       </c>
       <c r="O5" t="n">
-        <v>12.57198956731229</v>
+        <v>12.55256225989705</v>
       </c>
       <c r="P5" t="n">
-        <v>361.1994397819237</v>
+        <v>361.2144057858332</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34785,28 +34886,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5835158398520497</v>
+        <v>0.5808130572264255</v>
       </c>
       <c r="J6" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K6" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1373590251471227</v>
+        <v>0.1369606723224988</v>
       </c>
       <c r="M6" t="n">
-        <v>8.329762717319605</v>
+        <v>8.314956052313386</v>
       </c>
       <c r="N6" t="n">
-        <v>125.5901176690407</v>
+        <v>125.2540990277997</v>
       </c>
       <c r="O6" t="n">
-        <v>11.20669967782847</v>
+        <v>11.19169777235785</v>
       </c>
       <c r="P6" t="n">
-        <v>359.9252561955041</v>
+        <v>359.9513376945604</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34863,28 +34964,28 @@
         <v>0.1024</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4810857774667183</v>
+        <v>0.482429544622724</v>
       </c>
       <c r="J7" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K7" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09268319423462756</v>
+        <v>0.09369037090493493</v>
       </c>
       <c r="M7" t="n">
-        <v>8.602272644046781</v>
+        <v>8.582428071747373</v>
       </c>
       <c r="N7" t="n">
-        <v>132.5591987030603</v>
+        <v>132.1520311711822</v>
       </c>
       <c r="O7" t="n">
-        <v>11.51343557340989</v>
+        <v>11.49573969656508</v>
       </c>
       <c r="P7" t="n">
-        <v>365.2101682664029</v>
+        <v>365.1971786564315</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34935,28 +35036,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.4957213482995088</v>
+        <v>0.4956947742404371</v>
       </c>
       <c r="J8" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K8" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09963029426568371</v>
+        <v>0.1002016387253448</v>
       </c>
       <c r="M8" t="n">
-        <v>8.513330725647565</v>
+        <v>8.486255370894305</v>
       </c>
       <c r="N8" t="n">
-        <v>129.8864396445636</v>
+        <v>129.471473387382</v>
       </c>
       <c r="O8" t="n">
-        <v>11.39677321194748</v>
+        <v>11.37855322030802</v>
       </c>
       <c r="P8" t="n">
-        <v>374.1083362787614</v>
+        <v>374.108593274423</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35013,28 +35114,28 @@
         <v>0.1039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4847112300892685</v>
+        <v>0.4829355330152472</v>
       </c>
       <c r="J9" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K9" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09412786254009808</v>
+        <v>0.09403245163201335</v>
       </c>
       <c r="M9" t="n">
-        <v>9.126465025276987</v>
+        <v>9.106185786768759</v>
       </c>
       <c r="N9" t="n">
-        <v>131.0015485744376</v>
+        <v>130.6166715278222</v>
       </c>
       <c r="O9" t="n">
-        <v>11.44559079184808</v>
+        <v>11.42876509198707</v>
       </c>
       <c r="P9" t="n">
-        <v>377.3725915768892</v>
+        <v>377.3898546846919</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35091,28 +35192,28 @@
         <v>0.1415</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2829221305683475</v>
+        <v>0.2861717936795985</v>
       </c>
       <c r="J10" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K10" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03841310454434799</v>
+        <v>0.03948238651182201</v>
       </c>
       <c r="M10" t="n">
-        <v>8.846039334074716</v>
+        <v>8.833547908371029</v>
       </c>
       <c r="N10" t="n">
-        <v>117.3397344579705</v>
+        <v>117.0570563055985</v>
       </c>
       <c r="O10" t="n">
-        <v>10.83234667364235</v>
+        <v>10.81929093358703</v>
       </c>
       <c r="P10" t="n">
-        <v>377.4784908962878</v>
+        <v>377.4471443519546</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35169,28 +35270,28 @@
         <v>0.1115</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2560301948454318</v>
+        <v>0.2588235864419863</v>
       </c>
       <c r="J11" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K11" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03697267776091662</v>
+        <v>0.0379763753357929</v>
       </c>
       <c r="M11" t="n">
-        <v>7.743311678222883</v>
+        <v>7.734114982423307</v>
       </c>
       <c r="N11" t="n">
-        <v>100.2290845825964</v>
+        <v>99.96566857164952</v>
       </c>
       <c r="O11" t="n">
-        <v>10.01144767666477</v>
+        <v>9.998283281226309</v>
       </c>
       <c r="P11" t="n">
-        <v>375.3834308862079</v>
+        <v>375.3566474592197</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35247,28 +35348,28 @@
         <v>0.1108</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2845334141709413</v>
+        <v>0.2830907894779882</v>
       </c>
       <c r="J12" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K12" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04323958445957699</v>
+        <v>0.04308925180638434</v>
       </c>
       <c r="M12" t="n">
-        <v>8.076812164702702</v>
+        <v>8.056786731087804</v>
       </c>
       <c r="N12" t="n">
-        <v>104.8907482043707</v>
+        <v>104.5705805635226</v>
       </c>
       <c r="O12" t="n">
-        <v>10.24161843676919</v>
+        <v>10.22597577561782</v>
       </c>
       <c r="P12" t="n">
-        <v>371.6139648514957</v>
+        <v>371.627793608716</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35325,28 +35426,28 @@
         <v>0.132</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2308420911174344</v>
+        <v>0.234571431523683</v>
       </c>
       <c r="J13" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K13" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L13" t="n">
-        <v>0.034831993241214</v>
+        <v>0.03611557978623159</v>
       </c>
       <c r="M13" t="n">
-        <v>7.755404048666361</v>
+        <v>7.749150749491975</v>
       </c>
       <c r="N13" t="n">
-        <v>87.26396990045349</v>
+        <v>87.09887501068361</v>
       </c>
       <c r="O13" t="n">
-        <v>9.341518607831036</v>
+        <v>9.332677804932709</v>
       </c>
       <c r="P13" t="n">
-        <v>372.4523863351823</v>
+        <v>372.4170144044768</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35403,28 +35504,28 @@
         <v>0.1814</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2030379414856401</v>
+        <v>0.2024720434995293</v>
       </c>
       <c r="J14" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K14" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03708461092862436</v>
+        <v>0.03712576343826435</v>
       </c>
       <c r="M14" t="n">
-        <v>5.990922475626804</v>
+        <v>5.973246137456358</v>
       </c>
       <c r="N14" t="n">
-        <v>64.37608749514165</v>
+        <v>64.16144215964603</v>
       </c>
       <c r="O14" t="n">
-        <v>8.023471037845257</v>
+        <v>8.010083779814417</v>
       </c>
       <c r="P14" t="n">
-        <v>372.2349736598954</v>
+        <v>372.2403291950496</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35481,28 +35582,28 @@
         <v>0.08989999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1966865573612182</v>
+        <v>0.1935408997554223</v>
       </c>
       <c r="J15" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K15" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02096014170157934</v>
+        <v>0.0204269536521664</v>
       </c>
       <c r="M15" t="n">
-        <v>8.330674813303354</v>
+        <v>8.318611115450057</v>
       </c>
       <c r="N15" t="n">
-        <v>108.5934876715544</v>
+        <v>108.3122529355668</v>
       </c>
       <c r="O15" t="n">
-        <v>10.42081991359386</v>
+        <v>10.40731727850971</v>
       </c>
       <c r="P15" t="n">
-        <v>373.3154859542977</v>
+        <v>373.3453734465512</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35559,28 +35660,28 @@
         <v>0.1256</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1528542174888496</v>
+        <v>0.1509163944655043</v>
       </c>
       <c r="J16" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K16" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01605821946035224</v>
+        <v>0.01575739550135091</v>
       </c>
       <c r="M16" t="n">
-        <v>6.652370054854512</v>
+        <v>6.641648798070079</v>
       </c>
       <c r="N16" t="n">
-        <v>87.18414063669884</v>
+        <v>86.9197263847952</v>
       </c>
       <c r="O16" t="n">
-        <v>9.337244809722986</v>
+        <v>9.323074942570997</v>
       </c>
       <c r="P16" t="n">
-        <v>375.6067861449295</v>
+        <v>375.6250636552684</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35637,28 +35738,28 @@
         <v>0.1221</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09536309945624083</v>
+        <v>0.0867782007749594</v>
       </c>
       <c r="J17" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K17" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006973091179835245</v>
+        <v>0.00577392513247732</v>
       </c>
       <c r="M17" t="n">
-        <v>6.456913584374463</v>
+        <v>6.484063121881513</v>
       </c>
       <c r="N17" t="n">
-        <v>78.35995694184793</v>
+        <v>78.72596250285476</v>
       </c>
       <c r="O17" t="n">
-        <v>8.852115958450156</v>
+        <v>8.872765211750774</v>
       </c>
       <c r="P17" t="n">
-        <v>376.9746690207148</v>
+        <v>377.0558823167455</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35709,28 +35810,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.06723967112800441</v>
+        <v>0.0621247867763856</v>
       </c>
       <c r="J18" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K18" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002702893710386678</v>
+        <v>0.00231980502074125</v>
       </c>
       <c r="M18" t="n">
-        <v>8.011728657939138</v>
+        <v>8.006573791417043</v>
       </c>
       <c r="N18" t="n">
-        <v>98.96748711813999</v>
+        <v>98.82060163749364</v>
       </c>
       <c r="O18" t="n">
-        <v>9.948240403113507</v>
+        <v>9.940855176366551</v>
       </c>
       <c r="P18" t="n">
-        <v>377.4769770376733</v>
+        <v>377.5262427425952</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35787,28 +35888,28 @@
         <v>0.1399</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09152419429321769</v>
+        <v>0.08099402290864952</v>
       </c>
       <c r="J19" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K19" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004532860333661959</v>
+        <v>0.00354525659348548</v>
       </c>
       <c r="M19" t="n">
-        <v>8.445537098501928</v>
+        <v>8.480821165753918</v>
       </c>
       <c r="N19" t="n">
-        <v>110.7399511688063</v>
+        <v>111.3550713665383</v>
       </c>
       <c r="O19" t="n">
-        <v>10.523305144716</v>
+        <v>10.55249123982286</v>
       </c>
       <c r="P19" t="n">
-        <v>382.0361314871685</v>
+        <v>382.136511056009</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35865,28 +35966,28 @@
         <v>0.1622</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1218094038876913</v>
+        <v>0.1109930141762394</v>
       </c>
       <c r="J20" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K20" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L20" t="n">
-        <v>0.006908621231494605</v>
+        <v>0.005736151633571662</v>
       </c>
       <c r="M20" t="n">
-        <v>8.790250200003175</v>
+        <v>8.808969048296843</v>
       </c>
       <c r="N20" t="n">
-        <v>126.5476771397136</v>
+        <v>127.128050961168</v>
       </c>
       <c r="O20" t="n">
-        <v>11.24934118691906</v>
+        <v>11.27510758091328</v>
       </c>
       <c r="P20" t="n">
-        <v>381.4479623374241</v>
+        <v>381.5517749454384</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35943,28 +36044,28 @@
         <v>0.1408</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09610218557268782</v>
+        <v>0.08446913143021441</v>
       </c>
       <c r="J21" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K21" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0045677121557407</v>
+        <v>0.003523324505847136</v>
       </c>
       <c r="M21" t="n">
-        <v>8.204174099626499</v>
+        <v>8.234339273774873</v>
       </c>
       <c r="N21" t="n">
-        <v>118.011272701402</v>
+        <v>118.7401170671996</v>
       </c>
       <c r="O21" t="n">
-        <v>10.86329934694806</v>
+        <v>10.89679388936028</v>
       </c>
       <c r="P21" t="n">
-        <v>383.2383135277672</v>
+        <v>383.3503555612389</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -36024,7 +36125,7 @@
         <v>-0.1681217997083888</v>
       </c>
       <c r="J22" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K22" t="n">
         <v>289</v>
@@ -36099,28 +36200,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1212590746956159</v>
+        <v>0.106519182706697</v>
       </c>
       <c r="J23" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K23" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003339119810979896</v>
+        <v>0.002579689067933821</v>
       </c>
       <c r="M23" t="n">
-        <v>13.16096886987812</v>
+        <v>13.19238225130535</v>
       </c>
       <c r="N23" t="n">
-        <v>254.7873914738027</v>
+        <v>255.6410697739637</v>
       </c>
       <c r="O23" t="n">
-        <v>15.96206100332293</v>
+        <v>15.98877949607048</v>
       </c>
       <c r="P23" t="n">
-        <v>369.9850937301791</v>
+        <v>370.1273651139259</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -36177,28 +36278,28 @@
         <v>0.0847</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2514113226626969</v>
+        <v>0.2353167599850362</v>
       </c>
       <c r="J24" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K24" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01563857596291829</v>
+        <v>0.01370412572653734</v>
       </c>
       <c r="M24" t="n">
-        <v>12.09310833081396</v>
+        <v>12.14148725019793</v>
       </c>
       <c r="N24" t="n">
-        <v>230.3929009725178</v>
+        <v>231.6262009628282</v>
       </c>
       <c r="O24" t="n">
-        <v>15.17869892225674</v>
+        <v>15.21927071060989</v>
       </c>
       <c r="P24" t="n">
-        <v>363.3946595954185</v>
+        <v>363.551805972485</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -36255,28 +36356,28 @@
         <v>0.1319</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01722702064972752</v>
+        <v>0.00158235922471729</v>
       </c>
       <c r="J25" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K25" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L25" t="n">
-        <v>9.174613956741684e-05</v>
+        <v>7.714447245454892e-07</v>
       </c>
       <c r="M25" t="n">
-        <v>10.73795699798753</v>
+        <v>10.7886163619767</v>
       </c>
       <c r="N25" t="n">
-        <v>186.7522061031045</v>
+        <v>188.0879327577203</v>
       </c>
       <c r="O25" t="n">
-        <v>13.66573108556964</v>
+        <v>13.71451540367797</v>
       </c>
       <c r="P25" t="n">
-        <v>369.5999040278046</v>
+        <v>369.7521937183936</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -36333,28 +36434,28 @@
         <v>0.1085</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08721187008352548</v>
+        <v>0.07424877135924055</v>
       </c>
       <c r="J26" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K26" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002016046244105008</v>
+        <v>0.001463301435208453</v>
       </c>
       <c r="M26" t="n">
-        <v>11.58531493470273</v>
+        <v>11.6105223088145</v>
       </c>
       <c r="N26" t="n">
-        <v>216.6988083081343</v>
+        <v>217.3029670378029</v>
       </c>
       <c r="O26" t="n">
-        <v>14.72069320066601</v>
+        <v>14.74119964717264</v>
       </c>
       <c r="P26" t="n">
-        <v>367.7830078411042</v>
+        <v>367.9096911510197</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -36411,28 +36512,28 @@
         <v>0.1067</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01974677662886795</v>
+        <v>0.008518247438842885</v>
       </c>
       <c r="J27" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K27" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0001513008605626975</v>
+        <v>2.815941247658049e-05</v>
       </c>
       <c r="M27" t="n">
-        <v>9.857496953547795</v>
+        <v>9.884437783904049</v>
       </c>
       <c r="N27" t="n">
-        <v>148.3352237463255</v>
+        <v>148.8560550647658</v>
       </c>
       <c r="O27" t="n">
-        <v>12.17929487886411</v>
+        <v>12.20065797671445</v>
       </c>
       <c r="P27" t="n">
-        <v>377.2751010841985</v>
+        <v>377.3850309433814</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -36489,28 +36590,28 @@
         <v>0.1523</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.03519586812027831</v>
+        <v>-0.05509107351618828</v>
       </c>
       <c r="J28" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K28" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0002930688322281272</v>
+        <v>0.0007130189423107947</v>
       </c>
       <c r="M28" t="n">
-        <v>12.70263884379822</v>
+        <v>12.78091232209943</v>
       </c>
       <c r="N28" t="n">
-        <v>248.0973769584947</v>
+        <v>250.5953768531698</v>
       </c>
       <c r="O28" t="n">
-        <v>15.75110716611676</v>
+        <v>15.83020457395197</v>
       </c>
       <c r="P28" t="n">
-        <v>376.8908456602713</v>
+        <v>377.0836574036787</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36548,7 +36649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC359"/>
+  <dimension ref="A1:AC360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82657,6 +82758,149 @@
         </is>
       </c>
     </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>-36.707008622500794,175.7448503583128</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>-36.70726610733318,175.74569146908232</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>-36.70733903547727,175.74663479674047</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-36.7075394155118,175.74745867577357</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>-36.707633842009656,175.74832835798938</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>-36.707608895640206,175.74923042601895</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>-36.70760660506931,175.7501119818853</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>-36.70758022335299,175.75096895309258</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>-36.70744777620752,175.751835803815</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>-36.70737553100247,175.7527314835825</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>-36.70735942426794,175.7536401819556</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>-36.70719586725349,175.7545194290414</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>-36.707174045309685,175.75542339008246</t>
+        </is>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>-36.70711030626387,175.75632107879142</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>-36.70700335464641,175.75721409628719</t>
+        </is>
+      </c>
+      <c r="Q360" t="inlineStr">
+        <is>
+          <t>-36.70704556440514,175.75812414964673</t>
+        </is>
+      </c>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>-36.70694332569189,175.75901443061366</t>
+        </is>
+      </c>
+      <c r="S360" t="inlineStr">
+        <is>
+          <t>-36.7069309594961,175.7599079240899</t>
+        </is>
+      </c>
+      <c r="T360" t="inlineStr">
+        <is>
+          <t>-36.70676076445728,175.76076892652324</t>
+        </is>
+      </c>
+      <c r="U360" t="inlineStr">
+        <is>
+          <t>-36.706560378652554,175.76162988093228</t>
+        </is>
+      </c>
+      <c r="V360" t="inlineStr"/>
+      <c r="W360" t="inlineStr">
+        <is>
+          <t>-36.70628039447651,175.7634056568301</t>
+        </is>
+      </c>
+      <c r="X360" t="inlineStr">
+        <is>
+          <t>-36.706100602395345,175.76427817875245</t>
+        </is>
+      </c>
+      <c r="Y360" t="inlineStr">
+        <is>
+          <t>-36.70587775955795,175.76513774646614</t>
+        </is>
+      </c>
+      <c r="Z360" t="inlineStr">
+        <is>
+          <t>-36.7055773700885,175.765960724582</t>
+        </is>
+      </c>
+      <c r="AA360" t="inlineStr">
+        <is>
+          <t>-36.70521587815429,175.76674493742902</t>
+        </is>
+      </c>
+      <c r="AB360" t="inlineStr">
+        <is>
+          <t>-36.70506800452827,175.76764464349463</t>
+        </is>
+      </c>
+      <c r="AC360" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0153/nzd0153.xlsx
+++ b/data/nzd0153/nzd0153.xlsx
@@ -34565,13 +34565,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06759999999999999</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1032</v>
+        <v>0.1108</v>
       </c>
       <c r="I2" t="n">
         <v>0.5143896347121252</v>
@@ -34643,13 +34643,13 @@
         <v>0.961503760900387</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0752</v>
+        <v>0.1165</v>
       </c>
       <c r="H3" t="n">
-        <v>0.117</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.7330741151855918</v>
@@ -34721,13 +34721,13 @@
         <v>0.923007521801905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0741</v>
+        <v>0.1196</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1148</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.7198289656217762</v>
@@ -34799,13 +34799,13 @@
         <v>0.8849935411474846</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.145</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0851</v>
+        <v>0.116</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1157</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.6096385759205177</v>
@@ -34877,10 +34877,10 @@
         <v>0.8464973020485397</v>
       </c>
       <c r="F6" t="n">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1244</v>
+        <v>0.1058</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
@@ -34955,13 +34955,13 @@
         <v>0.8080010629495947</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0804</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1024</v>
+        <v>0.1474</v>
       </c>
       <c r="I7" t="n">
         <v>0.4824244909407112</v>
@@ -35032,9 +35032,15 @@
       <c r="E8" t="n">
         <v>0.7695048238506498</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0897</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.18</v>
+      </c>
       <c r="I8" t="n">
         <v>0.4956883401245848</v>
       </c>
@@ -35105,13 +35111,13 @@
         <v>0.7312618525619796</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09</v>
+        <v>0.115</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0789</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1039</v>
+        <v>0.1446</v>
       </c>
       <c r="I9" t="n">
         <v>0.4829223593105817</v>
@@ -35183,13 +35189,13 @@
         <v>0.6927656134617444</v>
       </c>
       <c r="F10" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1016</v>
+        <v>0.0897</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1415</v>
+        <v>0.1476</v>
       </c>
       <c r="I10" t="n">
         <v>0.2861887576844969</v>
@@ -35261,13 +35267,13 @@
         <v>0.6542693743629278</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0716</v>
+        <v>0.0814</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1115</v>
+        <v>0.1522</v>
       </c>
       <c r="I11" t="n">
         <v>0.2588329024122424</v>
@@ -35339,13 +35345,13 @@
         <v>0.6157734967852948</v>
       </c>
       <c r="F12" t="n">
-        <v>0.095</v>
+        <v>0.15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0871</v>
+        <v>0.1088</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1108</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
         <v>0.2830375572709523</v>
@@ -35417,13 +35423,13 @@
         <v>0.5772772576865155</v>
       </c>
       <c r="F13" t="n">
-        <v>0.115</v>
+        <v>0.125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0987</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.132</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
         <v>0.2345502467954937</v>
@@ -35495,13 +35501,13 @@
         <v>0.5387810185863602</v>
       </c>
       <c r="F14" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1116</v>
+        <v>0.154</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1814</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
         <v>0.2024353408294489</v>
@@ -35573,13 +35579,13 @@
         <v>0.5002847794875809</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0699</v>
+        <v>0.1034</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
         <v>0.193532203071055</v>
@@ -35651,13 +35657,13 @@
         <v>0.461802774355678</v>
       </c>
       <c r="F16" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0944</v>
+        <v>0.1381</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1256</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
         <v>0.1509193342497567</v>
@@ -35729,13 +35735,13 @@
         <v>0.4233065352558554</v>
       </c>
       <c r="F17" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0936</v>
+        <v>0.1348</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1221</v>
+        <v>0.2</v>
       </c>
       <c r="I17" t="n">
         <v>0.08674875232937636</v>
@@ -35806,9 +35812,15 @@
       <c r="E18" t="n">
         <v>0.3848102961560071</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1473</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I18" t="n">
         <v>0.06213456673943656</v>
       </c>
@@ -35879,13 +35891,13 @@
         <v>0.3463140570561845</v>
       </c>
       <c r="F19" t="n">
-        <v>0.115</v>
+        <v>0.2</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0993</v>
+        <v>0.138</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1399</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
         <v>0.08097104352006332</v>
@@ -35957,13 +35969,13 @@
         <v>0.3079440275753132</v>
       </c>
       <c r="F20" t="n">
-        <v>0.125</v>
+        <v>0.14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.103</v>
+        <v>0.0838</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1622</v>
+        <v>0.2</v>
       </c>
       <c r="I20" t="n">
         <v>0.1109930141762395</v>
@@ -36035,13 +36047,13 @@
         <v>0.2694477884757682</v>
       </c>
       <c r="F21" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1028</v>
+        <v>0.0617</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1408</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
         <v>0.08447846070477852</v>
@@ -36113,13 +36125,13 @@
         <v>0.2309540926561182</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0668</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0956</v>
+        <v>0.2</v>
       </c>
       <c r="I22" t="n">
         <v>-0.1681430709044062</v>
@@ -36191,13 +36203,13 @@
         <v>0.1924578535575091</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.051</v>
+        <v>0.0534</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.1121</v>
       </c>
       <c r="I23" t="n">
         <v>0.1065113688083338</v>
@@ -36269,13 +36281,13 @@
         <v>0.1539616144590099</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0575</v>
+        <v>0.0649</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0847</v>
+        <v>0.0946</v>
       </c>
       <c r="I24" t="n">
         <v>0.2353461827419799</v>
@@ -36347,13 +36359,13 @@
         <v>0.1154653753591454</v>
       </c>
       <c r="F25" t="n">
-        <v>0.105</v>
+        <v>0.12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0843</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1319</v>
+        <v>0.1677</v>
       </c>
       <c r="I25" t="n">
         <v>0.001556969418431695</v>
@@ -36425,13 +36437,13 @@
         <v>0.07699247819831945</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.077</v>
+        <v>0.0906</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1085</v>
+        <v>0.1776</v>
       </c>
       <c r="I26" t="n">
         <v>0.07422922684236498</v>
@@ -36503,13 +36515,13 @@
         <v>0.03849623909909078</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09</v>
+        <v>0.075</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.0667</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1067</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="I27" t="n">
         <v>0.008498099388379756</v>
@@ -36584,10 +36596,10 @@
         <v>0.115</v>
       </c>
       <c r="G28" t="n">
-        <v>0.092</v>
+        <v>0.0939</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1523</v>
+        <v>0.1439</v>
       </c>
       <c r="I28" t="n">
         <v>-0.05511959103847298</v>
